--- a/Preprocessed Data/revascularization/test_c.xlsx
+++ b/Preprocessed Data/revascularization/test_c.xlsx
@@ -1023,28 +1023,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="D2">
-        <v>0.1958854639767618</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-0.4751468553758615</v>
+        <v>-0.3943661971830986</v>
       </c>
       <c r="F2">
-        <v>-0.6314064463561115</v>
+        <v>-0.4041768487616828</v>
       </c>
       <c r="G2">
-        <v>-0.2263058923599116</v>
+        <v>-0.2036657856591278</v>
       </c>
       <c r="H2">
-        <v>-0.3380861157630313</v>
+        <v>-0.1709401709401709</v>
       </c>
       <c r="I2">
-        <v>-0.2469869503327939</v>
+        <v>-0.32</v>
       </c>
       <c r="J2">
-        <v>1.960502869247881</v>
+        <v>1.081674556412532</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>1</v>
       </c>
       <c r="R2">
-        <v>0.1183298393126937</v>
+        <v>0.1449275362318841</v>
       </c>
       <c r="S2">
-        <v>0.3263489205408961</v>
+        <v>0.2142857142857142</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="U2">
         <v>6</v>
@@ -1212,73 +1212,73 @@
         <v>0</v>
       </c>
       <c r="BN2">
-        <v>-0.3000797948832687</v>
+        <v>-0.230110499370671</v>
       </c>
       <c r="BO2">
-        <v>-0.2688397822201817</v>
+        <v>-0.2984274318443782</v>
       </c>
       <c r="BP2">
-        <v>-0.4137672309307858</v>
+        <v>-0.4022352038259789</v>
       </c>
       <c r="BQ2">
-        <v>0.2945929693593245</v>
+        <v>0.5951940850277269</v>
       </c>
       <c r="BR2">
-        <v>0.4000934975181911</v>
+        <v>0.7937219730941708</v>
       </c>
       <c r="BS2">
-        <v>0.3205295193019183</v>
+        <v>0.5277777777777777</v>
       </c>
       <c r="BT2">
-        <v>-0.7432197560804978</v>
+        <v>-0.5298688809432507</v>
       </c>
       <c r="BU2">
-        <v>0.5130556112296848</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="BV2">
-        <v>-0.7731070468398559</v>
+        <v>-1.069075451647184</v>
       </c>
       <c r="BW2">
-        <v>0.1874656464690795</v>
+        <v>0.2252252252252266</v>
       </c>
       <c r="BX2">
-        <v>-0.5224599808835532</v>
+        <v>-0.4009779951100245</v>
       </c>
       <c r="BY2">
-        <v>0.5581451848269025</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="BZ2">
-        <v>-0.1597362466446825</v>
+        <v>-0.07049608355091389</v>
       </c>
       <c r="CA2">
-        <v>-0.4130423230203211</v>
+        <v>-0.3307810107197551</v>
       </c>
       <c r="CB2">
-        <v>0.4974438094098326</v>
+        <v>0.4945454545454547</v>
       </c>
       <c r="CC2">
-        <v>0.7404903238026344</v>
+        <v>0.7500000000000006</v>
       </c>
       <c r="CD2">
-        <v>0.5911523275770149</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="CE2">
-        <v>1.236762790671837</v>
+        <v>0.9855318722394971</v>
       </c>
       <c r="CF2">
         <v>0</v>
       </c>
       <c r="CG2">
-        <v>-0.1112644786310148</v>
+        <v>-0.1690140845070423</v>
       </c>
       <c r="CH2">
-        <v>0.2096034755477348</v>
+        <v>-0.008476558617119571</v>
       </c>
       <c r="CI2">
-        <v>1.236363636363636</v>
+        <v>1.48936170212766</v>
       </c>
       <c r="CJ2">
-        <v>0.8496125158881926</v>
+        <v>0.8736591422055402</v>
       </c>
       <c r="CK2">
         <v>0</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="CM2">
-        <v>0.3571320733912325</v>
+        <v>0.34790446146913</v>
       </c>
       <c r="CN2">
-        <v>0.5300308893680039</v>
+        <v>0.4939195509822266</v>
       </c>
       <c r="CO2">
-        <v>-0.3999999999999998</v>
+        <v>-0.4999999999999994</v>
       </c>
       <c r="CP2">
-        <v>-0.3469093266940081</v>
+        <v>-0.25</v>
       </c>
       <c r="CQ2">
         <v>0</v>
@@ -1311,28 +1311,28 @@
         <v>0</v>
       </c>
       <c r="CU2">
-        <v>-0.7716463412010373</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="CV2">
-        <v>-0.4535684978661038</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="CW2">
-        <v>0.4491505724043672</v>
+        <v>0.32</v>
       </c>
       <c r="CX2">
-        <v>-0.07853069949874988</v>
+        <v>-0.01329503284001265</v>
       </c>
       <c r="CY2">
-        <v>-0.1208296221002898</v>
+        <v>-0.0916304211344546</v>
       </c>
       <c r="CZ2">
-        <v>0.2196462610093523</v>
+        <v>0.1068733452663182</v>
       </c>
       <c r="DA2">
-        <v>-0.4818411594171814</v>
+        <v>-0.4549180327868853</v>
       </c>
       <c r="DB2">
-        <v>-1.315313180774358</v>
+        <v>-1.273732030350838</v>
       </c>
       <c r="DC2">
         <v>0</v>
@@ -1346,25 +1346,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.5865302804202671</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="D3">
-        <v>0.7835418559070472</v>
+        <v>0.5</v>
       </c>
       <c r="E3">
-        <v>-0.4751468553758615</v>
+        <v>-0.3943661971830986</v>
       </c>
       <c r="F3">
-        <v>-1.012612297245433</v>
+        <v>-0.6733742529797119</v>
       </c>
       <c r="G3">
-        <v>-0.1027892132062676</v>
+        <v>-0.07684881767132548</v>
       </c>
       <c r="H3">
-        <v>1.032235129014331</v>
+        <v>1.094017094017094</v>
       </c>
       <c r="I3">
-        <v>1.253013049667206</v>
+        <v>1.12</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>1</v>
       </c>
       <c r="R3">
-        <v>-0.2763991335121155</v>
+        <v>-0.1159420289855072</v>
       </c>
       <c r="S3">
-        <v>-0.3263489205408965</v>
+        <v>-0.2142857142857144</v>
       </c>
       <c r="T3">
-        <v>1.285430457380661</v>
+        <v>1.106382978723404</v>
       </c>
       <c r="U3">
         <v>9</v>
@@ -1535,94 +1535,94 @@
         <v>0</v>
       </c>
       <c r="BN3">
-        <v>-0.32180933007493</v>
+        <v>-0.2498783811958024</v>
       </c>
       <c r="BO3">
-        <v>-0.269650370721117</v>
+        <v>-0.2994429747282153</v>
       </c>
       <c r="BP3">
-        <v>-0.4323001435987749</v>
+        <v>-0.4227858859944564</v>
       </c>
       <c r="BQ3">
-        <v>-0.5859531057259992</v>
+        <v>-0.3585951940850273</v>
       </c>
       <c r="BR3">
-        <v>-0.5883727904679279</v>
+        <v>-0.5246636771300449</v>
       </c>
       <c r="BS3">
-        <v>0.9717486577371869</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="BT3">
-        <v>-0.868944628129148</v>
+        <v>-0.6533256710667075</v>
       </c>
       <c r="BU3">
-        <v>-1.936190276381636</v>
+        <v>-1.891891891891892</v>
       </c>
       <c r="BV3">
-        <v>-0.698942708044172</v>
+        <v>-0.928799149840595</v>
       </c>
       <c r="BW3">
-        <v>-1.812167915867761</v>
+        <v>-1.792792792792793</v>
       </c>
       <c r="BX3">
-        <v>0.6821106937619198</v>
+        <v>0.6259168704156477</v>
       </c>
       <c r="BY3">
-        <v>-0.4039412099485239</v>
+        <v>-0.5087719298245614</v>
       </c>
       <c r="BZ3">
-        <v>-0.6361425962867177</v>
+        <v>-0.5143603133159268</v>
       </c>
       <c r="CA3">
-        <v>-0.4243395091937745</v>
+        <v>-0.3409903011740685</v>
       </c>
       <c r="CB3">
-        <v>-0.550050831700071</v>
+        <v>-0.5236363636363637</v>
       </c>
       <c r="CC3">
-        <v>1.480980647605269</v>
+        <v>1.500000000000001</v>
       </c>
       <c r="CD3">
-        <v>0.6283406200361424</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="CE3">
-        <v>1.175336758084921</v>
+        <v>0.9206308544312694</v>
       </c>
       <c r="CF3">
-        <v>0.7911837728129636</v>
+        <v>0.6956521739130431</v>
       </c>
       <c r="CG3">
-        <v>1.335173743572178</v>
+        <v>1.295774647887324</v>
       </c>
       <c r="CH3">
-        <v>2.070264262362485</v>
+        <v>1.901386400133555</v>
       </c>
       <c r="CI3">
-        <v>-0.5818181818181818</v>
+        <v>-0.6382978723404256</v>
       </c>
       <c r="CJ3">
-        <v>-1.589490145072912</v>
+        <v>-1.328582334259987</v>
       </c>
       <c r="CK3">
-        <v>-2.468353878206939</v>
+        <v>-1.000000000000001</v>
       </c>
       <c r="CL3">
         <v>1</v>
       </c>
       <c r="CM3">
-        <v>-0.1879573711175763</v>
+        <v>-0.03785488958990578</v>
       </c>
       <c r="CN3">
-        <v>-0.1668540120634448</v>
+        <v>0.02245088868101008</v>
       </c>
       <c r="CO3">
-        <v>-0.1999999999999995</v>
+        <v>-0.2499999999999992</v>
       </c>
       <c r="CP3">
-        <v>1.508126304184021</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="CQ3">
-        <v>-1.620819481433749</v>
+        <v>-2.499999999999998</v>
       </c>
       <c r="CR3">
         <v>1</v>
@@ -1634,28 +1634,28 @@
         <v>0</v>
       </c>
       <c r="CU3">
-        <v>2.314939023603112</v>
+        <v>2</v>
       </c>
       <c r="CV3">
-        <v>1.879069491159573</v>
+        <v>1.555555555555556</v>
       </c>
       <c r="CW3">
-        <v>-2.694903434426204</v>
+        <v>-1.92</v>
       </c>
       <c r="CX3">
-        <v>0.2779108606598598</v>
+        <v>0.3803267716394836</v>
       </c>
       <c r="CY3">
-        <v>3.268683054746055</v>
+        <v>2.474538340266613</v>
       </c>
       <c r="CZ3">
-        <v>1.540115002692488</v>
+        <v>0.9798521539446173</v>
       </c>
       <c r="DA3">
-        <v>-0.2923823312883083</v>
+        <v>-0.1841917582856452</v>
       </c>
       <c r="DB3">
-        <v>0.1721552028796508</v>
+        <v>0.3176017976696639</v>
       </c>
       <c r="DC3">
         <v>0</v>
@@ -1669,28 +1669,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>-0.1955100934734224</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>-0.9794273198838068</v>
+        <v>-0.9999999999999981</v>
       </c>
       <c r="E4">
-        <v>-0.5995329283106179</v>
+        <v>-0.5070422535211268</v>
       </c>
       <c r="F4">
-        <v>0.09750487390096091</v>
+        <v>0.1105608837798643</v>
       </c>
       <c r="G4">
-        <v>-0.5666394524955924</v>
+        <v>-0.5530928468191357</v>
       </c>
       <c r="H4">
-        <v>-1.634335941903779</v>
+        <v>-1.367521367521368</v>
       </c>
       <c r="I4">
-        <v>-1.246986950332794</v>
+        <v>-1.28</v>
       </c>
       <c r="J4">
-        <v>1.247592734975925</v>
+        <v>0.6883383540807024</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1714,13 +1714,13 @@
         <v>1</v>
       </c>
       <c r="R4">
-        <v>2.530562451019861</v>
+        <v>1.739130434782609</v>
       </c>
       <c r="S4">
-        <v>3.843665064148334</v>
+        <v>2.523809523809524</v>
       </c>
       <c r="T4">
-        <v>1.499668866944105</v>
+        <v>1.276595744680851</v>
       </c>
       <c r="U4">
         <v>9</v>
@@ -1858,73 +1858,73 @@
         <v>1</v>
       </c>
       <c r="BN4">
-        <v>1.5014344821004</v>
+        <v>1.408770453194135</v>
       </c>
       <c r="BO4">
-        <v>-0.0368007179424599</v>
+        <v>-0.007718125917162167</v>
       </c>
       <c r="BP4">
-        <v>-0.2344098205550248</v>
+        <v>-0.2033502686177129</v>
       </c>
       <c r="BQ4">
-        <v>-0.2787858702311188</v>
+        <v>-0.02587800369685712</v>
       </c>
       <c r="BR4">
-        <v>-0.4807846230680781</v>
+        <v>-0.3811659192825111</v>
       </c>
       <c r="BS4">
-        <v>-0.6704561261430557</v>
+        <v>-0.4444444444444445</v>
       </c>
       <c r="BT4">
-        <v>1.532400428000069</v>
+        <v>1.704699020291317</v>
       </c>
       <c r="BU4">
-        <v>-0.4054115966245606</v>
+        <v>-0.2702702702702703</v>
       </c>
       <c r="BV4">
-        <v>0.2606988878878584</v>
+        <v>0.8862911795961746</v>
       </c>
       <c r="BW4">
-        <v>-0.6516662948687019</v>
+        <v>-0.6216216216216212</v>
       </c>
       <c r="BX4">
-        <v>-0.1209364226683955</v>
+        <v>-0.05867970660146712</v>
       </c>
       <c r="BY4">
-        <v>0.2832633577482092</v>
+        <v>0.1929824561403509</v>
       </c>
       <c r="BZ4">
-        <v>-0.2269936136529697</v>
+        <v>-0.1331592689295039</v>
       </c>
       <c r="CA4">
-        <v>0.1247037388360615</v>
+        <v>0.155181214905564</v>
       </c>
       <c r="CB4">
-        <v>-0.4752297859065064</v>
+        <v>-0.4509090909090909</v>
       </c>
       <c r="CC4">
-        <v>-1.110735485703953</v>
+        <v>-1.125000000000002</v>
       </c>
       <c r="CD4">
-        <v>-0.8220027858698336</v>
+        <v>-1.095238095238095</v>
       </c>
       <c r="CE4">
-        <v>-0.4882650113847968</v>
+        <v>-0.8370839697091126</v>
       </c>
       <c r="CF4">
-        <v>-0.7911837728129636</v>
+        <v>-0.6956521739130431</v>
       </c>
       <c r="CG4">
-        <v>-0.8901158290481184</v>
+        <v>-0.9577464788732394</v>
       </c>
       <c r="CH4">
-        <v>-0.6996163366390487</v>
+        <v>-0.9417392215178932</v>
       </c>
       <c r="CI4">
-        <v>-0.509090909090909</v>
+        <v>-0.5531914893617021</v>
       </c>
       <c r="CJ4">
-        <v>0.6126285565850401</v>
+        <v>0.6596886879120037</v>
       </c>
       <c r="CK4">
         <v>0</v>
@@ -1933,16 +1933,16 @@
         <v>1</v>
       </c>
       <c r="CM4">
-        <v>-1.239929056080837</v>
+        <v>-0.7823343848580443</v>
       </c>
       <c r="CN4">
-        <v>-0.9798863970668005</v>
+        <v>-0.5275958840037417</v>
       </c>
       <c r="CO4">
         <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.02409779948159809</v>
+        <v>0</v>
       </c>
       <c r="CQ4">
         <v>0</v>
@@ -1957,28 +1957,28 @@
         <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.3858231706005186</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CV4">
-        <v>-0.4535684978661038</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="CW4">
-        <v>0.5988674298724896</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="CX4">
-        <v>0.2180074999606644</v>
+        <v>0.3141749207657777</v>
       </c>
       <c r="CY4">
-        <v>0.7172283181086516</v>
+        <v>0.5428555098664759</v>
       </c>
       <c r="CZ4">
-        <v>2.6540160074623</v>
+        <v>1.716266384311044</v>
       </c>
       <c r="DA4">
-        <v>0.3351365202748849</v>
+        <v>0.7124982642423141</v>
       </c>
       <c r="DB4">
-        <v>0.2150664558268983</v>
+        <v>0.363509414374735</v>
       </c>
       <c r="DC4">
         <v>0</v>
@@ -1992,28 +1992,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.6842853271569782</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="D5">
-        <v>0.9794273198838089</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E5">
-        <v>-1.283656329451778</v>
+        <v>-1.126760563380282</v>
       </c>
       <c r="F5">
-        <v>-1.984674922508214</v>
+        <v>-1.359818951684188</v>
       </c>
       <c r="G5">
-        <v>-0.6820845099747738</v>
+        <v>-0.6716225244222388</v>
       </c>
       <c r="H5">
-        <v>-0.634371790309488</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="I5">
-        <v>-0.9136536169994606</v>
+        <v>-0.96</v>
       </c>
       <c r="J5">
-        <v>0.8911376678399461</v>
+        <v>0.4916702529147874</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -2037,13 +2037,13 @@
         <v>1</v>
       </c>
       <c r="R5">
-        <v>0.7762114606873758</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="S5">
-        <v>0.9427857704514782</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="T5">
-        <v>-0.5355960239086087</v>
+        <v>-0.3404255319148936</v>
       </c>
       <c r="U5">
         <v>3</v>
@@ -2181,94 +2181,94 @@
         <v>1</v>
       </c>
       <c r="BN5">
-        <v>-0.3576291107424342</v>
+        <v>-0.2824644988919176</v>
       </c>
       <c r="BO5">
-        <v>0.07976190849202762</v>
+        <v>0.1383169407786167</v>
       </c>
       <c r="BP5">
-        <v>0.3675666390681762</v>
+        <v>0.4641663336695019</v>
       </c>
       <c r="BQ5">
-        <v>-1.350458225179924</v>
+        <v>-1.186691312384473</v>
       </c>
       <c r="BR5">
-        <v>-1.233901794867026</v>
+        <v>-1.385650224215247</v>
       </c>
       <c r="BS5">
-        <v>0.8868070309847604</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="BT5">
-        <v>-1.246119244275098</v>
+        <v>-1.023696041437078</v>
       </c>
       <c r="BU5">
-        <v>-1.323878804478806</v>
+        <v>-1.243243243243243</v>
       </c>
       <c r="BV5">
-        <v>-0.5798302851298919</v>
+        <v>-0.7035069075451644</v>
       </c>
       <c r="BW5">
-        <v>-1.02659758780686</v>
+        <v>-1</v>
       </c>
       <c r="BX5">
-        <v>-0.06357591435194439</v>
+        <v>-0.009779951100244636</v>
       </c>
       <c r="BY5">
-        <v>0.04274175905435258</v>
+        <v>-0.05263157894736842</v>
       </c>
       <c r="BZ5">
-        <v>-1.39278797512995</v>
+        <v>-1.219321148825065</v>
       </c>
       <c r="CA5">
-        <v>-0.5395708081629994</v>
+        <v>-0.4451250638080655</v>
       </c>
       <c r="CB5">
-        <v>-0.5650150408587838</v>
+        <v>-0.5381818181818182</v>
       </c>
       <c r="CC5">
-        <v>1.234150539671058</v>
+        <v>1.250000000000002</v>
       </c>
       <c r="CD5">
-        <v>1.037411837086546</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="CE5">
-        <v>2.346131224150877</v>
+        <v>2.157659346942208</v>
       </c>
       <c r="CF5">
-        <v>1.087877687617826</v>
+        <v>0.9565217391304349</v>
       </c>
       <c r="CG5">
-        <v>1.168277025625655</v>
+        <v>1.126760563380282</v>
       </c>
       <c r="CH5">
-        <v>2.336106731668894</v>
+        <v>2.174258644547482</v>
       </c>
       <c r="CI5">
-        <v>0.4363636363636363</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="CJ5">
-        <v>-0.734245528720906</v>
+        <v>-0.5563904963354293</v>
       </c>
       <c r="CK5">
-        <v>-0.8227846260689802</v>
+        <v>-0.3333333333333338</v>
       </c>
       <c r="CL5">
         <v>1</v>
       </c>
       <c r="CM5">
-        <v>0.7341098200608761</v>
+        <v>0.6146913023884633</v>
       </c>
       <c r="CN5">
-        <v>1.448149092841182</v>
+        <v>1.115060804490178</v>
       </c>
       <c r="CO5">
-        <v>0.4000000000000007</v>
+        <v>0.5000000000000006</v>
       </c>
       <c r="CP5">
-        <v>2.62114768271084</v>
+        <v>1.749999999999999</v>
       </c>
       <c r="CQ5">
-        <v>0.9724916888602487</v>
+        <v>1.499999999999998</v>
       </c>
       <c r="CR5">
         <v>1</v>
@@ -2280,28 +2280,28 @@
         <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.7716463412010373</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="CV5">
-        <v>0.7775459963418923</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="CW5">
-        <v>-0.9731595735427957</v>
+        <v>-0.6933333333333334</v>
       </c>
       <c r="CX5">
-        <v>-0.8491632886135405</v>
+        <v>-0.86431192936322</v>
       </c>
       <c r="CY5">
-        <v>-1.345544837688711</v>
+        <v>-1.018851006360209</v>
       </c>
       <c r="CZ5">
-        <v>-0.477835320068506</v>
+        <v>-0.3542406671322543</v>
       </c>
       <c r="DA5">
-        <v>-0.5449394064837171</v>
+        <v>-0.5450819672131147</v>
       </c>
       <c r="DB5">
-        <v>-0.2834630776959831</v>
+        <v>-0.1698309373801119</v>
       </c>
       <c r="DC5">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>-0.1955100934734224</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3917709279535236</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E6">
-        <v>-0.2885677459737271</v>
+        <v>-0.2253521126760563</v>
       </c>
       <c r="F6">
-        <v>-0.5521135620448628</v>
+        <v>-0.3481823287936615</v>
       </c>
       <c r="G6">
-        <v>-0.05143255266458265</v>
+        <v>-0.02411993910607671</v>
       </c>
       <c r="H6">
-        <v>-0.3751218250813384</v>
+        <v>-0.2051282051282051</v>
       </c>
       <c r="I6">
-        <v>0.8641241607783172</v>
+        <v>0.7466666666666667</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -2360,13 +2360,13 @@
         <v>1</v>
       </c>
       <c r="R6">
-        <v>0.3376237131042544</v>
+        <v>0.2898550724637681</v>
       </c>
       <c r="S6">
-        <v>0.3263489205408961</v>
+        <v>0.2142857142857142</v>
       </c>
       <c r="T6">
-        <v>-1.178311252598939</v>
+        <v>-0.851063829787234</v>
       </c>
       <c r="U6">
         <v>3</v>
@@ -2504,73 +2504,73 @@
         <v>0</v>
       </c>
       <c r="BN6">
-        <v>-0.4339880555018815</v>
+        <v>-0.3519300711180436</v>
       </c>
       <c r="BO6">
-        <v>-0.270639288692258</v>
+        <v>-0.3006819370464967</v>
       </c>
       <c r="BP6">
-        <v>-0.4180458169417907</v>
+        <v>-0.4069796205735162</v>
       </c>
       <c r="BQ6">
-        <v>0.8133643004173445</v>
+        <v>1.157116451016636</v>
       </c>
       <c r="BR6">
-        <v>0.7497550415677026</v>
+        <v>1.260089686098655</v>
       </c>
       <c r="BS6">
-        <v>-0.2457479923809239</v>
+        <v>-0.0277777777777778</v>
       </c>
       <c r="BT6">
-        <v>0.4888839899962729</v>
+        <v>0.6800076622666255</v>
       </c>
       <c r="BU6">
-        <v>0.7681853911891974</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="BV6">
-        <v>0.02921625467708735</v>
+        <v>0.4484590860786396</v>
       </c>
       <c r="BW6">
-        <v>0.5266891972226502</v>
+        <v>0.5675675675675689</v>
       </c>
       <c r="BX6">
-        <v>1.19835526860998</v>
+        <v>1.06601466992665</v>
       </c>
       <c r="BY6">
-        <v>-0.5070218951030339</v>
+        <v>-0.6140350877192983</v>
       </c>
       <c r="BZ6">
-        <v>-0.5184422040222147</v>
+        <v>-0.4046997389033941</v>
       </c>
       <c r="CA6">
-        <v>-0.6322077347853173</v>
+        <v>-0.5288412455334355</v>
       </c>
       <c r="CB6">
-        <v>0.422622763616268</v>
+        <v>0.4218181818181819</v>
       </c>
       <c r="CC6">
-        <v>0.2468301079342107</v>
+        <v>0.2499999999999994</v>
       </c>
       <c r="CD6">
-        <v>0.2936459879039942</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CE6">
-        <v>0.6771041159105882</v>
+        <v>0.3942122624988954</v>
       </c>
       <c r="CF6">
         <v>0</v>
       </c>
       <c r="CG6">
-        <v>-0.0556322393155074</v>
+        <v>-0.1126760563380282</v>
       </c>
       <c r="CH6">
-        <v>0.18768569843169</v>
+        <v>-0.03097391598000932</v>
       </c>
       <c r="CI6">
-        <v>0.5818181818181818</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="CJ6">
-        <v>0.4076694566471798</v>
+        <v>0.4746331598743519</v>
       </c>
       <c r="CK6">
         <v>0</v>
@@ -2579,16 +2579,16 @@
         <v>1</v>
       </c>
       <c r="CM6">
-        <v>-0.6668209952655012</v>
+        <v>-0.3767462821090583</v>
       </c>
       <c r="CN6">
-        <v>-0.7144064346167252</v>
+        <v>-0.3479887745556595</v>
       </c>
       <c r="CO6">
-        <v>-0.1999999999999995</v>
+        <v>-0.2499999999999992</v>
       </c>
       <c r="CP6">
-        <v>-0.3469093266940081</v>
+        <v>-0.25</v>
       </c>
       <c r="CQ6">
         <v>0</v>
@@ -2603,28 +2603,28 @@
         <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.7716463412010373</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="CV6">
-        <v>0.3887729981709461</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="CW6">
-        <v>-0.07485842873406121</v>
+        <v>-0.05333333333333334</v>
       </c>
       <c r="CX6">
-        <v>-0.4096438045483564</v>
+        <v>-0.3789463834806038</v>
       </c>
       <c r="CY6">
-        <v>0.03459640147876143</v>
+        <v>0.02604118668748244</v>
       </c>
       <c r="CZ6">
-        <v>-0.4132305321556277</v>
+        <v>-0.3115296138473351</v>
       </c>
       <c r="DA6">
-        <v>0.2798580146472357</v>
+        <v>0.6335083114574821</v>
       </c>
       <c r="DB6">
-        <v>-0.1150656907320572</v>
+        <v>0.0103251327392826</v>
       </c>
       <c r="DC6">
         <v>0</v>
@@ -2638,28 +2638,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2932651402101336</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="D7">
-        <v>0.8814845878954281</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="E7">
-        <v>1.390644238645483</v>
+        <v>1.295774647887324</v>
       </c>
       <c r="F7">
-        <v>0.9189698693020776</v>
+        <v>0.690657553078259</v>
       </c>
       <c r="G7">
-        <v>1.175315300357072</v>
+        <v>1.235405853456998</v>
       </c>
       <c r="H7">
-        <v>-0.9676931741742517</v>
+        <v>-0.7521367521367521</v>
       </c>
       <c r="I7">
-        <v>3.641901938556095</v>
+        <v>3.413333333333334</v>
       </c>
       <c r="J7">
-        <v>-4.812143406335709</v>
+        <v>-2.655019365739852</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -2683,13 +2683,13 @@
         <v>1</v>
       </c>
       <c r="R7">
-        <v>2.179692252953364</v>
+        <v>1.507246376811594</v>
       </c>
       <c r="S7">
-        <v>2.755835329012013</v>
+        <v>1.80952380952381</v>
       </c>
       <c r="T7">
-        <v>0.5355960239086087</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="U7">
         <v>6</v>
@@ -2827,94 +2827,94 @@
         <v>0</v>
       </c>
       <c r="BN7">
-        <v>-0.2948171730790383</v>
+        <v>-0.2253229654911469</v>
       </c>
       <c r="BO7">
-        <v>-0.2085157859805812</v>
+        <v>-0.2228507304292192</v>
       </c>
       <c r="BP7">
-        <v>-0.3462708205967515</v>
+        <v>-0.3273901267926348</v>
       </c>
       <c r="BQ7">
-        <v>0.7655827304514741</v>
+        <v>1.105360443622921</v>
       </c>
       <c r="BR7">
-        <v>-0.6488911346303432</v>
+        <v>-0.6053811659192825</v>
       </c>
       <c r="BS7">
-        <v>-1.066850384321045</v>
+        <v>-0.8333333333333335</v>
       </c>
       <c r="BT7">
-        <v>6.837990028453103</v>
+        <v>6.914575563501193</v>
       </c>
       <c r="BU7">
-        <v>0.5640815672215873</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="BV7">
-        <v>2.514845306435461</v>
+        <v>5.149840595111583</v>
       </c>
       <c r="BW7">
-        <v>0.5266891972226502</v>
+        <v>0.5675675675675689</v>
       </c>
       <c r="BX7">
-        <v>1.255715776926431</v>
+        <v>1.114914425427873</v>
       </c>
       <c r="BY7">
-        <v>-0.6101025802575438</v>
+        <v>-0.7192982456140351</v>
       </c>
       <c r="BZ7">
-        <v>1.409602316882022</v>
+        <v>1.391644908616188</v>
       </c>
       <c r="CA7">
-        <v>0.0343262494484342</v>
+        <v>0.07350689127105656</v>
       </c>
       <c r="CB7">
-        <v>0.8565848292189424</v>
+        <v>0.8436363636363639</v>
       </c>
       <c r="CC7">
-        <v>1.234150539671058</v>
+        <v>1.250000000000002</v>
       </c>
       <c r="CD7">
-        <v>0.9258469597091632</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="CE7">
-        <v>0.5429227374690107</v>
+        <v>0.25243999323428</v>
       </c>
       <c r="CF7">
-        <v>-0.1977959432032411</v>
+        <v>-0.173913043478261</v>
       </c>
       <c r="CG7">
-        <v>1.112644786310148</v>
+        <v>1.070422535211268</v>
       </c>
       <c r="CH7">
-        <v>0.9413618770228007</v>
+        <v>0.742632012937345</v>
       </c>
       <c r="CI7">
-        <v>0.2909090909090909</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="CJ7">
-        <v>-0.7906680546683467</v>
+        <v>-0.6073338325209773</v>
       </c>
       <c r="CK7">
-        <v>-0.8227846260689802</v>
+        <v>-0.3333333333333338</v>
       </c>
       <c r="CL7">
         <v>1</v>
       </c>
       <c r="CM7">
-        <v>0.7341098200608761</v>
+        <v>0.6146913023884633</v>
       </c>
       <c r="CN7">
-        <v>-0.194508174818661</v>
+        <v>0.00374181478016817</v>
       </c>
       <c r="CO7">
-        <v>0.8000000000000014</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="CP7">
-        <v>0.7661120518328106</v>
+        <v>0.5</v>
       </c>
       <c r="CQ7">
-        <v>0.32416389628675</v>
+        <v>0.5</v>
       </c>
       <c r="CR7">
         <v>2</v>
@@ -2926,28 +2926,28 @@
         <v>0</v>
       </c>
       <c r="CU7">
-        <v>-0.7716463412010373</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="CV7">
-        <v>-1.360705493598311</v>
+        <v>-1.222222222222222</v>
       </c>
       <c r="CW7">
-        <v>0.9731595735427957</v>
+        <v>0.6933333333333334</v>
       </c>
       <c r="CX7">
-        <v>-0.2012725836521137</v>
+        <v>-0.1488400627297977</v>
       </c>
       <c r="CY7">
-        <v>0.1416093526686576</v>
+        <v>0.1070597042710642</v>
       </c>
       <c r="CZ7">
-        <v>0.9638602763302833</v>
+        <v>0.5988827688808758</v>
       </c>
       <c r="DA7">
-        <v>2.753378053812465</v>
+        <v>4.168032786885246</v>
       </c>
       <c r="DB7">
-        <v>-0.04534382313943518</v>
+        <v>0.08491546869005558</v>
       </c>
       <c r="DC7">
         <v>0</v>
@@ -2961,28 +2961,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1.368570654313956</v>
+        <v>1.230769230769231</v>
       </c>
       <c r="D8">
-        <v>-0.2938281959651427</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="E8">
-        <v>-0.8483050741801305</v>
+        <v>-0.7323943661971831</v>
       </c>
       <c r="F8">
-        <v>-0.7394285969712646</v>
+        <v>-0.4804592103146565</v>
       </c>
       <c r="G8">
-        <v>-0.5999705994740563</v>
+        <v>-0.5873145813114193</v>
       </c>
       <c r="H8">
-        <v>-1.078800302129173</v>
+        <v>-0.8547008547008547</v>
       </c>
       <c r="I8">
-        <v>-0.6914313947772384</v>
+        <v>-0.7466666666666667</v>
       </c>
       <c r="J8">
-        <v>0.7129101342719568</v>
+        <v>0.39333620233183</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>1</v>
       </c>
       <c r="R8">
-        <v>1.609528181095307</v>
+        <v>1.130434782608696</v>
       </c>
       <c r="S8">
-        <v>3.118445240724121</v>
+        <v>2.047619047619048</v>
       </c>
       <c r="T8">
-        <v>-0.8569536382537739</v>
+        <v>-0.5957446808510638</v>
       </c>
       <c r="U8">
         <v>3</v>
@@ -3150,91 +3150,91 @@
         <v>0</v>
       </c>
       <c r="BN8">
-        <v>-0.3008776762535876</v>
+        <v>-0.2308363512814375</v>
       </c>
       <c r="BO8">
-        <v>1.332283260137161</v>
+        <v>1.707533804883746</v>
       </c>
       <c r="BP8">
-        <v>1.831895541230277</v>
+        <v>2.087923937104764</v>
       </c>
       <c r="BQ8">
-        <v>-0.4767380886611528</v>
+        <v>-0.2402957486136778</v>
       </c>
       <c r="BR8">
-        <v>-0.3261266324307942</v>
+        <v>-0.1748878923766815</v>
       </c>
       <c r="BS8">
-        <v>0.1789601413812076</v>
+        <v>0.3888888888888886</v>
       </c>
       <c r="BT8">
-        <v>-0.7306472688756328</v>
+        <v>-0.517523201930905</v>
       </c>
       <c r="BU8">
-        <v>-0.558489464600268</v>
+        <v>-0.4324324324324325</v>
       </c>
       <c r="BV8">
-        <v>1.195619037554661</v>
+        <v>2.654622741764081</v>
       </c>
       <c r="BW8">
-        <v>-0.09819629100761215</v>
+        <v>-0.06306306306306207</v>
       </c>
       <c r="BX8">
-        <v>3.033891534736415</v>
+        <v>2.63080684596577</v>
       </c>
       <c r="BY8">
-        <v>-1.297307147954277</v>
+        <v>-1.421052631578947</v>
       </c>
       <c r="BZ8">
-        <v>0.09247887963639499</v>
+        <v>0.1644908616187988</v>
       </c>
       <c r="CA8">
-        <v>-0.3859290762040329</v>
+        <v>-0.3062787136294028</v>
       </c>
       <c r="CB8">
-        <v>-0.4153729492716547</v>
+        <v>-0.3927272727272726</v>
       </c>
       <c r="CC8">
-        <v>-0.2468301079342129</v>
+        <v>-0.2500000000000017</v>
       </c>
       <c r="CD8">
-        <v>-0.3013666914420473</v>
+        <v>-0.4285714285714285</v>
       </c>
       <c r="CE8">
-        <v>0.2964623998377218</v>
+        <v>-0.007963065338594325</v>
       </c>
       <c r="CF8">
         <v>0</v>
       </c>
       <c r="CG8">
-        <v>-0.1668967179465222</v>
+        <v>-0.2253521126760563</v>
       </c>
       <c r="CH8">
-        <v>0.3507496751038151</v>
+        <v>0.1364020244168483</v>
       </c>
       <c r="CI8">
-        <v>-0.4363636363636363</v>
+        <v>-0.4680851063829787</v>
       </c>
       <c r="CJ8">
-        <v>-0.2072078431664053</v>
+        <v>-0.0805334242386076</v>
       </c>
       <c r="CK8">
-        <v>5.759492382482855</v>
+        <v>2.333333333333334</v>
       </c>
       <c r="CL8">
         <v>2</v>
       </c>
       <c r="CM8">
-        <v>4.613414605046462</v>
+        <v>3.3600721045516</v>
       </c>
       <c r="CN8">
-        <v>5.917061794084119</v>
+        <v>4.13844714686623</v>
       </c>
       <c r="CO8">
-        <v>1.200000000000002</v>
+        <v>1.500000000000002</v>
       </c>
       <c r="CP8">
-        <v>1.879133430359628</v>
+        <v>1.249999999999999</v>
       </c>
       <c r="CQ8">
         <v>0</v>
@@ -3249,28 +3249,28 @@
         <v>0</v>
       </c>
       <c r="CU8">
-        <v>0.3858231706005186</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CV8">
-        <v>4.276502979880407</v>
+        <v>3.611111111111111</v>
       </c>
       <c r="CW8">
-        <v>-3.668063007968999</v>
+        <v>-2.613333333333333</v>
       </c>
       <c r="CX8">
-        <v>0.733378222852613</v>
+        <v>0.8833037109954073</v>
       </c>
       <c r="CY8">
-        <v>2.451045469415268</v>
+        <v>1.855512471457809</v>
       </c>
       <c r="CZ8">
-        <v>1.225534793930936</v>
+        <v>0.7718791461713446</v>
       </c>
       <c r="DA8">
-        <v>-0.2780075387717845</v>
+        <v>-0.1636509681669622</v>
       </c>
       <c r="DB8">
-        <v>0.4060129998108671</v>
+        <v>0.5677891813428595</v>
       </c>
       <c r="DC8">
         <v>0</v>
@@ -3284,28 +3284,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>-1.66183579452409</v>
+        <v>-1.153846153846154</v>
       </c>
       <c r="D9">
-        <v>0.9794273198838089</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E9">
-        <v>-1.097077220049643</v>
+        <v>-0.9577464788732394</v>
       </c>
       <c r="F9">
-        <v>-1.787739690532568</v>
+        <v>-1.220748543600888</v>
       </c>
       <c r="G9">
-        <v>-0.5340132781635181</v>
+        <v>-0.519594921403829</v>
       </c>
       <c r="H9">
-        <v>-0.8195503369010234</v>
+        <v>-0.6153846153846154</v>
       </c>
       <c r="I9">
-        <v>-1.024764728110572</v>
+        <v>-1.066666666666667</v>
       </c>
       <c r="J9">
-        <v>0.7129101342719568</v>
+        <v>0.39333620233183</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -3329,13 +3329,13 @@
         <v>1</v>
       </c>
       <c r="R9">
-        <v>-1.285150952953295</v>
+        <v>-0.7826086956521739</v>
       </c>
       <c r="S9">
-        <v>-1.0153077527939</v>
+        <v>-0.6666666666666669</v>
       </c>
       <c r="T9">
-        <v>1.071192047817217</v>
+        <v>0.9361702127659575</v>
       </c>
       <c r="U9">
         <v>9</v>
@@ -3473,73 +3473,73 @@
         <v>0</v>
       </c>
       <c r="BN9">
-        <v>-0.4092537330219982</v>
+        <v>-0.3294286618842807</v>
       </c>
       <c r="BO9">
-        <v>-0.2391398195459145</v>
+        <v>-0.2612179405805858</v>
       </c>
       <c r="BP9">
-        <v>-0.3896515643233037</v>
+        <v>-0.3754939457944044</v>
       </c>
       <c r="BQ9">
-        <v>0.08476144138258676</v>
+        <v>0.3679089179401698</v>
       </c>
       <c r="BR9">
-        <v>-0.03836841021908292</v>
+        <v>0.2089150916086246</v>
       </c>
       <c r="BS9">
-        <v>0.4696680644516221</v>
+        <v>0.6740925185118152</v>
       </c>
       <c r="BT9">
-        <v>0.2364014323548333</v>
+        <v>0.4320799004749008</v>
       </c>
       <c r="BU9">
-        <v>0.6151075232134898</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="BV9">
-        <v>-0.253956675270069</v>
+        <v>-0.08714133900106273</v>
       </c>
       <c r="BW9">
-        <v>0.3302966152074246</v>
+        <v>0.3693693693693703</v>
       </c>
       <c r="BX9">
-        <v>-1.870431926320154</v>
+        <v>-1.550122249388753</v>
       </c>
       <c r="BY9">
-        <v>1.485871351217492</v>
+        <v>1.421052631578947</v>
       </c>
       <c r="BZ9">
-        <v>-1.006058114832298</v>
+        <v>-0.8590078328981722</v>
       </c>
       <c r="CA9">
-        <v>-0.5440896826323808</v>
+        <v>-0.4492087799897908</v>
       </c>
       <c r="CB9">
-        <v>-0.2806950668432386</v>
+        <v>-0.2618181818181818</v>
       </c>
       <c r="CC9">
-        <v>-0.1234150539671075</v>
+        <v>-0.1250000000000019</v>
       </c>
       <c r="CD9">
-        <v>-0.04104864422815417</v>
+        <v>-0.09523809523809523</v>
       </c>
       <c r="CE9">
-        <v>0.6186394948444393</v>
+        <v>0.3324401887841165</v>
       </c>
       <c r="CF9">
-        <v>-0.1977959432032411</v>
+        <v>-0.173913043478261</v>
       </c>
       <c r="CG9">
-        <v>-0.3894256752085518</v>
+        <v>-0.4507042253521127</v>
       </c>
       <c r="CH9">
-        <v>-0.004640138220358538</v>
+        <v>-0.228385499023733</v>
       </c>
       <c r="CI9">
-        <v>0.3636363636363636</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="CJ9">
-        <v>0.6237074268519519</v>
+        <v>0.669691689427553</v>
       </c>
       <c r="CK9">
         <v>0</v>
@@ -3548,19 +3548,19 @@
         <v>1</v>
       </c>
       <c r="CM9">
-        <v>0.0540215878933434</v>
+        <v>0.1333934204596661</v>
       </c>
       <c r="CN9">
-        <v>0.496845894061744</v>
+        <v>0.471468662301216</v>
       </c>
       <c r="CO9">
-        <v>0.8000000000000014</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="CP9">
-        <v>-0.7179164528696144</v>
+        <v>-0.5</v>
       </c>
       <c r="CQ9">
-        <v>2.593311170293997</v>
+        <v>3.999999999999996</v>
       </c>
       <c r="CR9">
         <v>1</v>
@@ -3575,25 +3575,25 @@
         <v>0</v>
       </c>
       <c r="CV9">
-        <v>-1.619887492378942</v>
+        <v>-1.444444444444444</v>
       </c>
       <c r="CW9">
-        <v>2.395469719489959</v>
+        <v>1.706666666666667</v>
       </c>
       <c r="CX9">
-        <v>-0.9610293096140746</v>
+        <v>-0.9878466401488468</v>
       </c>
       <c r="CY9">
-        <v>-0.3395287677410794</v>
+        <v>-0.2572055256390536</v>
       </c>
       <c r="CZ9">
-        <v>-0.5596170799938829</v>
+        <v>-0.4083076367602276</v>
       </c>
       <c r="DA9">
-        <v>-0.01720861283632791</v>
+        <v>0.209016393442623</v>
       </c>
       <c r="DB9">
-        <v>-0.3628361625481659</v>
+        <v>-0.2547464060701679</v>
       </c>
       <c r="DC9">
         <v>1</v>
@@ -3607,28 +3607,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>-0.3910201869468447</v>
+        <v>-0.1538461538461539</v>
       </c>
       <c r="D10">
-        <v>0.5876563919302854</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E10">
-        <v>0.4577486916348107</v>
+        <v>0.4507042253521127</v>
       </c>
       <c r="F10">
-        <v>0.1400758421766897</v>
+        <v>0.1406233661057233</v>
       </c>
       <c r="G10">
-        <v>0.5045730567778782</v>
+        <v>0.546741794360653</v>
       </c>
       <c r="H10">
-        <v>-0.004764731898267567</v>
+        <v>0.1367521367521368</v>
       </c>
       <c r="I10">
-        <v>-0.7469869503327939</v>
+        <v>-0.8</v>
       </c>
       <c r="J10">
-        <v>0.1782275335679892</v>
+        <v>0.09833405058295749</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -3652,13 +3652,13 @@
         <v>1</v>
       </c>
       <c r="R10">
-        <v>3.846325693769226</v>
+        <v>2.608695652173913</v>
       </c>
       <c r="S10">
-        <v>9.645423651542048</v>
+        <v>6.333333333333335</v>
       </c>
       <c r="T10">
-        <v>-0.1071192047817217</v>
+        <v>0</v>
       </c>
       <c r="U10">
         <v>6</v>
@@ -3796,91 +3796,91 @@
         <v>0</v>
       </c>
       <c r="BN10">
-        <v>0.06524801552653667</v>
+        <v>0.1022370138143518</v>
       </c>
       <c r="BO10">
-        <v>-0.1393563750807865</v>
+        <v>-0.1362046115802355</v>
       </c>
       <c r="BP10">
-        <v>-0.3084041903924035</v>
+        <v>-0.285400770016301</v>
       </c>
       <c r="BQ10">
-        <v>-0.3743490101628597</v>
+        <v>-0.1293900184842882</v>
       </c>
       <c r="BR10">
-        <v>-0.2252627254934352</v>
+        <v>-0.04035874439461878</v>
       </c>
       <c r="BS10">
-        <v>-0.6704561261430557</v>
+        <v>-0.4444444444444445</v>
       </c>
       <c r="BT10">
-        <v>0.08656439944059274</v>
+        <v>0.284945933871564</v>
       </c>
       <c r="BU10">
-        <v>0.6661334792053923</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="BV10">
-        <v>-0.4315016075385243</v>
+        <v>-0.4229543039319873</v>
       </c>
       <c r="BW10">
-        <v>0.6159585526841163</v>
+        <v>0.657657657657659</v>
       </c>
       <c r="BX10">
-        <v>0.9689132353441753</v>
+        <v>0.8704156479217602</v>
       </c>
       <c r="BY10">
-        <v>-0.3695809815636873</v>
+        <v>-0.4736842105263158</v>
       </c>
       <c r="BZ10">
-        <v>2.328786332661949</v>
+        <v>2.248041775456918</v>
       </c>
       <c r="CA10">
-        <v>0.8703180262839871</v>
+        <v>0.8289943848902501</v>
       </c>
       <c r="CB10">
-        <v>0.5722648552033971</v>
+        <v>0.5672727272727274</v>
       </c>
       <c r="CC10">
-        <v>1.234150539671058</v>
+        <v>1.250000000000002</v>
       </c>
       <c r="CD10">
-        <v>1.037411837086546</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="CE10">
-        <v>1.185497044982828</v>
+        <v>0.9313659277076489</v>
       </c>
       <c r="CF10">
-        <v>0.5933878296097225</v>
+        <v>0.5217391304347822</v>
       </c>
       <c r="CG10">
-        <v>0.6119546324705814</v>
+        <v>0.5633802816901409</v>
       </c>
       <c r="CH10">
-        <v>0.7282911265495655</v>
+        <v>0.5239269503027582</v>
       </c>
       <c r="CI10">
-        <v>1.163636363636364</v>
+        <v>1.404255319148936</v>
       </c>
       <c r="CJ10">
-        <v>0.1441506138699291</v>
+        <v>0.2367046238259407</v>
       </c>
       <c r="CK10">
-        <v>0.8227846260689783</v>
+        <v>0.3333333333333331</v>
       </c>
       <c r="CL10">
         <v>1</v>
       </c>
       <c r="CM10">
-        <v>0.7341098200608761</v>
+        <v>0.6146913023884633</v>
       </c>
       <c r="CN10">
-        <v>0.2977359222241877</v>
+        <v>0.3367633302151544</v>
       </c>
       <c r="CO10">
-        <v>-0.3999999999999998</v>
+        <v>-0.4999999999999994</v>
       </c>
       <c r="CP10">
-        <v>0.02409779948159809</v>
+        <v>0</v>
       </c>
       <c r="CQ10">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         <v>0</v>
       </c>
       <c r="CU10">
-        <v>0.7716463412010373</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="CV10">
-        <v>0.5831594972564191</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="CW10">
-        <v>-0.2245752862021836</v>
+        <v>-0.16</v>
       </c>
       <c r="CX10">
-        <v>-0.2657509152010327</v>
+        <v>-0.2200440974187354</v>
       </c>
       <c r="CY10">
-        <v>-0.6785124434843032</v>
+        <v>-0.5138469376211821</v>
       </c>
       <c r="CZ10">
-        <v>1.452214214170392</v>
+        <v>0.9217398160879166</v>
       </c>
       <c r="DA10">
-        <v>2.753378053812465</v>
+        <v>4.168032786885246</v>
       </c>
       <c r="DB10">
-        <v>-0.6009554171047138</v>
+        <v>-0.5094928121403354</v>
       </c>
       <c r="DC10">
         <v>0</v>
@@ -3930,28 +3930,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>-0.5865302804202671</v>
+        <v>-0.3076923076923077</v>
       </c>
       <c r="D11">
-        <v>1.175312783860571</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E11">
-        <v>-0.4751468553758615</v>
+        <v>-0.3943661971830986</v>
       </c>
       <c r="F11">
-        <v>-1.246074658093012</v>
+        <v>-0.8382391452056921</v>
       </c>
       <c r="G11">
-        <v>-0.02159821769472262</v>
+        <v>0.006511550735904605</v>
       </c>
       <c r="H11">
-        <v>0.1804138146932679</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="I11">
-        <v>-0.358098061443905</v>
+        <v>-0.4266666666666667</v>
       </c>
       <c r="J11">
-        <v>-0.1782275335679892</v>
+        <v>-0.09833405058295749</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -3975,13 +3975,13 @@
         <v>1</v>
       </c>
       <c r="R11">
-        <v>-0.6272693315786126</v>
+        <v>-0.3478260869565217</v>
       </c>
       <c r="S11">
-        <v>-0.6526978410817927</v>
+        <v>-0.4285714285714287</v>
       </c>
       <c r="T11">
-        <v>-0.1071192047817217</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <v>6</v>
@@ -4119,94 +4119,94 @@
         <v>1</v>
       </c>
       <c r="BN11">
-        <v>0.1708399755985157</v>
+        <v>0.19829656455835</v>
       </c>
       <c r="BO11">
-        <v>0.3537408218081388</v>
+        <v>0.4815704355155657</v>
       </c>
       <c r="BP11">
-        <v>0.3188319427930938</v>
+        <v>0.4101256509301721</v>
       </c>
       <c r="BQ11">
-        <v>-0.21052648456559</v>
+        <v>0.04805914972273596</v>
       </c>
       <c r="BR11">
-        <v>-0.06388047439366057</v>
+        <v>0.1748878923766819</v>
       </c>
       <c r="BS11">
-        <v>0.660296026311624</v>
+        <v>0.8611111111111113</v>
       </c>
       <c r="BT11">
-        <v>-1.208401782660503</v>
+        <v>-0.9866590044000407</v>
       </c>
       <c r="BU11">
-        <v>-0.1502818166650479</v>
+        <v>0</v>
       </c>
       <c r="BV11">
-        <v>-0.1775449322684554</v>
+        <v>0.05738575982996803</v>
       </c>
       <c r="BW11">
-        <v>-0.06248854882302522</v>
+        <v>-0.02702702702702551</v>
       </c>
       <c r="BX11">
-        <v>0.0511451022809578</v>
+        <v>0.08801955990220034</v>
       </c>
       <c r="BY11">
-        <v>0.2145429009785358</v>
+        <v>0.1228070175438596</v>
       </c>
       <c r="BZ11">
-        <v>-0.7370286467991487</v>
+        <v>-0.6083550913838119</v>
       </c>
       <c r="CA11">
-        <v>0.1179254271319896</v>
+        <v>0.149055640632976</v>
       </c>
       <c r="CB11">
-        <v>0.003624907172306659</v>
+        <v>0.01454545454545463</v>
       </c>
       <c r="CC11">
-        <v>-1.480980647605271</v>
+        <v>-1.500000000000003</v>
       </c>
       <c r="CD11">
-        <v>-1.045132540624599</v>
+        <v>-1.380952380952381</v>
       </c>
       <c r="CE11">
-        <v>-1.149650652527019</v>
+        <v>-1.535885430036867</v>
       </c>
       <c r="CF11">
-        <v>-0.3955918864064822</v>
+        <v>-0.347826086956522</v>
       </c>
       <c r="CG11">
-        <v>-0.5563223931550739</v>
+        <v>-0.6197183098591549</v>
       </c>
       <c r="CH11">
-        <v>-0.4886956656875162</v>
+        <v>-0.7252410937883507</v>
       </c>
       <c r="CI11">
-        <v>-1.381818181818182</v>
+        <v>-1.574468085106383</v>
       </c>
       <c r="CJ11">
-        <v>-0.6464059144618224</v>
+        <v>-0.4770809843192922</v>
       </c>
       <c r="CK11">
-        <v>0.8227846260689783</v>
+        <v>0.3333333333333331</v>
       </c>
       <c r="CL11">
         <v>1</v>
       </c>
       <c r="CM11">
-        <v>-0.6260666442741886</v>
+        <v>-0.3479044614691305</v>
       </c>
       <c r="CN11">
-        <v>-0.6978139369635955</v>
+        <v>-0.3367633302151544</v>
       </c>
       <c r="CO11">
-        <v>0.4000000000000007</v>
+        <v>0.5000000000000006</v>
       </c>
       <c r="CP11">
-        <v>1.879133430359628</v>
+        <v>1.249999999999999</v>
       </c>
       <c r="CQ11">
-        <v>2.917475066580748</v>
+        <v>4.499999999999996</v>
       </c>
       <c r="CR11">
         <v>1</v>
@@ -4218,28 +4218,28 @@
         <v>0</v>
       </c>
       <c r="CU11">
-        <v>0.7716463412010373</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="CV11">
-        <v>0.4535684978661038</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CW11">
-        <v>0.07485842873406121</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="CX11">
-        <v>-0.4995819729868713</v>
+        <v>-0.478265958158136</v>
       </c>
       <c r="CY11">
-        <v>0.699292174052671</v>
+        <v>0.5292762207577916</v>
       </c>
       <c r="CZ11">
-        <v>1.632134086006221</v>
+        <v>1.040687149269458</v>
       </c>
       <c r="DA11">
-        <v>-0.4990497722535093</v>
+        <v>-0.4795081967213115</v>
       </c>
       <c r="DB11">
-        <v>-0.3628361625481659</v>
+        <v>-0.2547464060701679</v>
       </c>
       <c r="DC11">
         <v>0</v>
@@ -4253,28 +4253,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>-0.09775504673671118</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="D12">
-        <v>0.5876563919302854</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E12">
-        <v>1.204065129243348</v>
+        <v>1.126760563380282</v>
       </c>
       <c r="F12">
-        <v>0.9640300668681853</v>
+        <v>0.7224778627352311</v>
       </c>
       <c r="G12">
-        <v>0.9870773263191629</v>
+        <v>1.042138277845125</v>
       </c>
       <c r="H12">
-        <v>0.5878066171946458</v>
+        <v>0.6837606837606838</v>
       </c>
       <c r="I12">
-        <v>-1.024764728110572</v>
+        <v>-1.066666666666667</v>
       </c>
       <c r="J12">
-        <v>-0.9368991149652882</v>
+        <v>-0.5169183633850821</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -4298,13 +4298,13 @@
         <v>1</v>
       </c>
       <c r="R12">
-        <v>-0.3641166830287398</v>
+        <v>-0.1739130434782609</v>
       </c>
       <c r="S12">
-        <v>-0.3263489205408965</v>
+        <v>-0.2142857142857144</v>
       </c>
       <c r="T12">
-        <v>0.1071192047817217</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="U12">
         <v>6</v>
@@ -4442,73 +4442,73 @@
         <v>2</v>
       </c>
       <c r="BN12">
-        <v>-0.3493786778493503</v>
+        <v>-0.274958881261438</v>
       </c>
       <c r="BO12">
-        <v>0.09662214931148062</v>
+        <v>0.159440232762429</v>
       </c>
       <c r="BP12">
-        <v>0.1877287457713932</v>
+        <v>0.2647486029976088</v>
       </c>
       <c r="BQ12">
-        <v>-0.8658165869546682</v>
+        <v>-0.6617375231053602</v>
       </c>
       <c r="BR12">
-        <v>-0.857343208967552</v>
+        <v>-0.883408071748879</v>
       </c>
       <c r="BS12">
-        <v>-0.7270838773113399</v>
+        <v>-0.5000000000000001</v>
       </c>
       <c r="BT12">
-        <v>0.7654787085033034</v>
+        <v>0.9516126005382306</v>
       </c>
       <c r="BU12">
-        <v>0.002796051310659599</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="BV12">
-        <v>0.9416623622845917</v>
+        <v>2.174282678002125</v>
       </c>
       <c r="BW12">
-        <v>-0.2231733886536651</v>
+        <v>-0.1891891891891888</v>
       </c>
       <c r="BX12">
-        <v>1.290132081916301</v>
+        <v>1.144254278728606</v>
       </c>
       <c r="BY12">
-        <v>-0.5757423518727072</v>
+        <v>-0.6842105263157895</v>
       </c>
       <c r="BZ12">
-        <v>-0.2886462000772332</v>
+        <v>-0.1906005221932116</v>
       </c>
       <c r="CA12">
-        <v>-0.4107828857856304</v>
+        <v>-0.3287391526288924</v>
       </c>
       <c r="CB12">
-        <v>0.1532669987594356</v>
+        <v>0.16</v>
       </c>
       <c r="CC12">
         <v>0</v>
       </c>
       <c r="CD12">
-        <v>0.1077045256083562</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="CE12">
-        <v>-0.2926536698514607</v>
+        <v>-0.6304065297754381</v>
       </c>
       <c r="CF12">
         <v>0</v>
       </c>
       <c r="CG12">
-        <v>-0.1112644786310148</v>
+        <v>-0.1690140845070423</v>
       </c>
       <c r="CH12">
-        <v>-0.37114483462919</v>
+        <v>-0.6045818206959211</v>
       </c>
       <c r="CI12">
-        <v>0.2909090909090909</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="CJ12">
-        <v>0.2740004784268343</v>
+        <v>0.3539447720237077</v>
       </c>
       <c r="CK12">
         <v>0</v>
@@ -4517,16 +4517,16 @@
         <v>1</v>
       </c>
       <c r="CM12">
-        <v>-0.8272912522937956</v>
+        <v>-0.4903109508787746</v>
       </c>
       <c r="CN12">
-        <v>-1.549562149824255</v>
+        <v>-0.9130028063610856</v>
       </c>
       <c r="CO12">
-        <v>-0.1999999999999995</v>
+        <v>-0.2499999999999992</v>
       </c>
       <c r="CP12">
-        <v>0.02409779948159809</v>
+        <v>0</v>
       </c>
       <c r="CQ12">
         <v>0</v>
@@ -4544,25 +4544,25 @@
         <v>0</v>
       </c>
       <c r="CV12">
-        <v>1.231114494207996</v>
+        <v>1</v>
       </c>
       <c r="CW12">
-        <v>-1.122876431010918</v>
+        <v>-0.8</v>
       </c>
       <c r="CX12">
-        <v>-0.9563682254057191</v>
+        <v>-0.9826993605327792</v>
       </c>
       <c r="CY12">
-        <v>-0.3176588531770004</v>
+        <v>-0.2406480151885937</v>
       </c>
       <c r="CZ12">
-        <v>2.071418967891103</v>
+        <v>1.331104014699714</v>
       </c>
       <c r="DA12">
-        <v>-0.3040188267751264</v>
+        <v>-0.2008196721311475</v>
       </c>
       <c r="DB12">
-        <v>-0.3628361625481659</v>
+        <v>-0.2547464060701679</v>
       </c>
       <c r="DC12">
         <v>0</v>
@@ -4576,28 +4576,28 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>-0.1955100934734224</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>-0.5876563919302854</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="E13">
-        <v>2.012574603319264</v>
+        <v>1.859154929577465</v>
       </c>
       <c r="F13">
-        <v>3.106547960371211</v>
+        <v>2.235466853004296</v>
       </c>
       <c r="G13">
-        <v>1.173145275414307</v>
+        <v>1.233177846797613</v>
       </c>
       <c r="H13">
-        <v>-0.2640146971264172</v>
+        <v>-0.1025641025641026</v>
       </c>
       <c r="I13">
-        <v>-0.6358758392216828</v>
+        <v>-0.6933333333333334</v>
       </c>
       <c r="J13">
-        <v>-5.168598473471687</v>
+        <v>-2.851687466905767</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -4621,13 +4621,13 @@
         <v>1</v>
       </c>
       <c r="R13">
-        <v>-0.6711281063369248</v>
+        <v>-0.3768115942028986</v>
       </c>
       <c r="S13">
-        <v>-0.6526978410817927</v>
+        <v>-0.4285714285714287</v>
       </c>
       <c r="T13">
-        <v>1.392549662162383</v>
+        <v>1.191489361702128</v>
       </c>
       <c r="U13">
         <v>9</v>
@@ -4765,94 +4765,94 @@
         <v>1</v>
       </c>
       <c r="BN13">
-        <v>-0.1970342647165625</v>
+        <v>-0.1363674972780554</v>
       </c>
       <c r="BO13">
-        <v>-0.1628796533779271</v>
+        <v>-0.1656756660691889</v>
       </c>
       <c r="BP13">
-        <v>-0.196886392437121</v>
+        <v>-0.1617414800296843</v>
       </c>
       <c r="BQ13">
-        <v>0.5881083277210989</v>
+        <v>0.9131238447319781</v>
       </c>
       <c r="BR13">
-        <v>0.7363065206427211</v>
+        <v>1.242152466367713</v>
       </c>
       <c r="BS13">
-        <v>0.4904127728067711</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="BT13">
-        <v>-1.095249397816718</v>
+        <v>-0.8755478932889297</v>
       </c>
       <c r="BU13">
-        <v>-0.252333728648853</v>
+        <v>-0.1081081081081081</v>
       </c>
       <c r="BV13">
-        <v>-0.2157508037692623</v>
+        <v>-0.01487778958554735</v>
       </c>
       <c r="BW13">
-        <v>-0.2588811308382508</v>
+        <v>-0.2252252252252241</v>
       </c>
       <c r="BX13">
-        <v>-0.4020029134190062</v>
+        <v>-0.2982885085574576</v>
       </c>
       <c r="BY13">
-        <v>-0.300860524794014</v>
+        <v>-0.4035087719298245</v>
       </c>
       <c r="BZ13">
-        <v>-0.4343704952618556</v>
+        <v>-0.3263707571801566</v>
       </c>
       <c r="CA13">
-        <v>-0.148688166561511</v>
+        <v>-0.09188361408882084</v>
       </c>
       <c r="CB13">
-        <v>-0.3405519034780902</v>
+        <v>-0.32</v>
       </c>
       <c r="CC13">
-        <v>0.1234150539671054</v>
+        <v>0.1249999999999997</v>
       </c>
       <c r="CD13">
-        <v>0.1077045256083562</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="CE13">
-        <v>-0.4029198522946741</v>
+        <v>-0.7469106758028761</v>
       </c>
       <c r="CF13">
         <v>0</v>
       </c>
       <c r="CG13">
-        <v>-0.2225289572620296</v>
+        <v>-0.2816901408450704</v>
       </c>
       <c r="CH13">
-        <v>-0.571808559664948</v>
+        <v>-0.8105517741267078</v>
       </c>
       <c r="CI13">
-        <v>0.4363636363636363</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="CJ13">
-        <v>0.4878708435793854</v>
+        <v>0.5470461925847369</v>
       </c>
       <c r="CK13">
-        <v>1.645569252137958</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="CL13">
         <v>1</v>
       </c>
       <c r="CM13">
-        <v>1.314859321687083</v>
+        <v>1.025687246507435</v>
       </c>
       <c r="CN13">
-        <v>0.3419825826325334</v>
+        <v>0.3666978484565014</v>
       </c>
       <c r="CO13">
-        <v>1.000000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="CP13">
-        <v>1.137119178008415</v>
+        <v>0.7499999999999989</v>
       </c>
       <c r="CQ13">
-        <v>0.9724916888602487</v>
+        <v>1.499999999999998</v>
       </c>
       <c r="CR13">
         <v>1</v>
@@ -4867,25 +4867,25 @@
         <v>0</v>
       </c>
       <c r="CV13">
-        <v>2.073455990245046</v>
+        <v>1.722222222222222</v>
       </c>
       <c r="CW13">
-        <v>-3.14405400683057</v>
+        <v>-2.24</v>
       </c>
       <c r="CX13">
-        <v>-0.953260835933482</v>
+        <v>-0.9792678407887339</v>
       </c>
       <c r="CY13">
-        <v>-2.734284412507725</v>
+        <v>-2.070252919964413</v>
       </c>
       <c r="CZ13">
-        <v>1.477917053004081</v>
+        <v>0.9387322922567081</v>
       </c>
       <c r="DA13">
-        <v>1.084142608688658</v>
+        <v>1.782786885245902</v>
       </c>
       <c r="DB13">
-        <v>-0.6009554171047138</v>
+        <v>-0.5094928121403354</v>
       </c>
       <c r="DC13">
         <v>1</v>
@@ -4899,28 +4899,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>-1.564080747787379</v>
+        <v>-1.076923076923077</v>
       </c>
       <c r="D14">
-        <v>1.273255515848952</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="E14">
-        <v>0.7687138739717014</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="F14">
-        <v>-0.03185295412335346</v>
+        <v>0.01921183591454695</v>
       </c>
       <c r="G14">
-        <v>0.8682008193591663</v>
+        <v>0.9200854645655924</v>
       </c>
       <c r="H14">
-        <v>0.2174495240115749</v>
+        <v>0.3418803418803419</v>
       </c>
       <c r="I14">
-        <v>0.6974574941116506</v>
+        <v>0.5866666666666667</v>
       </c>
       <c r="J14">
-        <v>1.782275335679892</v>
+        <v>0.9833405058295749</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -4944,13 +4944,13 @@
         <v>1</v>
       </c>
       <c r="R14">
-        <v>-1.065857079161734</v>
+        <v>-0.6376811594202898</v>
       </c>
       <c r="S14">
-        <v>-0.6526978410817927</v>
+        <v>-0.4285714285714287</v>
       </c>
       <c r="T14">
-        <v>-0.6427152286903305</v>
+        <v>-0.425531914893617</v>
       </c>
       <c r="U14">
         <v>3</v>
@@ -5088,73 +5088,73 @@
         <v>1</v>
       </c>
       <c r="BN14">
-        <v>1.331672488415546</v>
+        <v>1.254333876435295</v>
       </c>
       <c r="BO14">
-        <v>1.332283260137161</v>
+        <v>1.707533804883746</v>
       </c>
       <c r="BP14">
-        <v>1.831895541230277</v>
+        <v>2.087923937104764</v>
       </c>
       <c r="BQ14">
-        <v>-0.271959931664566</v>
+        <v>-0.01848428835489794</v>
       </c>
       <c r="BR14">
-        <v>-0.1849171627184916</v>
+        <v>0.01345291479820639</v>
       </c>
       <c r="BS14">
-        <v>-0.3590034947174925</v>
+        <v>-0.138888888888889</v>
       </c>
       <c r="BT14">
-        <v>-0.2654652422956276</v>
+        <v>-0.06073307847411505</v>
       </c>
       <c r="BU14">
-        <v>0.7681853911891974</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="BV14">
-        <v>-0.373069098184349</v>
+        <v>-0.3124335812964928</v>
       </c>
       <c r="BW14">
-        <v>0.5266891972226502</v>
+        <v>0.5675675675675689</v>
       </c>
       <c r="BX14">
-        <v>-1.210786080680966</v>
+        <v>-0.9877750611246944</v>
       </c>
       <c r="BY14">
-        <v>1.107908838984289</v>
+        <v>1.035087719298246</v>
       </c>
       <c r="BZ14">
-        <v>0.2045744913168739</v>
+        <v>0.2689295039164489</v>
       </c>
       <c r="CA14">
-        <v>1.699531491415468</v>
+        <v>1.578356304236856</v>
       </c>
       <c r="CB14">
-        <v>-0.370480321795516</v>
+        <v>-0.3490909090909091</v>
       </c>
       <c r="CC14">
-        <v>3.949281726947385</v>
+        <v>4.000000000000004</v>
       </c>
       <c r="CD14">
-        <v>3.75215718660286</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="CE14">
-        <v>4.156596883323779</v>
+        <v>4.070546424923418</v>
       </c>
       <c r="CF14">
-        <v>2.373551318438891</v>
+        <v>2.086956521739129</v>
       </c>
       <c r="CG14">
-        <v>2.837244205090877</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CH14">
-        <v>3.146233374071433</v>
+        <v>3.005807778696944</v>
       </c>
       <c r="CI14">
-        <v>3.563636363636363</v>
+        <v>4.212765957446808</v>
       </c>
       <c r="CJ14">
-        <v>-0.1783403643019176</v>
+        <v>-0.05446926536006481</v>
       </c>
       <c r="CK14">
         <v>0</v>
@@ -5163,19 +5163,19 @@
         <v>1</v>
       </c>
       <c r="CM14">
-        <v>2.532395557552553</v>
+        <v>1.887336638125282</v>
       </c>
       <c r="CN14">
-        <v>1.774468213352732</v>
+        <v>1.335827876520112</v>
       </c>
       <c r="CO14">
-        <v>1.400000000000002</v>
+        <v>1.750000000000001</v>
       </c>
       <c r="CP14">
-        <v>2.62114768271084</v>
+        <v>1.749999999999999</v>
       </c>
       <c r="CQ14">
-        <v>-0.32416389628675</v>
+        <v>-0.5</v>
       </c>
       <c r="CR14">
         <v>2</v>
@@ -5190,25 +5190,25 @@
         <v>0</v>
       </c>
       <c r="CV14">
-        <v>-0.9071369957322076</v>
+        <v>-0.8333333333333334</v>
       </c>
       <c r="CW14">
-        <v>1.197734859744979</v>
+        <v>0.8533333333333334</v>
       </c>
       <c r="CX14">
-        <v>1.288720668285556</v>
+        <v>1.496573654539872</v>
       </c>
       <c r="CY14">
-        <v>-0.973756290099369</v>
+        <v>-0.7373733287023906</v>
       </c>
       <c r="CZ14">
-        <v>0.1425377445082825</v>
+        <v>0.05589591675994336</v>
       </c>
       <c r="DA14">
-        <v>0.917792684604155</v>
+        <v>1.545081967213115</v>
       </c>
       <c r="DB14">
-        <v>-0.9978208413656272</v>
+        <v>-0.9340701555906147</v>
       </c>
       <c r="DC14">
         <v>0</v>
@@ -5222,25 +5222,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>-0.2932651402101336</v>
+        <v>-0.07692307692307693</v>
       </c>
       <c r="D15">
-        <v>1.371198247837333</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0.9552929833738358</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="F15">
-        <v>0.08776746905906645</v>
+        <v>0.1036845882006049</v>
       </c>
       <c r="G15">
-        <v>1.01365856756245</v>
+        <v>1.069429753319727</v>
       </c>
       <c r="H15">
-        <v>0.2174495240115749</v>
+        <v>0.3418803418803419</v>
       </c>
       <c r="I15">
-        <v>-0.2469869503327939</v>
+        <v>-0.32</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -5267,13 +5267,13 @@
         <v>1</v>
       </c>
       <c r="R15">
-        <v>-0.407975457787052</v>
+        <v>-0.2028985507246377</v>
       </c>
       <c r="S15">
-        <v>-0.3263489205408965</v>
+        <v>-0.2142857142857144</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="U15">
         <v>6</v>
@@ -5411,94 +5411,94 @@
         <v>1</v>
       </c>
       <c r="BN15">
-        <v>0.2295776254134752</v>
+        <v>0.2517316201169085</v>
       </c>
       <c r="BO15">
-        <v>-0.17798902303536</v>
+        <v>-0.184605385423913</v>
       </c>
       <c r="BP15">
-        <v>-0.3337553845110848</v>
+        <v>-0.313512073525774</v>
       </c>
       <c r="BQ15">
-        <v>0.4106339249907237</v>
+        <v>0.7208872458410355</v>
       </c>
       <c r="BR15">
-        <v>0.07060473485615133</v>
+        <v>0.3542600896860987</v>
       </c>
       <c r="BS15">
-        <v>0.6036682751433396</v>
+        <v>0.8055555555555557</v>
       </c>
       <c r="BT15">
-        <v>0.8157686573227634</v>
+        <v>1.000995316587613</v>
       </c>
       <c r="BU15">
-        <v>-0.6095154205921706</v>
+        <v>-0.4864864864864865</v>
       </c>
       <c r="BV15">
-        <v>-0.6787160701908037</v>
+        <v>-0.8905419766206163</v>
       </c>
       <c r="BW15">
-        <v>-0.5445430683149424</v>
+        <v>-0.5135135135135127</v>
       </c>
       <c r="BX15">
-        <v>-0.465099472567102</v>
+        <v>-0.352078239608802</v>
       </c>
       <c r="BY15">
-        <v>0.5925054132117391</v>
+        <v>0.5087719298245614</v>
       </c>
       <c r="BZ15">
-        <v>1.162991971184968</v>
+        <v>1.161879895561357</v>
       </c>
       <c r="CA15">
-        <v>0.2919020942031723</v>
+        <v>0.3062787136294028</v>
       </c>
       <c r="CB15">
-        <v>0.3029090903465647</v>
+        <v>0.3054545454545454</v>
       </c>
       <c r="CC15">
-        <v>0.987320431736845</v>
+        <v>1</v>
       </c>
       <c r="CD15">
-        <v>0.8886586672500356</v>
+        <v>1.095238095238095</v>
       </c>
       <c r="CE15">
-        <v>0.6127784663735191</v>
+        <v>0.3262475910019387</v>
       </c>
       <c r="CF15">
-        <v>0.3955918864064814</v>
+        <v>0.3478260869565212</v>
       </c>
       <c r="CG15">
-        <v>0.3894256752085518</v>
+        <v>0.3380281690140845</v>
       </c>
       <c r="CH15">
-        <v>0.1967086906428313</v>
+        <v>-0.02171232530035884</v>
       </c>
       <c r="CI15">
-        <v>1.163636363636364</v>
+        <v>1.404255319148936</v>
       </c>
       <c r="CJ15">
-        <v>0.3353309507867567</v>
+        <v>0.4093194440963554</v>
       </c>
       <c r="CK15">
-        <v>-0.8227846260689802</v>
+        <v>-0.3333333333333338</v>
       </c>
       <c r="CL15">
         <v>1</v>
       </c>
       <c r="CM15">
-        <v>0.1813789347411959</v>
+        <v>0.2235241099594408</v>
       </c>
       <c r="CN15">
-        <v>-0.5927281184937737</v>
+        <v>-0.265668849391955</v>
       </c>
       <c r="CO15">
-        <v>-0.3999999999999998</v>
+        <v>-0.4999999999999994</v>
       </c>
       <c r="CP15">
-        <v>0.3951049256572043</v>
+        <v>0.25</v>
       </c>
       <c r="CQ15">
-        <v>-0.6483277925735</v>
+        <v>-1</v>
       </c>
       <c r="CR15">
         <v>1</v>
@@ -5510,28 +5510,28 @@
         <v>0</v>
       </c>
       <c r="CU15">
-        <v>-0.3858231706005186</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="CV15">
-        <v>0.8423414960370499</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="CW15">
-        <v>-0.5988674298724896</v>
+        <v>-0.4266666666666667</v>
       </c>
       <c r="CX15">
-        <v>-0.09078638727553057</v>
+        <v>-0.02682910539790148</v>
       </c>
       <c r="CY15">
-        <v>0.4498968232195615</v>
+        <v>0.3404613026374551</v>
       </c>
       <c r="CZ15">
-        <v>1.19981296901176</v>
+        <v>0.7548741180581063</v>
       </c>
       <c r="DA15">
-        <v>0.1999133792325256</v>
+        <v>0.5192718120241467</v>
       </c>
       <c r="DB15">
-        <v>-0.3739050931982926</v>
+        <v>-0.2665882468629714</v>
       </c>
       <c r="DC15">
         <v>0</v>
@@ -5545,28 +5545,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>-0.1955100934734224</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1958854639767618</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1467835092979199</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="F16">
-        <v>0.08752963576158002</v>
+        <v>0.103516636669508</v>
       </c>
       <c r="G16">
-        <v>0.2069807297773035</v>
+        <v>0.2411979854981874</v>
       </c>
       <c r="H16">
-        <v>-0.1529075691714959</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4196797163338728</v>
+        <v>0.32</v>
       </c>
       <c r="J16">
-        <v>1.247592734975925</v>
+        <v>0.6883383540807024</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -5590,13 +5590,13 @@
         <v>1</v>
       </c>
       <c r="R16">
-        <v>-0.758845655853549</v>
+        <v>-0.4347826086956522</v>
       </c>
       <c r="S16">
-        <v>-0.6526978410817927</v>
+        <v>-0.4285714285714287</v>
       </c>
       <c r="T16">
-        <v>-0.428476819126887</v>
+        <v>-0.2553191489361702</v>
       </c>
       <c r="U16">
         <v>6</v>
@@ -5734,94 +5734,94 @@
         <v>0</v>
       </c>
       <c r="BN16">
-        <v>0.1124418497709261</v>
+        <v>0.1451703821533092</v>
       </c>
       <c r="BO16">
-        <v>1.332283260137161</v>
+        <v>1.707533804883746</v>
       </c>
       <c r="BP16">
-        <v>1.831895541230277</v>
+        <v>2.087923937104764</v>
       </c>
       <c r="BQ16">
-        <v>-0.9409019111867499</v>
+        <v>-0.7430683918669126</v>
       </c>
       <c r="BR16">
-        <v>-0.433714799830644</v>
+        <v>-0.3183856502242153</v>
       </c>
       <c r="BS16">
-        <v>-1.406616891330751</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="BT16">
-        <v>-0.6300673712367126</v>
+        <v>-0.4187577698321395</v>
       </c>
       <c r="BU16">
-        <v>0.7681853911891974</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="BV16">
-        <v>-0.2314826332107708</v>
+        <v>-0.04463336875664167</v>
       </c>
       <c r="BW16">
-        <v>0.6516662948687032</v>
+        <v>0.6936936936936956</v>
       </c>
       <c r="BX16">
-        <v>-0.6658612516746809</v>
+        <v>-0.5232273838630808</v>
       </c>
       <c r="BY16">
-        <v>0.7299463267510857</v>
+        <v>0.6491228070175439</v>
       </c>
       <c r="BZ16">
-        <v>-0.709004743879029</v>
+        <v>-0.5822454308093994</v>
       </c>
       <c r="CA16">
-        <v>-0.1102777335717695</v>
+        <v>-0.05717202654415528</v>
       </c>
       <c r="CB16">
-        <v>0.6919785284731005</v>
+        <v>0.6836363636363639</v>
       </c>
       <c r="CC16">
         <v>0</v>
       </c>
       <c r="CD16">
-        <v>0.219269402985739</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="CE16">
-        <v>0.3742536943829102</v>
+        <v>0.07422902781765038</v>
       </c>
       <c r="CF16">
-        <v>-0.5933878296097234</v>
+        <v>-0.5217391304347829</v>
       </c>
       <c r="CG16">
-        <v>0.2225289572620296</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="CH16">
-        <v>0.4077449491226672</v>
+        <v>0.1949044464831483</v>
       </c>
       <c r="CI16">
-        <v>0.07272727272727272</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="CJ16">
-        <v>-0.2072078431664053</v>
+        <v>-0.0805334242386076</v>
       </c>
       <c r="CK16">
-        <v>-2.468353878206939</v>
+        <v>-1.000000000000001</v>
       </c>
       <c r="CL16">
         <v>1</v>
       </c>
       <c r="CM16">
-        <v>-1.433512223289573</v>
+        <v>-0.9193330328977017</v>
       </c>
       <c r="CN16">
-        <v>-1.698894628702422</v>
+        <v>-1.014031805425631</v>
       </c>
       <c r="CO16">
         <v>0</v>
       </c>
       <c r="CP16">
-        <v>0.3951049256572043</v>
+        <v>0.25</v>
       </c>
       <c r="CQ16">
-        <v>0.9724916888602487</v>
+        <v>1.499999999999998</v>
       </c>
       <c r="CR16">
         <v>1</v>
@@ -5833,28 +5833,28 @@
         <v>0</v>
       </c>
       <c r="CU16">
-        <v>0.7716463412010373</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="CV16">
-        <v>-0.4535684978661038</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="CW16">
-        <v>0.1497168574681224</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="CX16">
-        <v>2.948066646460146</v>
+        <v>3.329005197860003</v>
       </c>
       <c r="CY16">
-        <v>3.520511152818856</v>
+        <v>2.665195068867118</v>
       </c>
       <c r="CZ16">
-        <v>2.028191466216261</v>
+        <v>1.302525759324929</v>
       </c>
       <c r="DA16">
-        <v>0.189294741199607</v>
+        <v>0.5040983606557377</v>
       </c>
       <c r="DB16">
-        <v>4.796414352843709</v>
+        <v>5.264759058783465</v>
       </c>
       <c r="DC16">
         <v>0</v>
@@ -5868,28 +5868,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>-0.09775504673671118</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="D17">
-        <v>-0.9794273198838068</v>
+        <v>-0.9999999999999981</v>
       </c>
       <c r="E17">
-        <v>0.1467835092979199</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="F17">
-        <v>1.09448948577767</v>
+        <v>0.8146048247015685</v>
       </c>
       <c r="G17">
-        <v>-0.06208094756849642</v>
+        <v>-0.03505285249805136</v>
       </c>
       <c r="H17">
-        <v>0.8100208731044883</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I17">
-        <v>0.8641241607783172</v>
+        <v>0.7466666666666667</v>
       </c>
       <c r="J17">
-        <v>1.960502869247881</v>
+        <v>1.081674556412532</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -5913,13 +5913,13 @@
         <v>1</v>
       </c>
       <c r="R17">
-        <v>-0.8027044306118613</v>
+        <v>-0.463768115942029</v>
       </c>
       <c r="S17">
-        <v>-0.6526978410817927</v>
+        <v>-0.4285714285714287</v>
       </c>
       <c r="T17">
-        <v>-1.178311252598939</v>
+        <v>-0.851063829787234</v>
       </c>
       <c r="U17">
         <v>3</v>
@@ -6057,94 +6057,94 @@
         <v>1</v>
       </c>
       <c r="BN17">
-        <v>-0.4326469357517711</v>
+        <v>-0.3507100221616488</v>
       </c>
       <c r="BO17">
-        <v>1.332283260137161</v>
+        <v>1.707533804883746</v>
       </c>
       <c r="BP17">
-        <v>1.831895541230277</v>
+        <v>2.087923937104764</v>
       </c>
       <c r="BQ17">
-        <v>-0.8931203412208798</v>
+        <v>-0.6913123844731974</v>
       </c>
       <c r="BR17">
-        <v>-0.7497550415677022</v>
+        <v>-0.7399103139013452</v>
       </c>
       <c r="BS17">
-        <v>0.2922156437177761</v>
+        <v>0.4999999999999998</v>
       </c>
       <c r="BT17">
-        <v>-0.793509704899958</v>
+        <v>-0.5792515969926334</v>
       </c>
       <c r="BU17">
-        <v>0.5640815672215873</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="BV17">
-        <v>-0.2584514836819286</v>
+        <v>-0.09564293304994671</v>
       </c>
       <c r="BW17">
-        <v>0.4909814550380633</v>
+        <v>0.5315315315315323</v>
       </c>
       <c r="BX17">
-        <v>0.5673896771290177</v>
+        <v>0.5281173594132027</v>
       </c>
       <c r="BY17">
-        <v>-0.197779839639504</v>
+        <v>-0.2982456140350877</v>
       </c>
       <c r="BZ17">
-        <v>-0.1485266854766346</v>
+        <v>-0.06005221932114892</v>
       </c>
       <c r="CA17">
-        <v>-0.3497780804489819</v>
+        <v>-0.2736089841755999</v>
       </c>
       <c r="CB17">
-        <v>1.529974241361023</v>
+        <v>1.498181818181818</v>
       </c>
       <c r="CC17">
-        <v>0.4936602158684214</v>
+        <v>0.4999999999999989</v>
       </c>
       <c r="CD17">
-        <v>-0.00386035176902658</v>
+        <v>-0.04761904761904762</v>
       </c>
       <c r="CE17">
-        <v>0.2831728789159938</v>
+        <v>-0.02200439924345718</v>
       </c>
       <c r="CF17">
-        <v>-0.1977959432032411</v>
+        <v>-0.173913043478261</v>
       </c>
       <c r="CG17">
-        <v>-0.3337934358930444</v>
+        <v>-0.3943661971830986</v>
       </c>
       <c r="CH17">
-        <v>-0.1753449697165112</v>
+        <v>-0.4036043443202974</v>
       </c>
       <c r="CI17">
-        <v>0.3636363636363636</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="CJ17">
-        <v>0.561388781600575</v>
+        <v>0.6134248059025907</v>
       </c>
       <c r="CK17">
-        <v>-2.468353878206939</v>
+        <v>-1.000000000000001</v>
       </c>
       <c r="CL17">
         <v>1</v>
       </c>
       <c r="CM17">
-        <v>-0.8295836845370571</v>
+        <v>-0.4919333032897706</v>
       </c>
       <c r="CN17">
-        <v>-0.784648008014974</v>
+        <v>-0.3955098222637978</v>
       </c>
       <c r="CO17">
-        <v>0.2000000000000003</v>
+        <v>0.2500000000000003</v>
       </c>
       <c r="CP17">
-        <v>-0.7179164528696144</v>
+        <v>-0.5</v>
       </c>
       <c r="CQ17">
-        <v>-0.32416389628675</v>
+        <v>-0.5</v>
       </c>
       <c r="CR17">
         <v>1</v>
@@ -6159,25 +6159,25 @@
         <v>0</v>
       </c>
       <c r="CV17">
-        <v>0.5831594972564191</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="CW17">
-        <v>-1.347451717213102</v>
+        <v>-0.96</v>
       </c>
       <c r="CX17">
-        <v>-0.04279572056802378</v>
+        <v>0.02616744421650696</v>
       </c>
       <c r="CY17">
-        <v>-0.2411141522027241</v>
+        <v>-0.182696728611984</v>
       </c>
       <c r="CZ17">
-        <v>-0.8341701311719345</v>
+        <v>-0.5898181776541382</v>
       </c>
       <c r="DA17">
-        <v>0.2065033540359349</v>
+        <v>0.5286885245901639</v>
       </c>
       <c r="DB17">
-        <v>-0.8390746716612619</v>
+        <v>-0.764239218210503</v>
       </c>
       <c r="DC17">
         <v>0</v>
@@ -6191,25 +6191,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3910201869468447</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D18">
-        <v>-0.2938281959651427</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="E18">
-        <v>-0.5995329283106179</v>
+        <v>-0.5070422535211268</v>
       </c>
       <c r="F18">
-        <v>-0.4343763533860541</v>
+        <v>-0.2650394523743017</v>
       </c>
       <c r="G18">
-        <v>-0.419427261731639</v>
+        <v>-0.4019472378904508</v>
       </c>
       <c r="H18">
-        <v>-0.07883615053488173</v>
+        <v>0.06837606837606838</v>
       </c>
       <c r="I18">
-        <v>0.9752352718894284</v>
+        <v>0.8533333333333334</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -6236,13 +6236,13 @@
         <v>1</v>
       </c>
       <c r="R18">
-        <v>-0.2325403587538034</v>
+        <v>-0.08695652173913043</v>
       </c>
       <c r="S18">
-        <v>0.4351318940545282</v>
+        <v>0.2857142857142856</v>
       </c>
       <c r="T18">
-        <v>1.071192047817217</v>
+        <v>0.9361702127659575</v>
       </c>
       <c r="U18">
         <v>9</v>
@@ -6380,73 +6380,73 @@
         <v>0</v>
       </c>
       <c r="BN18">
-        <v>-0.2135011781039933</v>
+        <v>-0.1513478452236628</v>
       </c>
       <c r="BO18">
-        <v>-0.2467755632247245</v>
+        <v>-0.2707843545463316</v>
       </c>
       <c r="BP18">
-        <v>-0.2992063744756978</v>
+        <v>-0.2752015425697233</v>
       </c>
       <c r="BQ18">
-        <v>0.4515895563900408</v>
+        <v>0.7652495378927913</v>
       </c>
       <c r="BR18">
-        <v>0.3395751533557758</v>
+        <v>0.7130044843049332</v>
       </c>
       <c r="BS18">
-        <v>-0.5572006238064872</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="BT18">
-        <v>0.9917834781908738</v>
+        <v>1.173834822760453</v>
       </c>
       <c r="BU18">
-        <v>-0.2013077726569505</v>
+        <v>-0.05405405405405406</v>
       </c>
       <c r="BV18">
-        <v>0.5348822010112954</v>
+        <v>1.404888416578108</v>
       </c>
       <c r="BW18">
-        <v>-0.09819629100761215</v>
+        <v>-0.06306306306306207</v>
       </c>
       <c r="BX18">
-        <v>2.001402385040295</v>
+        <v>1.750611246943765</v>
       </c>
       <c r="BY18">
-        <v>-0.8849844073362371</v>
+        <v>-1</v>
       </c>
       <c r="BZ18">
-        <v>-0.2325983942369938</v>
+        <v>-0.1383812010443865</v>
       </c>
       <c r="CA18">
-        <v>-0.2797355261735708</v>
+        <v>-0.2103113833588567</v>
       </c>
       <c r="CB18">
-        <v>0.2280880445530001</v>
+        <v>0.2327272727272727</v>
       </c>
       <c r="CC18">
         <v>0</v>
       </c>
       <c r="CD18">
-        <v>-0.04104864422815417</v>
+        <v>-0.09523809523809523</v>
       </c>
       <c r="CE18">
-        <v>0.5201482813083472</v>
+        <v>0.2283771436148705</v>
       </c>
       <c r="CF18">
-        <v>-0.3955918864064822</v>
+        <v>-0.347826086956522</v>
       </c>
       <c r="CG18">
-        <v>-0.3894256752085518</v>
+        <v>-0.4507042253521127</v>
       </c>
       <c r="CH18">
-        <v>-0.06705005306566586</v>
+        <v>-0.2924457433554707</v>
       </c>
       <c r="CI18">
-        <v>0.3636363636363636</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="CJ18">
-        <v>0.6237074268519519</v>
+        <v>0.669691689427553</v>
       </c>
       <c r="CK18">
         <v>0</v>
@@ -6455,16 +6455,16 @@
         <v>1</v>
       </c>
       <c r="CM18">
-        <v>-0.8275459669874912</v>
+        <v>-0.490491212257774</v>
       </c>
       <c r="CN18">
-        <v>-0.6154045319530516</v>
+        <v>-0.2810102899906457</v>
       </c>
       <c r="CO18">
         <v>0</v>
       </c>
       <c r="CP18">
-        <v>-0.3469093266940081</v>
+        <v>-0.25</v>
       </c>
       <c r="CQ18">
         <v>0</v>
@@ -6479,28 +6479,28 @@
         <v>0</v>
       </c>
       <c r="CU18">
-        <v>0.7716463412010373</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="CV18">
-        <v>1.231114494207996</v>
+        <v>1</v>
       </c>
       <c r="CW18">
-        <v>-1.347451717213102</v>
+        <v>-0.96</v>
       </c>
       <c r="CX18">
-        <v>-0.5539612887510199</v>
+        <v>-0.5383175536789269</v>
       </c>
       <c r="CY18">
-        <v>-1.17058552117608</v>
+        <v>-0.8863909227565298</v>
       </c>
       <c r="CZ18">
-        <v>0.88441513811706</v>
+        <v>0.5463605698137016</v>
       </c>
       <c r="DA18">
-        <v>-0.9808909316706906</v>
+        <v>-1.168032786885246</v>
       </c>
       <c r="DB18">
-        <v>-0.7597015868090793</v>
+        <v>-0.6793237495204473</v>
       </c>
       <c r="DC18">
         <v>0</v>
@@ -6514,28 +6514,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="D19">
-        <v>0.2938281959651427</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E19">
-        <v>0.5199417281021889</v>
+        <v>0.5070422535211268</v>
       </c>
       <c r="F19">
-        <v>0.4393324523290039</v>
+        <v>0.3519504022992969</v>
       </c>
       <c r="G19">
-        <v>0.4781573984195235</v>
+        <v>0.5196203260426686</v>
       </c>
       <c r="H19">
-        <v>-2.375050128269921</v>
+        <v>-2.051282051282051</v>
       </c>
       <c r="I19">
-        <v>-2.024764728110572</v>
+        <v>-2.026666666666667</v>
       </c>
       <c r="J19">
-        <v>1.145542092162025</v>
+        <v>0.6320336245499132</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -6559,13 +6559,13 @@
         <v>4</v>
       </c>
       <c r="R19">
-        <v>2.749856324811422</v>
+        <v>1.884057971014493</v>
       </c>
       <c r="S19">
-        <v>11.09586329839048</v>
+        <v>7.285714285714287</v>
       </c>
       <c r="T19">
-        <v>0.7498344334720523</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="U19">
         <v>9</v>
@@ -6703,94 +6703,94 @@
         <v>0</v>
       </c>
       <c r="BN19">
-        <v>2.462287366356673</v>
+        <v>2.282881477649167</v>
       </c>
       <c r="BO19">
-        <v>0.187484963924071</v>
+        <v>0.2732773827821532</v>
       </c>
       <c r="BP19">
-        <v>0.2814352996999283</v>
+        <v>0.3686574510771037</v>
       </c>
       <c r="BQ19">
-        <v>-1.10472443678402</v>
+        <v>-0.9205175600739369</v>
       </c>
       <c r="BR19">
-        <v>-0.5682000090804559</v>
+        <v>-0.4977578475336321</v>
       </c>
       <c r="BS19">
-        <v>-1.689755647172172</v>
+        <v>-1.444444444444445</v>
       </c>
       <c r="BT19">
-        <v>-0.4540525503686026</v>
+        <v>-0.2459182636593001</v>
       </c>
       <c r="BU19">
-        <v>-2.752605572252076</v>
+        <v>-2.756756756756757</v>
       </c>
       <c r="BV19">
-        <v>-0.6899530912204527</v>
+        <v>-0.9117959617428266</v>
       </c>
       <c r="BW19">
-        <v>-2.776276954851594</v>
+        <v>-2.765765765765766</v>
       </c>
       <c r="BX19">
-        <v>1.657239335141588</v>
+        <v>1.45721271393643</v>
       </c>
       <c r="BY19">
-        <v>-0.7131832654120538</v>
+        <v>-0.8245614035087719</v>
       </c>
       <c r="BZ19">
-        <v>0.804286013807436</v>
+        <v>0.8276762402088771</v>
       </c>
       <c r="CA19">
-        <v>-0.2435845304185198</v>
+        <v>-0.1776416539050537</v>
       </c>
       <c r="CB19">
-        <v>-0.08616034777997086</v>
+        <v>-0.07272727272727274</v>
       </c>
       <c r="CC19">
-        <v>0.4936602158684214</v>
+        <v>0.4999999999999989</v>
       </c>
       <c r="CD19">
-        <v>0.5167757426587597</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="CE19">
-        <v>0.551269225782865</v>
+        <v>0.2612586579580213</v>
       </c>
       <c r="CF19">
-        <v>0.5933878296097225</v>
+        <v>0.5217391304347822</v>
       </c>
       <c r="CG19">
-        <v>0.6675868717860888</v>
+        <v>0.6197183098591549</v>
       </c>
       <c r="CH19">
-        <v>0.8121872261914357</v>
+        <v>0.610041546915481</v>
       </c>
       <c r="CI19">
-        <v>0.07272727272727272</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="CJ19">
-        <v>-0.5976061287623322</v>
+        <v>-0.4330201443103278</v>
       </c>
       <c r="CK19">
-        <v>0.8227846260689783</v>
+        <v>0.3333333333333331</v>
       </c>
       <c r="CL19">
         <v>1</v>
       </c>
       <c r="CM19">
-        <v>0.5252437712303976</v>
+        <v>0.4668769716088325</v>
       </c>
       <c r="CN19">
-        <v>0.1152184480397609</v>
+        <v>0.2132834424695979</v>
       </c>
       <c r="CO19">
         <v>0</v>
       </c>
       <c r="CP19">
-        <v>-0.3469093266940081</v>
+        <v>-0.25</v>
       </c>
       <c r="CQ19">
-        <v>-1.620819481433749</v>
+        <v>-2.499999999999998</v>
       </c>
       <c r="CR19">
         <v>1</v>
@@ -6802,28 +6802,28 @@
         <v>0</v>
       </c>
       <c r="CU19">
-        <v>0.7716463412010373</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="CV19">
-        <v>2.980592985977253</v>
+        <v>2.5</v>
       </c>
       <c r="CW19">
-        <v>-2.620045005692142</v>
+        <v>-1.866666666666667</v>
       </c>
       <c r="CX19">
-        <v>-0.9470460569890079</v>
+        <v>-0.9724048013006434</v>
       </c>
       <c r="CY19">
-        <v>0.3603084983094472</v>
+        <v>0.2726348087756632</v>
       </c>
       <c r="CZ19">
-        <v>0.5199021510210936</v>
+        <v>0.3053763623290204</v>
       </c>
       <c r="DA19">
-        <v>-0.2523929882661426</v>
+        <v>-0.1270491803278689</v>
       </c>
       <c r="DB19">
-        <v>-0.6803285019568965</v>
+        <v>-0.5944082808303913</v>
       </c>
       <c r="DC19">
         <v>0</v>
@@ -6837,28 +6837,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>-0.09775504673671118</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="D20">
-        <v>0.5876563919302854</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E20">
-        <v>-0.4751468553758615</v>
+        <v>-0.3943661971830986</v>
       </c>
       <c r="F20">
-        <v>-0.8898669386876794</v>
+        <v>-0.5866947546811613</v>
       </c>
       <c r="G20">
-        <v>-0.1437268266300896</v>
+        <v>-0.1188802586608294</v>
       </c>
       <c r="H20">
-        <v>-0.8936217555376376</v>
+        <v>-0.6837606837606838</v>
       </c>
       <c r="I20">
-        <v>-0.8025425058883494</v>
+        <v>-0.8533333333333334</v>
       </c>
       <c r="J20">
-        <v>-1.960502869247881</v>
+        <v>-1.081674556412532</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -6882,13 +6882,13 @@
         <v>1</v>
       </c>
       <c r="R20">
-        <v>0.2499061635876302</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="S20">
-        <v>0.3263489205408961</v>
+        <v>0.2142857142857142</v>
       </c>
       <c r="T20">
-        <v>-0.5355960239086087</v>
+        <v>-0.3404255319148936</v>
       </c>
       <c r="U20">
         <v>3</v>
@@ -7026,94 +7026,94 @@
         <v>0</v>
       </c>
       <c r="BN20">
-        <v>-0.05630157195181865</v>
+        <v>-0.008339575144977346</v>
       </c>
       <c r="BO20">
-        <v>0.2224254846566299</v>
+        <v>0.3170524883339511</v>
       </c>
       <c r="BP20">
-        <v>0.2742156715553423</v>
+        <v>0.3606517864505039</v>
       </c>
       <c r="BQ20">
-        <v>-0.5586493514597877</v>
+        <v>-0.3290203327171899</v>
       </c>
       <c r="BR20">
-        <v>-0.4807846230680781</v>
+        <v>-0.3811659192825111</v>
       </c>
       <c r="BS20">
-        <v>0.7452376530640504</v>
+        <v>0.9444444444444448</v>
       </c>
       <c r="BT20">
-        <v>-0.9946695001777981</v>
+        <v>-0.7767824611901644</v>
       </c>
       <c r="BU20">
-        <v>-0.4564375526164631</v>
+        <v>-0.3243243243243243</v>
       </c>
       <c r="BV20">
-        <v>-0.7663648342220664</v>
+        <v>-1.056323060573857</v>
       </c>
       <c r="BW20">
-        <v>-0.6338124237764085</v>
+        <v>-0.6036036036036029</v>
       </c>
       <c r="BX20">
-        <v>1.255715776926431</v>
+        <v>1.114914425427873</v>
       </c>
       <c r="BY20">
-        <v>-0.5413821234878705</v>
+        <v>-0.6491228070175439</v>
       </c>
       <c r="BZ20">
-        <v>-0.6697712797908614</v>
+        <v>-0.5456919060052219</v>
       </c>
       <c r="CA20">
-        <v>0.1134065526626081</v>
+        <v>0.1449719244512505</v>
       </c>
       <c r="CB20">
-        <v>3.370571967882711</v>
+        <v>3.287272727272728</v>
       </c>
       <c r="CC20">
-        <v>-0.4936602158684236</v>
+        <v>-0.5000000000000011</v>
       </c>
       <c r="CD20">
-        <v>-0.4501198612785577</v>
+        <v>-0.6190476190476191</v>
       </c>
       <c r="CE20">
-        <v>-0.2640260611970322</v>
+        <v>-0.600159403909722</v>
       </c>
       <c r="CF20">
-        <v>0.1977959432032411</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="CG20">
-        <v>0.0556322393155074</v>
+        <v>0</v>
       </c>
       <c r="CH20">
-        <v>0.3876907494930477</v>
+        <v>0.1743199459060342</v>
       </c>
       <c r="CI20">
-        <v>-1.018181818181818</v>
+        <v>-1.148936170212766</v>
       </c>
       <c r="CJ20">
-        <v>-0.9450606029427064</v>
+        <v>-0.746733325174158</v>
       </c>
       <c r="CK20">
-        <v>-1.645569252137958</v>
+        <v>-0.666666666666667</v>
       </c>
       <c r="CL20">
         <v>1</v>
       </c>
       <c r="CM20">
-        <v>-1.140590325539512</v>
+        <v>-0.71203244704822</v>
       </c>
       <c r="CN20">
-        <v>-1.178996368904358</v>
+        <v>-0.6623012160898039</v>
       </c>
       <c r="CO20">
-        <v>-0.8000000000000005</v>
+        <v>-1</v>
       </c>
       <c r="CP20">
-        <v>-3.314966336098855</v>
+        <v>-2.249999999999998</v>
       </c>
       <c r="CQ20">
-        <v>-1.296655585146999</v>
+        <v>-1.999999999999998</v>
       </c>
       <c r="CR20">
         <v>1</v>
@@ -7128,25 +7128,25 @@
         <v>0</v>
       </c>
       <c r="CV20">
-        <v>0.9719324954273653</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="CW20">
-        <v>-0.8234427160746732</v>
+        <v>-0.5866666666666667</v>
       </c>
       <c r="CX20">
-        <v>-0.9672440885585487</v>
+        <v>-0.9947096796369372</v>
       </c>
       <c r="CY20">
-        <v>-0.1755044085104872</v>
+        <v>-0.1330241972606044</v>
       </c>
       <c r="CZ20">
-        <v>-0.02686732962285558</v>
+        <v>-0.05609994889800137</v>
       </c>
       <c r="DA20">
-        <v>-0.9407375017192589</v>
+        <v>-1.110655737704918</v>
       </c>
       <c r="DB20">
-        <v>-0.6009554171047138</v>
+        <v>-0.5094928121403354</v>
       </c>
       <c r="DC20">
         <v>0</v>
@@ -7160,25 +7160,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1.075305514103823</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0.9794273198838089</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E21">
-        <v>0.1467835092979199</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="F21">
-        <v>-0.4748381440282601</v>
+        <v>-0.2936124897122245</v>
       </c>
       <c r="G21">
-        <v>0.3811675879302985</v>
+        <v>0.4200390081491153</v>
       </c>
       <c r="H21">
-        <v>0.3285566519664962</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I21">
-        <v>1.975235271889428</v>
+        <v>1.813333333333333</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -7205,13 +7205,13 @@
         <v>1</v>
       </c>
       <c r="R21">
-        <v>1.127081658753873</v>
+        <v>0.8115942028985508</v>
       </c>
       <c r="S21">
-        <v>1.921832532074167</v>
+        <v>1.261904761904762</v>
       </c>
       <c r="T21">
-        <v>-0.5355960239086087</v>
+        <v>-0.3404255319148936</v>
       </c>
       <c r="U21">
         <v>3</v>
@@ -7349,73 +7349,73 @@
         <v>0</v>
       </c>
       <c r="BN21">
-        <v>4.623357545964861</v>
+        <v>4.248859099789194</v>
       </c>
       <c r="BO21">
-        <v>0.2545247892936654</v>
+        <v>0.3572679865339013</v>
       </c>
       <c r="BP21">
-        <v>0.3616178029031427</v>
+        <v>0.4575698184055462</v>
       </c>
       <c r="BQ21">
-        <v>-1.343632286613371</v>
+        <v>-1.179297597042514</v>
       </c>
       <c r="BR21">
-        <v>-0.8976887717424955</v>
+        <v>-0.937219730941704</v>
       </c>
       <c r="BS21">
-        <v>-1.26504751341004</v>
+        <v>-1.027777777777778</v>
       </c>
       <c r="BT21">
-        <v>-0.4791975247783327</v>
+        <v>-0.2706096216839915</v>
       </c>
       <c r="BU21">
-        <v>-0.9666971125354883</v>
+        <v>-0.8648648648648649</v>
       </c>
       <c r="BV21">
-        <v>-0.3303684182716827</v>
+        <v>-0.2316684378320935</v>
       </c>
       <c r="BW21">
-        <v>-1.02659758780686</v>
+        <v>-1</v>
       </c>
       <c r="BX21">
-        <v>-1.302562893987288</v>
+        <v>-1.06601466992665</v>
       </c>
       <c r="BY21">
-        <v>1.142269067369126</v>
+        <v>1.070175438596491</v>
       </c>
       <c r="BZ21">
-        <v>2.396043699670236</v>
+        <v>2.310704960835508</v>
       </c>
       <c r="CA21">
-        <v>0.5901478091823426</v>
+        <v>0.5758039816232773</v>
       </c>
       <c r="CB21">
-        <v>0.09341016212458418</v>
+        <v>0.101818181818182</v>
       </c>
       <c r="CC21">
-        <v>1.357565593638163</v>
+        <v>1.375000000000001</v>
       </c>
       <c r="CD21">
-        <v>1.186165006923056</v>
+        <v>1.476190476190476</v>
       </c>
       <c r="CE21">
-        <v>1.47948250353102</v>
+        <v>1.241982691920744</v>
       </c>
       <c r="CF21">
-        <v>0.9889797160162039</v>
+        <v>0.8695652173913033</v>
       </c>
       <c r="CG21">
-        <v>1.057012546994641</v>
+        <v>1.014084507042254</v>
       </c>
       <c r="CH21">
-        <v>1.356605271481346</v>
+        <v>1.16885584887893</v>
       </c>
       <c r="CI21">
-        <v>0.8727272727272727</v>
+        <v>1.063829787234043</v>
       </c>
       <c r="CJ21">
-        <v>-0.3780070931146237</v>
+        <v>-0.2347463642699855</v>
       </c>
       <c r="CK21">
         <v>0</v>
@@ -7424,19 +7424,19 @@
         <v>1</v>
       </c>
       <c r="CM21">
-        <v>1.218067738082715</v>
+        <v>0.9571879224876065</v>
       </c>
       <c r="CN21">
-        <v>0.911658335389987</v>
+        <v>0.7521047708138446</v>
       </c>
       <c r="CO21">
-        <v>-0.1999999999999995</v>
+        <v>-0.2499999999999992</v>
       </c>
       <c r="CP21">
-        <v>0.02409779948159809</v>
+        <v>0</v>
       </c>
       <c r="CQ21">
-        <v>0.6483277925735</v>
+        <v>1</v>
       </c>
       <c r="CR21">
         <v>1</v>
@@ -7448,28 +7448,28 @@
         <v>0</v>
       </c>
       <c r="CU21">
-        <v>1.929115853002593</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="CV21">
-        <v>-0.1943864990854731</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="CW21">
-        <v>-0.2245752862021836</v>
+        <v>-0.16</v>
       </c>
       <c r="CX21">
-        <v>-0.9035426043776891</v>
+        <v>-0.9243635248840109</v>
       </c>
       <c r="CY21">
-        <v>-0.9300164609712112</v>
+        <v>-0.7042583078014708</v>
       </c>
       <c r="CZ21">
-        <v>-1.309672649595198</v>
+        <v>-0.9041789867767833</v>
       </c>
       <c r="DA21">
-        <v>-0.9522099102768108</v>
+        <v>-1.127049180327869</v>
       </c>
       <c r="DB21">
-        <v>1.383371704199853</v>
+        <v>1.613393905111061</v>
       </c>
       <c r="DC21">
         <v>0</v>
@@ -7483,28 +7483,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1955100934734224</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D22">
-        <v>-0.1958854639767618</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="E22">
-        <v>-0.9104981106475086</v>
+        <v>-0.7887323943661971</v>
       </c>
       <c r="F22">
-        <v>-0.8817706386718138</v>
+        <v>-0.5809773635578173</v>
       </c>
       <c r="G22">
-        <v>-0.6257643450064013</v>
+        <v>-0.6137975196795403</v>
       </c>
       <c r="H22">
-        <v>0.03227097742003952</v>
+        <v>0.1709401709401709</v>
       </c>
       <c r="I22">
-        <v>-0.1914313947772383</v>
+        <v>-0.2666666666666667</v>
       </c>
       <c r="J22">
-        <v>0.3564550671359784</v>
+        <v>0.196668101165915</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -7528,13 +7528,13 @@
         <v>1</v>
       </c>
       <c r="R22">
-        <v>-0.01324648496224268</v>
+        <v>0.05797101449275362</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>-0.6427152286903305</v>
+        <v>-0.425531914893617</v>
       </c>
       <c r="U22">
         <v>3</v>
@@ -7672,94 +7672,94 @@
         <v>0</v>
       </c>
       <c r="BN22">
-        <v>2.431730207493399</v>
+        <v>2.255082893832575</v>
       </c>
       <c r="BO22">
-        <v>0.09094802980493394</v>
+        <v>0.1523314325755691</v>
       </c>
       <c r="BP22">
-        <v>0.02299174427815692</v>
+        <v>0.08207587261114177</v>
       </c>
       <c r="BQ22">
-        <v>0.8338421161170034</v>
+        <v>1.179297597042514</v>
       </c>
       <c r="BR22">
-        <v>0.1983656836434731</v>
+        <v>0.5246636771300454</v>
       </c>
       <c r="BS22">
-        <v>3.038661575379561</v>
+        <v>3.194444444444444</v>
       </c>
       <c r="BT22">
-        <v>-0.3911901143442775</v>
+        <v>-0.1841898685975717</v>
       </c>
       <c r="BU22">
-        <v>0.5640815672215873</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="BV22">
-        <v>-0.5596036472765236</v>
+        <v>-0.6652497343251857</v>
       </c>
       <c r="BW22">
-        <v>0.5981046815918228</v>
+        <v>0.6396396396396408</v>
       </c>
       <c r="BX22">
-        <v>0.4526686604961154</v>
+        <v>0.4303178484107578</v>
       </c>
       <c r="BY22">
-        <v>-0.197779839639504</v>
+        <v>-0.2982456140350877</v>
       </c>
       <c r="BZ22">
-        <v>2.967731319240678</v>
+        <v>2.843342036553524</v>
       </c>
       <c r="CA22">
-        <v>5.217475265828861</v>
+        <v>4.757529351710057</v>
       </c>
       <c r="CB22">
-        <v>3.52021405946984</v>
+        <v>3.432727272727274</v>
       </c>
       <c r="CC22">
         <v>0</v>
       </c>
       <c r="CD22">
-        <v>0.03332794069010101</v>
+        <v>0</v>
       </c>
       <c r="CE22">
-        <v>0.8090125756163644</v>
+        <v>0.5335830297758941</v>
       </c>
       <c r="CF22">
-        <v>0.3955918864064814</v>
+        <v>0.3478260869565212</v>
       </c>
       <c r="CG22">
-        <v>0.3894256752085518</v>
+        <v>0.3380281690140845</v>
       </c>
       <c r="CH22">
-        <v>1.165902509753902</v>
+        <v>0.9731102603570156</v>
       </c>
       <c r="CI22">
-        <v>-0.509090909090909</v>
+        <v>-0.5531914893617021</v>
       </c>
       <c r="CJ22">
-        <v>-0.8057609668787447</v>
+        <v>-0.620961072490161</v>
       </c>
       <c r="CK22">
-        <v>-0.8227846260689802</v>
+        <v>-0.3333333333333338</v>
       </c>
       <c r="CL22">
         <v>1</v>
       </c>
       <c r="CM22">
-        <v>-0.5114450321111214</v>
+        <v>-0.2667868409193332</v>
       </c>
       <c r="CN22">
-        <v>-0.09495318889988208</v>
+        <v>0.07109448082319948</v>
       </c>
       <c r="CO22">
-        <v>-0.8000000000000005</v>
+        <v>-1</v>
       </c>
       <c r="CP22">
-        <v>-0.7179164528696144</v>
+        <v>-0.5</v>
       </c>
       <c r="CQ22">
-        <v>-0.32416389628675</v>
+        <v>-0.5</v>
       </c>
       <c r="CR22">
         <v>1</v>
@@ -7771,28 +7771,28 @@
         <v>0</v>
       </c>
       <c r="CU22">
-        <v>0.7716463412010373</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="CV22">
-        <v>0.4851406567904408</v>
+        <v>0.3604032508026312</v>
       </c>
       <c r="CW22">
-        <v>-0.3887653513619564</v>
+        <v>-0.2769781896744977</v>
       </c>
       <c r="CX22">
-        <v>-0.165069699840076</v>
+        <v>-0.1088608738632841</v>
       </c>
       <c r="CY22">
-        <v>0.1919272998945071</v>
+        <v>0.1451549576657031</v>
       </c>
       <c r="CZ22">
-        <v>0.2654184220686431</v>
+        <v>0.1371339075733353</v>
       </c>
       <c r="DA22">
-        <v>-0.314128760703756</v>
+        <v>-0.2152662132344728</v>
       </c>
       <c r="DB22">
-        <v>0.4572798937349066</v>
+        <v>0.6226358883084573</v>
       </c>
       <c r="DC22">
         <v>0</v>
@@ -7806,28 +7806,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>-0.1955100934734224</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3917709279535236</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E23">
-        <v>0.3955556551674325</v>
+        <v>0.3943661971830986</v>
       </c>
       <c r="F23">
-        <v>0.220640618121169</v>
+        <v>0.1975160620207126</v>
       </c>
       <c r="G23">
-        <v>0.4183945635261255</v>
+        <v>0.4582606653760406</v>
       </c>
       <c r="H23">
-        <v>-0.5603003716728738</v>
+        <v>-0.3760683760683761</v>
       </c>
       <c r="I23">
-        <v>-0.7469869503327939</v>
+        <v>-0.8</v>
       </c>
       <c r="J23">
-        <v>0.7129101342719568</v>
+        <v>0.39333620233183</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -7851,13 +7851,13 @@
         <v>1</v>
       </c>
       <c r="R23">
-        <v>-0.6711281063369248</v>
+        <v>-0.3768115942028986</v>
       </c>
       <c r="S23">
-        <v>-0.6526978410817927</v>
+        <v>-0.4285714285714287</v>
       </c>
       <c r="T23">
-        <v>-0.1071192047817217</v>
+        <v>0</v>
       </c>
       <c r="U23">
         <v>6</v>
@@ -7995,73 +7995,73 @@
         <v>0</v>
       </c>
       <c r="BN23">
-        <v>0.802354592106172</v>
+        <v>0.7728006301012332</v>
       </c>
       <c r="BO23">
-        <v>-0.05690331276565386</v>
+        <v>-0.03290358943632292</v>
       </c>
       <c r="BP23">
-        <v>-0.03672541876314124</v>
+        <v>0.01585700784604748</v>
       </c>
       <c r="BQ23">
-        <v>-1.077420682517808</v>
+        <v>-0.8909426987060995</v>
       </c>
       <c r="BR23">
-        <v>-0.7430307811052118</v>
+        <v>-0.7309417040358746</v>
       </c>
       <c r="BS23">
-        <v>-0.6987700017271978</v>
+        <v>-0.4722222222222224</v>
       </c>
       <c r="BT23">
-        <v>-0.6049223968269829</v>
+        <v>-0.3940664118074484</v>
       </c>
       <c r="BU23">
-        <v>1.380496863092028</v>
+        <v>1.621621621621622</v>
       </c>
       <c r="BV23">
-        <v>-0.002247404205929765</v>
+        <v>0.388947927736451</v>
       </c>
       <c r="BW23">
-        <v>1.401528880745017</v>
+        <v>1.450450450450452</v>
       </c>
       <c r="BX23">
-        <v>-0.998552199910097</v>
+        <v>-0.8068459657701711</v>
       </c>
       <c r="BY23">
-        <v>1.107908838984289</v>
+        <v>1.035087719298246</v>
       </c>
       <c r="BZ23">
-        <v>0.2325983942369936</v>
+        <v>0.2950391644908615</v>
       </c>
       <c r="CA23">
-        <v>0.1450386739482778</v>
+        <v>0.1735579377233283</v>
       </c>
       <c r="CB23">
-        <v>0.5573006460446842</v>
+        <v>0.552727272727273</v>
       </c>
       <c r="CC23">
-        <v>0.2468301079342107</v>
+        <v>0.2499999999999994</v>
       </c>
       <c r="CD23">
-        <v>0.2936459879039942</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CE23">
-        <v>0.3131884085127922</v>
+        <v>0.009709164840773176</v>
       </c>
       <c r="CF23">
-        <v>0.5933878296097225</v>
+        <v>0.5217391304347822</v>
       </c>
       <c r="CG23">
-        <v>0.5563223931550739</v>
+        <v>0.5070422535211268</v>
       </c>
       <c r="CH23">
-        <v>0.7090754742402269</v>
+        <v>0.5042031710766356</v>
       </c>
       <c r="CI23">
-        <v>-0.2181818181818182</v>
+        <v>-0.2127659574468085</v>
       </c>
       <c r="CJ23">
-        <v>-0.7196055930110594</v>
+        <v>-0.5431722443327404</v>
       </c>
       <c r="CK23">
         <v>0</v>
@@ -8070,19 +8070,19 @@
         <v>1</v>
       </c>
       <c r="CM23">
-        <v>-0.3422380610890645</v>
+        <v>-0.1470392068499326</v>
       </c>
       <c r="CN23">
-        <v>-0.634806271092671</v>
+        <v>-0.2941362911131902</v>
       </c>
       <c r="CO23">
-        <v>-0.8000000000000005</v>
+        <v>-1</v>
       </c>
       <c r="CP23">
-        <v>-0.7179164528696144</v>
+        <v>-0.5</v>
       </c>
       <c r="CQ23">
-        <v>-0.32416389628675</v>
+        <v>-0.5</v>
       </c>
       <c r="CR23">
         <v>1</v>
@@ -8097,25 +8097,25 @@
         <v>0</v>
       </c>
       <c r="CV23">
-        <v>-0.2591819987806308</v>
+        <v>-0.2777777777777778</v>
       </c>
       <c r="CW23">
-        <v>0.4491505724043672</v>
+        <v>0.32</v>
       </c>
       <c r="CX23">
-        <v>-0.9641366990863117</v>
+        <v>-0.991278159892892</v>
       </c>
       <c r="CY23">
-        <v>-0.6347726143561453</v>
+        <v>-0.4807319167202622</v>
       </c>
       <c r="CZ23">
-        <v>2.563277838299442</v>
+        <v>1.656278217747954</v>
       </c>
       <c r="DA23">
-        <v>-0.1261964941330713</v>
+        <v>0.05327868852459016</v>
       </c>
       <c r="DB23">
-        <v>1.383371704199853</v>
+        <v>1.613393905111061</v>
       </c>
       <c r="DC23">
         <v>0</v>
@@ -8129,28 +8129,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>-0.4887752336835559</v>
+        <v>-0.2307692307692308</v>
       </c>
       <c r="D24">
-        <v>0.4897136599419045</v>
+        <v>0.25</v>
       </c>
       <c r="E24">
-        <v>0.3333626187000544</v>
+        <v>0.3380281690140845</v>
       </c>
       <c r="F24">
-        <v>0.07593745168485438</v>
+        <v>0.09533054546604917</v>
       </c>
       <c r="G24">
-        <v>0.3990874392788838</v>
+        <v>0.4384376667787961</v>
       </c>
       <c r="H24">
-        <v>-0.8195503369010234</v>
+        <v>-0.6153846153846154</v>
       </c>
       <c r="I24">
-        <v>-0.6914313947772384</v>
+        <v>-0.7466666666666667</v>
       </c>
       <c r="J24">
-        <v>0.7129101342719568</v>
+        <v>0.39333620233183</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -8174,13 +8174,13 @@
         <v>1</v>
       </c>
       <c r="R24">
-        <v>-0.1886815839954912</v>
+        <v>-0.05797101449275362</v>
       </c>
       <c r="S24">
-        <v>-0.3263489205408965</v>
+        <v>-0.2142857142857144</v>
       </c>
       <c r="T24">
-        <v>-0.1071192047817217</v>
+        <v>0</v>
       </c>
       <c r="U24">
         <v>6</v>
@@ -8318,73 +8318,73 @@
         <v>1</v>
       </c>
       <c r="BN24">
-        <v>-0.1851509251586227</v>
+        <v>-0.1255569369049366</v>
       </c>
       <c r="BO24">
-        <v>0.040529425046762</v>
+        <v>0.08916466520089976</v>
       </c>
       <c r="BP24">
-        <v>-0.08774812894785193</v>
+        <v>-0.04072079614864994</v>
       </c>
       <c r="BQ24">
-        <v>-1.077420682517808</v>
+        <v>-0.8909426987060995</v>
       </c>
       <c r="BR24">
-        <v>-0.9649313763674017</v>
+        <v>-1.026905829596413</v>
       </c>
       <c r="BS24">
-        <v>-0.9252810064003346</v>
+        <v>-0.6944444444444444</v>
       </c>
       <c r="BT24">
-        <v>0.5266014516108682</v>
+        <v>0.7170446993036628</v>
       </c>
       <c r="BU24">
-        <v>-0.09925586067314544</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="BV24">
-        <v>0.1505760817972975</v>
+        <v>0.6780021253985125</v>
       </c>
       <c r="BW24">
-        <v>0.1160501620999069</v>
+        <v>0.1531531531531548</v>
       </c>
       <c r="BX24">
-        <v>0.06261720394424818</v>
+        <v>0.09779951100244498</v>
       </c>
       <c r="BY24">
-        <v>0.1801826725936992</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="BZ24">
-        <v>0.002802390292011812</v>
+        <v>0.08093994778067867</v>
       </c>
       <c r="CA24">
-        <v>0.01399131433621808</v>
+        <v>0.05513016845329242</v>
       </c>
       <c r="CB24">
-        <v>-0.6398360866523484</v>
+        <v>-0.6109090909090908</v>
       </c>
       <c r="CC24">
-        <v>-0.7404903238026365</v>
+        <v>-0.7500000000000028</v>
       </c>
       <c r="CD24">
-        <v>-0.5616847386559405</v>
+        <v>-0.7619047619047619</v>
       </c>
       <c r="CE24">
-        <v>-0.7618133340793568</v>
+        <v>-1.126107431178638</v>
       </c>
       <c r="CF24">
-        <v>-0.1977959432032411</v>
+        <v>-0.173913043478261</v>
       </c>
       <c r="CG24">
-        <v>-0.3337934358930444</v>
+        <v>-0.3943661971830986</v>
       </c>
       <c r="CH24">
-        <v>-0.3899230742636574</v>
+        <v>-0.6238566205748438</v>
       </c>
       <c r="CI24">
-        <v>-0.7272727272727273</v>
+        <v>-0.8085106382978723</v>
       </c>
       <c r="CJ24">
-        <v>-0.270597255518321</v>
+        <v>-0.1377670927038609</v>
       </c>
       <c r="CK24">
         <v>0</v>
@@ -8393,19 +8393,19 @@
         <v>1</v>
       </c>
       <c r="CM24">
-        <v>-1.293419141756935</v>
+        <v>-0.8201892744479496</v>
       </c>
       <c r="CN24">
-        <v>-1.682302131049292</v>
+        <v>-1.002806361085126</v>
       </c>
       <c r="CO24">
-        <v>0.4000000000000007</v>
+        <v>0.5000000000000006</v>
       </c>
       <c r="CP24">
-        <v>-0.3469093266940081</v>
+        <v>-0.25</v>
       </c>
       <c r="CQ24">
-        <v>0.6483277925735</v>
+        <v>1</v>
       </c>
       <c r="CR24">
         <v>1</v>
@@ -8417,28 +8417,28 @@
         <v>0</v>
       </c>
       <c r="CU24">
-        <v>-0.7716463412010373</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="CV24">
-        <v>1.295909993903154</v>
+        <v>1.055555555555556</v>
       </c>
       <c r="CW24">
-        <v>-1.048018002276857</v>
+        <v>-0.7466666666666667</v>
       </c>
       <c r="CX24">
-        <v>-0.9346164991000596</v>
+        <v>-0.9586787223244627</v>
       </c>
       <c r="CY24">
-        <v>-0.7331872298945006</v>
+        <v>-0.5552407137473317</v>
       </c>
       <c r="CZ24">
-        <v>0.04556794345390705</v>
+        <v>-0.008212061513224907</v>
       </c>
       <c r="DA24">
-        <v>0.1663499240845031</v>
+        <v>0.4713114754098361</v>
       </c>
       <c r="DB24">
-        <v>-1.394686265626541</v>
+        <v>-1.358647499040894</v>
       </c>
       <c r="DC24">
         <v>0</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.09775504673671118</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D25">
-        <v>0.6855991239186663</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E25">
-        <v>1.14187209277597</v>
+        <v>1.070422535211268</v>
       </c>
       <c r="F25">
-        <v>0.8133592797251056</v>
+        <v>0.616078171608296</v>
       </c>
       <c r="G25">
-        <v>0.9715324815571363</v>
+        <v>1.026178084500637</v>
       </c>
       <c r="H25">
-        <v>-1.634335941903779</v>
+        <v>-1.367521367521368</v>
       </c>
       <c r="I25">
-        <v>0.08634638300053944</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>1.782275335679892</v>
+        <v>0.9833405058295749</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -8497,13 +8497,13 @@
         <v>4</v>
       </c>
       <c r="R25">
-        <v>2.004257153920116</v>
+        <v>1.391304347826087</v>
       </c>
       <c r="S25">
-        <v>4.206274975860442</v>
+        <v>2.761904761904762</v>
       </c>
       <c r="T25">
-        <v>-0.3213576143451652</v>
+        <v>-0.1702127659574468</v>
       </c>
       <c r="U25">
         <v>6</v>
@@ -8641,73 +8641,73 @@
         <v>1</v>
       </c>
       <c r="BN25">
-        <v>16.52197568333627</v>
+        <v>15.07331876481626</v>
       </c>
       <c r="BO25">
-        <v>0.2799547424013727</v>
+        <v>0.3891278116918544</v>
       </c>
       <c r="BP25">
-        <v>0.2796353013475915</v>
+        <v>0.3666614780368514</v>
       </c>
       <c r="BQ25">
-        <v>0.1717260751613719</v>
+        <v>0.4621072088724584</v>
       </c>
       <c r="BR25">
-        <v>-0.02353491161871691</v>
+        <v>0.2286995515695071</v>
       </c>
       <c r="BS25">
-        <v>1.254887413578608</v>
+        <v>1.444444444444445</v>
       </c>
       <c r="BT25">
-        <v>-0.4163350887540075</v>
+        <v>-0.208881226622263</v>
       </c>
       <c r="BU25">
-        <v>-0.6605413765840732</v>
+        <v>-0.5405405405405406</v>
       </c>
       <c r="BV25">
-        <v>-0.4247593949207348</v>
+        <v>-0.4102019128586609</v>
       </c>
       <c r="BW25">
-        <v>-0.526689197222649</v>
+        <v>-0.4954954954954945</v>
       </c>
       <c r="BX25">
-        <v>0.4526686604961154</v>
+        <v>0.4303178484107578</v>
       </c>
       <c r="BY25">
-        <v>-0.1634196112546674</v>
+        <v>-0.2631578947368421</v>
       </c>
       <c r="BZ25">
-        <v>11.470183465205</v>
+        <v>10.76501305483028</v>
       </c>
       <c r="CA25">
-        <v>14.99180074310076</v>
+        <v>13.59060745278203</v>
       </c>
       <c r="CB25">
-        <v>0.5573006460446842</v>
+        <v>0.552727272727273</v>
       </c>
       <c r="CC25">
-        <v>1.727810755539479</v>
+        <v>1.750000000000001</v>
       </c>
       <c r="CD25">
-        <v>1.558047931514332</v>
+        <v>1.952380952380952</v>
       </c>
       <c r="CE25">
-        <v>-4.896674776247663</v>
+        <v>-5.494885696533812</v>
       </c>
       <c r="CF25">
-        <v>1.384571602422686</v>
+        <v>1.217391304347825</v>
       </c>
       <c r="CG25">
-        <v>1.613334940149715</v>
+        <v>1.577464788732394</v>
       </c>
       <c r="CH25">
-        <v>-3.42357862300935</v>
+        <v>-3.737732294859527</v>
       </c>
       <c r="CI25">
-        <v>0.8727272727272727</v>
+        <v>1.063829787234043</v>
       </c>
       <c r="CJ25">
-        <v>-0.7661872066333002</v>
+        <v>-0.585230318886752</v>
       </c>
       <c r="CK25">
         <v>0</v>
@@ -8716,19 +8716,19 @@
         <v>1</v>
       </c>
       <c r="CM25">
-        <v>1.936363174304604</v>
+        <v>1.465525011266336</v>
       </c>
       <c r="CN25">
-        <v>1.1052374746765</v>
+        <v>0.883068288119738</v>
       </c>
       <c r="CO25">
-        <v>0.8000000000000014</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="CP25">
-        <v>1.879133430359628</v>
+        <v>1.249999999999999</v>
       </c>
       <c r="CQ25">
-        <v>2.593311170293997</v>
+        <v>3.999999999999996</v>
       </c>
       <c r="CR25">
         <v>1</v>
@@ -8740,28 +8740,28 @@
         <v>0</v>
       </c>
       <c r="CU25">
-        <v>0.3858231706005186</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CV25">
-        <v>0.4249604243235705</v>
+        <v>0.3088048178267478</v>
       </c>
       <c r="CW25">
-        <v>-0.3939962879936709</v>
+        <v>-0.280705001627977</v>
       </c>
       <c r="CX25">
-        <v>5.994862023988581</v>
+        <v>6.693610306896312</v>
       </c>
       <c r="CY25">
-        <v>0.9945360206677368</v>
+        <v>0.7528026118390002</v>
       </c>
       <c r="CZ25">
-        <v>20.77958070624913</v>
+        <v>13.69930950973882</v>
       </c>
       <c r="DA25">
-        <v>1.216075307100505</v>
+        <v>1.971311475409836</v>
       </c>
       <c r="DB25">
-        <v>5.510772116513354</v>
+        <v>6.028998276993968</v>
       </c>
       <c r="DC25">
         <v>0</v>
@@ -8775,28 +8775,28 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>-0.7820403738936894</v>
+        <v>-0.4615384615384616</v>
       </c>
       <c r="D26">
-        <v>0.7835418559070472</v>
+        <v>0.5</v>
       </c>
       <c r="E26">
-        <v>2.634504967993046</v>
+        <v>2.422535211267606</v>
       </c>
       <c r="F26">
-        <v>2.343814456537201</v>
+        <v>1.696844796539975</v>
       </c>
       <c r="G26">
-        <v>1.893680997107047</v>
+        <v>1.972965834768957</v>
       </c>
       <c r="H26">
-        <v>0.1804138146932679</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="I26">
-        <v>0.5307908274449838</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="J26">
-        <v>-2.495185469951849</v>
+        <v>-1.376676708161405</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -8820,13 +8820,13 @@
         <v>1</v>
       </c>
       <c r="R26">
-        <v>-0.6711281063369248</v>
+        <v>-0.3768115942028986</v>
       </c>
       <c r="S26">
-        <v>-0.6526978410817927</v>
+        <v>-0.4285714285714287</v>
       </c>
       <c r="T26">
-        <v>-0.8569536382537739</v>
+        <v>-0.5957446808510638</v>
       </c>
       <c r="U26">
         <v>3</v>
@@ -8964,94 +8964,94 @@
         <v>0</v>
       </c>
       <c r="BN26">
-        <v>-0.4118171391266395</v>
+        <v>-0.3317606541933392</v>
       </c>
       <c r="BO26">
-        <v>-0.1619393707168423</v>
+        <v>-0.1644976363239379</v>
       </c>
       <c r="BP26">
-        <v>0.3069342704630267</v>
+        <v>0.3969326204022606</v>
       </c>
       <c r="BQ26">
-        <v>-0.6815162456577403</v>
+        <v>-0.4621072088724584</v>
       </c>
       <c r="BR26">
-        <v>-0.4942331439930593</v>
+        <v>-0.3991031390134528</v>
       </c>
       <c r="BS26">
-        <v>-0.6138283749747714</v>
+        <v>-0.388888888888889</v>
       </c>
       <c r="BT26">
-        <v>-0.1145953958372473</v>
+        <v>0.08741506967403322</v>
       </c>
       <c r="BU26">
-        <v>0.002796051310659599</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="BV26">
-        <v>0.6629842407492947</v>
+        <v>1.647183846971307</v>
       </c>
       <c r="BW26">
-        <v>-0.1339040331921991</v>
+        <v>-0.09909909909909864</v>
       </c>
       <c r="BX26">
-        <v>0.9689132353441753</v>
+        <v>0.8704156479217602</v>
       </c>
       <c r="BY26">
-        <v>-0.300860524794014</v>
+        <v>-0.4035087719298245</v>
       </c>
       <c r="BZ26">
-        <v>0.2269936136529696</v>
+        <v>0.2898172323759789</v>
       </c>
       <c r="CA26">
-        <v>-0.3701130155611981</v>
+        <v>-0.2919857069933641</v>
       </c>
       <c r="CB26">
-        <v>0.6021932735208229</v>
+        <v>0.5963636363636364</v>
       </c>
       <c r="CC26">
-        <v>0.4936602158684214</v>
+        <v>0.4999999999999989</v>
       </c>
       <c r="CD26">
-        <v>0.4052108652813769</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="CE26">
-        <v>-0.4704350122700872</v>
+        <v>-0.8182452942920235</v>
       </c>
       <c r="CF26">
-        <v>-0.5933878296097234</v>
+        <v>-0.5217391304347829</v>
       </c>
       <c r="CG26">
-        <v>-0.6119546324705814</v>
+        <v>-0.676056338028169</v>
       </c>
       <c r="CH26">
-        <v>-1.229466548178113</v>
+        <v>-1.48560046687525</v>
       </c>
       <c r="CI26">
-        <v>1.527272727272727</v>
+        <v>1.829787234042553</v>
       </c>
       <c r="CJ26">
-        <v>1.542443009961681</v>
+        <v>1.499208888277942</v>
       </c>
       <c r="CK26">
-        <v>2.468353878206939</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="CL26">
         <v>1</v>
       </c>
       <c r="CM26">
-        <v>1.64242241777976</v>
+        <v>1.257503379900856</v>
       </c>
       <c r="CN26">
-        <v>0.1152184480397609</v>
+        <v>0.2132834424695979</v>
       </c>
       <c r="CO26">
-        <v>2.000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="CP26">
-        <v>1.137119178008415</v>
+        <v>0.7499999999999989</v>
       </c>
       <c r="CQ26">
-        <v>1.620819481433749</v>
+        <v>2.499999999999998</v>
       </c>
       <c r="CR26">
         <v>1</v>
@@ -9063,28 +9063,28 @@
         <v>0</v>
       </c>
       <c r="CU26">
-        <v>0.7716463412010373</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="CV26">
-        <v>0.4535684978661038</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CW26">
-        <v>0.1497168574681224</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="CX26">
-        <v>-0.1204804573739503</v>
+        <v>-0.05962054938462281</v>
       </c>
       <c r="CY26">
-        <v>-1.903227659072725</v>
+        <v>-1.441067522846936</v>
       </c>
       <c r="CZ26">
-        <v>-1.050307639546145</v>
+        <v>-0.7327094545280678</v>
       </c>
       <c r="DA26">
-        <v>-0.562148019320045</v>
+        <v>-0.569672131147541</v>
       </c>
       <c r="DB26">
-        <v>0.1134023465649303</v>
+        <v>0.2547464060701675</v>
       </c>
       <c r="DC26">
         <v>0</v>
@@ -9098,28 +9098,28 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>-0.2932651402101336</v>
+        <v>-0.07692307692307693</v>
       </c>
       <c r="D27">
-        <v>-0.5876563919302854</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="E27">
-        <v>-2.21655187646245</v>
+        <v>-1.971830985915493</v>
       </c>
       <c r="F27">
-        <v>-2.270803109041143</v>
+        <v>-1.561875045284492</v>
       </c>
       <c r="G27">
-        <v>-1.745925494589504</v>
+        <v>-1.76388867838982</v>
       </c>
       <c r="H27">
-        <v>-0.8936217555376376</v>
+        <v>-0.6837606837606838</v>
       </c>
       <c r="I27">
-        <v>0.1974574941116506</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="J27">
-        <v>1.069365201407935</v>
+        <v>0.5900043034977449</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -9143,13 +9143,13 @@
         <v>1</v>
       </c>
       <c r="R27">
-        <v>-0.4518342325453641</v>
+        <v>-0.2318840579710145</v>
       </c>
       <c r="S27">
-        <v>-0.3263489205408965</v>
+        <v>-0.2142857142857144</v>
       </c>
       <c r="T27">
-        <v>-0.6427152286903305</v>
+        <v>-0.425531914893617</v>
       </c>
       <c r="U27">
         <v>3</v>
@@ -9287,94 +9287,94 @@
         <v>2</v>
       </c>
       <c r="BN27">
-        <v>16.52197568333627</v>
+        <v>15.07331876481626</v>
       </c>
       <c r="BO27">
-        <v>1.332283260137161</v>
+        <v>1.707533804883746</v>
       </c>
       <c r="BP27">
-        <v>1.831895541230277</v>
+        <v>2.087923937104764</v>
       </c>
       <c r="BQ27">
-        <v>-0.8726425255212209</v>
+        <v>-0.6691312384473193</v>
       </c>
       <c r="BR27">
-        <v>-0.5076816649180406</v>
+        <v>-0.4170403587443946</v>
       </c>
       <c r="BS27">
-        <v>-0.6987700017271978</v>
+        <v>-0.4722222222222224</v>
       </c>
       <c r="BT27">
-        <v>-0.7306472688756328</v>
+        <v>-0.517523201930905</v>
       </c>
       <c r="BU27">
-        <v>-0.5074635086083655</v>
+        <v>-0.3783783783783784</v>
       </c>
       <c r="BV27">
-        <v>-0.5573562430705937</v>
+        <v>-0.6609989373007438</v>
       </c>
       <c r="BW27">
-        <v>-0.2945888730228377</v>
+        <v>-0.2612612612612606</v>
       </c>
       <c r="BX27">
-        <v>0.2863231863784069</v>
+        <v>0.2885085574572123</v>
       </c>
       <c r="BY27">
-        <v>0.008381530669515918</v>
+        <v>-0.08771929824561403</v>
       </c>
       <c r="BZ27">
-        <v>2.21669072098147</v>
+        <v>2.143603133159269</v>
       </c>
       <c r="CA27">
-        <v>8.477843195487518</v>
+        <v>7.703930576824912</v>
       </c>
       <c r="CB27">
-        <v>-0.2806950668432386</v>
+        <v>-0.2618181818181818</v>
       </c>
       <c r="CC27">
-        <v>0.2468301079342107</v>
+        <v>0.2499999999999994</v>
       </c>
       <c r="CD27">
-        <v>0.1820811105266114</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="CE27">
-        <v>2.298541347242562</v>
+        <v>2.107377221943373</v>
       </c>
       <c r="CF27">
-        <v>0.5933878296097225</v>
+        <v>0.5217391304347822</v>
       </c>
       <c r="CG27">
-        <v>0.6119546324705814</v>
+        <v>0.5633802816901409</v>
       </c>
       <c r="CH27">
-        <v>2.536516176963592</v>
+        <v>2.37996759421979</v>
       </c>
       <c r="CI27">
-        <v>-0.509090909090909</v>
+        <v>-0.5531914893617021</v>
       </c>
       <c r="CJ27">
-        <v>-0.9955120736966413</v>
+        <v>-0.792285455152657</v>
       </c>
       <c r="CK27">
-        <v>0.8227846260689783</v>
+        <v>0.3333333333333331</v>
       </c>
       <c r="CL27">
         <v>1</v>
       </c>
       <c r="CM27">
-        <v>0.6882611751956489</v>
+        <v>0.5822442541685442</v>
       </c>
       <c r="CN27">
-        <v>2.803203067846776</v>
+        <v>2.031805425631432</v>
       </c>
       <c r="CO27">
-        <v>-0.3999999999999998</v>
+        <v>-0.4999999999999994</v>
       </c>
       <c r="CP27">
-        <v>1.508126304184021</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="CQ27">
-        <v>-0.32416389628675</v>
+        <v>-0.5</v>
       </c>
       <c r="CR27">
         <v>1</v>
@@ -9389,25 +9389,25 @@
         <v>0</v>
       </c>
       <c r="CV27">
-        <v>0.3887729981709461</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="CW27">
         <v>0</v>
       </c>
       <c r="CX27">
-        <v>-0.9641366990863117</v>
+        <v>-0.991278159892892</v>
       </c>
       <c r="CY27">
-        <v>-0.2957889386129215</v>
+        <v>-0.2240905047381338</v>
       </c>
       <c r="CZ27">
-        <v>11.42141074907385</v>
+        <v>7.512503413737868</v>
       </c>
       <c r="DA27">
-        <v>0.01147240855755194</v>
+        <v>0.25</v>
       </c>
       <c r="DB27">
-        <v>-0.7597015868090793</v>
+        <v>-0.6793237495204473</v>
       </c>
       <c r="DC27">
         <v>0</v>
@@ -9421,28 +9421,28 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>-0.1666666666666667</v>
       </c>
       <c r="E28">
-        <v>2.758891040927802</v>
+        <v>2.535211267605634</v>
       </c>
       <c r="F28">
-        <v>3.331667758449112</v>
+        <v>2.394440449918613</v>
       </c>
       <c r="G28">
-        <v>1.752501667840714</v>
+        <v>1.828014281644402</v>
       </c>
       <c r="H28">
-        <v>-0.004764731898267567</v>
+        <v>0.1367521367521368</v>
       </c>
       <c r="I28">
-        <v>-0.5247647281105716</v>
+        <v>-0.5866666666666667</v>
       </c>
       <c r="J28">
-        <v>0.5346826007039677</v>
+        <v>0.2950021517488725</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -9466,13 +9466,13 @@
         <v>1</v>
       </c>
       <c r="R28">
-        <v>-0.3641166830287398</v>
+        <v>-0.1739130434782609</v>
       </c>
       <c r="S28">
-        <v>-0.3263489205408965</v>
+        <v>-0.2142857142857144</v>
       </c>
       <c r="T28">
-        <v>0.7498344334720523</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="U28">
         <v>9</v>
@@ -9610,91 +9610,91 @@
         <v>0</v>
       </c>
       <c r="BN28">
-        <v>-0.2191033238955935</v>
+        <v>-0.1564442522567045</v>
       </c>
       <c r="BO28">
-        <v>-0.2318283112674787</v>
+        <v>-0.252057743768375</v>
       </c>
       <c r="BP28">
-        <v>-0.3880957148647565</v>
+        <v>-0.3737687033407545</v>
       </c>
       <c r="BQ28">
-        <v>0.2741151536596657</v>
+        <v>0.5730129390018487</v>
       </c>
       <c r="BR28">
-        <v>0.353023674280757</v>
+        <v>0.730941704035875</v>
       </c>
       <c r="BS28">
-        <v>-0.5005728726382028</v>
+        <v>-0.2777777777777777</v>
       </c>
       <c r="BT28">
-        <v>0.1745718098746479</v>
+        <v>0.3713656869579838</v>
       </c>
       <c r="BU28">
-        <v>-0.7115673325759757</v>
+        <v>-0.5945945945945946</v>
       </c>
       <c r="BV28">
-        <v>-0.6764686659848739</v>
+        <v>-0.8862911795961742</v>
       </c>
       <c r="BW28">
-        <v>-0.3481504862997168</v>
+        <v>-0.3153153153153142</v>
       </c>
       <c r="BX28">
-        <v>-1.325507097313869</v>
+        <v>-1.085574572127139</v>
       </c>
       <c r="BY28">
-        <v>0.4207042712875558</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="BZ28">
-        <v>-0.703399963295005</v>
+        <v>-0.5770234986945169</v>
       </c>
       <c r="CA28">
-        <v>-0.4830848772957323</v>
+        <v>-0.3940786115364984</v>
       </c>
       <c r="CB28">
-        <v>-0.8792634331917549</v>
+        <v>-0.8436363636363637</v>
       </c>
       <c r="CC28">
-        <v>0.7404903238026344</v>
+        <v>0.7500000000000006</v>
       </c>
       <c r="CD28">
-        <v>0.5167757426587597</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="CE28">
-        <v>-0.2738580028854495</v>
+        <v>-0.6105475568757552</v>
       </c>
       <c r="CF28">
-        <v>0.3955918864064814</v>
+        <v>0.3478260869565212</v>
       </c>
       <c r="CG28">
-        <v>0.5006901538395666</v>
+        <v>0.4507042253521127</v>
       </c>
       <c r="CH28">
-        <v>-0.00801527005547965</v>
+        <v>-0.2318498807737418</v>
       </c>
       <c r="CI28">
-        <v>0.2909090909090909</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="CJ28">
-        <v>-0.3048074145653875</v>
+        <v>-0.168655104256538</v>
       </c>
       <c r="CK28">
-        <v>2.468353878206939</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="CL28">
         <v>1</v>
       </c>
       <c r="CM28">
-        <v>2.26749227610902</v>
+        <v>1.699864803965751</v>
       </c>
       <c r="CN28">
-        <v>0.7567950239607764</v>
+        <v>0.6473339569691301</v>
       </c>
       <c r="CO28">
-        <v>1.000000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="CP28">
-        <v>1.137119178008415</v>
+        <v>0.7499999999999989</v>
       </c>
       <c r="CQ28">
         <v>0</v>
@@ -9709,28 +9709,28 @@
         <v>0</v>
       </c>
       <c r="CU28">
-        <v>1.157469511801556</v>
+        <v>1</v>
       </c>
       <c r="CV28">
-        <v>-0.8423414960370499</v>
+        <v>-0.7777777777777778</v>
       </c>
       <c r="CW28">
-        <v>-0.07485842873406121</v>
+        <v>-0.05333333333333334</v>
       </c>
       <c r="CX28">
-        <v>0.7032143176992968</v>
+        <v>0.8499934236896469</v>
       </c>
       <c r="CY28">
-        <v>0.5689507420616916</v>
+        <v>0.4305959256887268</v>
       </c>
       <c r="CZ28">
-        <v>-0.02662423730326194</v>
+        <v>-0.05593923744996877</v>
       </c>
       <c r="DA28">
-        <v>0.3143322445991984</v>
+        <v>0.6827700953150567</v>
       </c>
       <c r="DB28">
-        <v>-0.2047270361750553</v>
+        <v>-0.08559699484152319</v>
       </c>
       <c r="DC28">
         <v>1</v>
@@ -9744,28 +9744,28 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>-0.2932651402101336</v>
+        <v>-0.07692307692307693</v>
       </c>
       <c r="D29">
-        <v>0.4897136599419045</v>
+        <v>0.25</v>
       </c>
       <c r="E29">
-        <v>0.7687138739717014</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="F29">
-        <v>0.562086138619021</v>
+        <v>0.4386357814202514</v>
       </c>
       <c r="G29">
-        <v>0.6861372649905111</v>
+        <v>0.7331572852757748</v>
       </c>
       <c r="H29">
-        <v>-0.8195503369010234</v>
+        <v>-0.6153846153846154</v>
       </c>
       <c r="I29">
-        <v>0.1974574941116506</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="J29">
-        <v>0.3564550671359784</v>
+        <v>0.196668101165915</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -9789,13 +9789,13 @@
         <v>1</v>
       </c>
       <c r="R29">
-        <v>0.1183298393126937</v>
+        <v>0.1449275362318841</v>
       </c>
       <c r="S29">
-        <v>0.3263489205408961</v>
+        <v>0.2142857142857142</v>
       </c>
       <c r="T29">
-        <v>0.6427152286903305</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="U29">
         <v>9</v>
@@ -9933,94 +9933,94 @@
         <v>0</v>
       </c>
       <c r="BN29">
-        <v>-0.2913710046072358</v>
+        <v>-0.2221879029829425</v>
       </c>
       <c r="BO29">
-        <v>0.20264712523381</v>
+        <v>0.2922732419683252</v>
       </c>
       <c r="BP29">
-        <v>-0.1284747765392353</v>
+        <v>-0.08588155449419317</v>
       </c>
       <c r="BQ29">
-        <v>0.9089274403490849</v>
+        <v>1.260628465804067</v>
       </c>
       <c r="BR29">
-        <v>0.3597479347432475</v>
+        <v>0.7399103139013457</v>
       </c>
       <c r="BS29">
-        <v>0.1223323902129233</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="BT29">
-        <v>2.123307326628725</v>
+        <v>2.284945933871564</v>
       </c>
       <c r="BU29">
-        <v>0.6151075232134898</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="BV29">
-        <v>2.589009645231144</v>
+        <v>5.290116896918171</v>
       </c>
       <c r="BW29">
-        <v>0.294588873022839</v>
+        <v>0.333333333333335</v>
       </c>
       <c r="BX29">
-        <v>-0.465099472567102</v>
+        <v>-0.352078239608802</v>
       </c>
       <c r="BY29">
-        <v>0.5925054132117391</v>
+        <v>0.5087719298245614</v>
       </c>
       <c r="BZ29">
-        <v>0.3390892253334484</v>
+        <v>0.394255874673629</v>
       </c>
       <c r="CA29">
-        <v>0.05240174732595976</v>
+        <v>0.08984175599795813</v>
       </c>
       <c r="CB29">
-        <v>-0.5051582042239322</v>
+        <v>-0.48</v>
       </c>
       <c r="CC29">
-        <v>1.727810755539479</v>
+        <v>1.750000000000001</v>
       </c>
       <c r="CD29">
-        <v>1.669612808891715</v>
+        <v>2.095238095238095</v>
       </c>
       <c r="CE29">
-        <v>1.814371215698331</v>
+        <v>1.595816683093642</v>
       </c>
       <c r="CF29">
-        <v>0.7911837728129636</v>
+        <v>0.6956521739130431</v>
       </c>
       <c r="CG29">
-        <v>0.8344835897326109</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="CH29">
-        <v>0.8941081705222914</v>
+        <v>0.6941287584223222</v>
       </c>
       <c r="CI29">
-        <v>2.109090909090909</v>
+        <v>2.51063829787234</v>
       </c>
       <c r="CJ29">
-        <v>0.4585828636381123</v>
+        <v>0.5206023674760608</v>
       </c>
       <c r="CK29">
-        <v>0.8227846260689783</v>
+        <v>0.3333333333333331</v>
       </c>
       <c r="CL29">
         <v>1</v>
       </c>
       <c r="CM29">
-        <v>2.359189565839473</v>
+        <v>1.764758900405588</v>
       </c>
       <c r="CN29">
-        <v>1.785529878454819</v>
+        <v>1.343311506080449</v>
       </c>
       <c r="CO29">
-        <v>1.200000000000002</v>
+        <v>1.500000000000002</v>
       </c>
       <c r="CP29">
-        <v>2.62114768271084</v>
+        <v>1.749999999999999</v>
       </c>
       <c r="CQ29">
-        <v>1.620819481433749</v>
+        <v>2.499999999999998</v>
       </c>
       <c r="CR29">
         <v>1</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="CU29">
-        <v>-0.7716463412010373</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="CV29">
-        <v>-0.06479549969515769</v>
+        <v>-0.1111111111111111</v>
       </c>
       <c r="CW29">
-        <v>0.3742921436703061</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="CX29">
-        <v>-0.9672440885585487</v>
+        <v>-0.9947096796369372</v>
       </c>
       <c r="CY29">
-        <v>-0.973756290099369</v>
+        <v>-0.7373733287023906</v>
       </c>
       <c r="CZ29">
-        <v>0.04556794345390705</v>
+        <v>-0.008212061513224907</v>
       </c>
       <c r="DA29">
-        <v>0.35564466528411</v>
+        <v>0.7418032786885246</v>
       </c>
       <c r="DB29">
-        <v>-0.04534382313943518</v>
+        <v>0.08491546869005558</v>
       </c>
       <c r="DC29">
         <v>0</v>
@@ -10067,28 +10067,28 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>0.1955100934734224</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D30">
-        <v>-1.37119824783733</v>
+        <v>-1.333333333333331</v>
       </c>
       <c r="E30">
-        <v>-0.2263747095063489</v>
+        <v>-0.1690140845070423</v>
       </c>
       <c r="F30">
-        <v>0.9584774496406444</v>
+        <v>0.7185567525508434</v>
       </c>
       <c r="G30">
-        <v>-0.3986507415009842</v>
+        <v>-0.3806155819631457</v>
       </c>
       <c r="H30">
-        <v>1.921092152653701</v>
+        <v>1.914529914529915</v>
       </c>
       <c r="I30">
-        <v>-0.02476472811057167</v>
+        <v>-0.1066666666666667</v>
       </c>
       <c r="J30">
-        <v>1.960502869247881</v>
+        <v>1.081674556412532</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -10112,13 +10112,13 @@
         <v>1</v>
       </c>
       <c r="R30">
-        <v>-0.4956930073036762</v>
+        <v>-0.2608695652173913</v>
       </c>
       <c r="S30">
-        <v>-0.3263489205408965</v>
+        <v>-0.2142857142857144</v>
       </c>
       <c r="T30">
-        <v>2.249503300416157</v>
+        <v>1.872340425531915</v>
       </c>
       <c r="U30">
         <v>12</v>
@@ -10256,94 +10256,94 @@
         <v>0</v>
       </c>
       <c r="BN30">
-        <v>0.08341254885081602</v>
+        <v>0.1187617275275476</v>
       </c>
       <c r="BO30">
-        <v>-0.2548652364640582</v>
+        <v>-0.2809194725270261</v>
       </c>
       <c r="BP30">
-        <v>-0.4120969807767572</v>
+        <v>-0.4003831053095605</v>
       </c>
       <c r="BQ30">
-        <v>0.02155542669720837</v>
+        <v>0.2994454713493532</v>
       </c>
       <c r="BR30">
-        <v>0.2992295905808321</v>
+        <v>0.6591928251121081</v>
       </c>
       <c r="BS30">
-        <v>-0.3873173703016346</v>
+        <v>-0.1666666666666668</v>
       </c>
       <c r="BT30">
-        <v>-0.7432197560804978</v>
+        <v>-0.5298688809432507</v>
       </c>
       <c r="BU30">
-        <v>-0.4564375526164631</v>
+        <v>-0.3243243243243243</v>
       </c>
       <c r="BV30">
-        <v>-0.4584704580096821</v>
+        <v>-0.4739638682252924</v>
       </c>
       <c r="BW30">
-        <v>-0.4374198417611829</v>
+        <v>-0.4054054054054043</v>
       </c>
       <c r="BX30">
-        <v>-2.226067077882151</v>
+        <v>-1.853300733496333</v>
       </c>
       <c r="BY30">
-        <v>0.7299463267510857</v>
+        <v>0.6491228070175439</v>
       </c>
       <c r="BZ30">
-        <v>-0.3166701029973529</v>
+        <v>-0.2167101827676241</v>
       </c>
       <c r="CA30">
-        <v>-0.227768469775685</v>
+        <v>-0.1633486472690149</v>
       </c>
       <c r="CB30">
-        <v>-0.1609813935735354</v>
+        <v>-0.1454545454545455</v>
       </c>
       <c r="CC30">
-        <v>-0.9873204317368472</v>
+        <v>-1.000000000000002</v>
       </c>
       <c r="CD30">
-        <v>-0.6732496160333232</v>
+        <v>-0.9047619047619048</v>
       </c>
       <c r="CE30">
-        <v>-0.3944678076570667</v>
+        <v>-0.7379804832372873</v>
       </c>
       <c r="CF30">
-        <v>-0.7911837728129636</v>
+        <v>-0.6956521739130431</v>
       </c>
       <c r="CG30">
-        <v>-0.7788513504171035</v>
+        <v>-0.8450704225352113</v>
       </c>
       <c r="CH30">
-        <v>-0.619436428382758</v>
+        <v>-0.8594390849750777</v>
       </c>
       <c r="CI30">
-        <v>-0.3636363636363636</v>
+        <v>-0.3829787234042553</v>
       </c>
       <c r="CJ30">
-        <v>0.5777419012764675</v>
+        <v>0.6281898746289987</v>
       </c>
       <c r="CK30">
-        <v>-1.645569252137958</v>
+        <v>-0.666666666666667</v>
       </c>
       <c r="CL30">
         <v>1</v>
       </c>
       <c r="CM30">
-        <v>-1.160458071647777</v>
+        <v>-0.7260928346101848</v>
       </c>
       <c r="CN30">
-        <v>-1.024133057475147</v>
+        <v>-0.5575304022450892</v>
       </c>
       <c r="CO30">
-        <v>0.6000000000000002</v>
+        <v>0.7499999999999997</v>
       </c>
       <c r="CP30">
-        <v>0.3951049256572043</v>
+        <v>0.25</v>
       </c>
       <c r="CQ30">
-        <v>0.9724916888602487</v>
+        <v>1.499999999999998</v>
       </c>
       <c r="CR30">
         <v>1</v>
@@ -10355,28 +10355,28 @@
         <v>0</v>
       </c>
       <c r="CU30">
-        <v>-0.7716463412010373</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="CV30">
-        <v>-1.036727995122523</v>
+        <v>-0.9444444444444444</v>
       </c>
       <c r="CW30">
-        <v>0.07485842873406121</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="CX30">
-        <v>-0.3348903309583073</v>
+        <v>-0.296395411723741</v>
       </c>
       <c r="CY30">
-        <v>-2.734284412507725</v>
+        <v>-2.070252919964413</v>
       </c>
       <c r="CZ30">
-        <v>-0.8341701311719345</v>
+        <v>-0.5898181776541382</v>
       </c>
       <c r="DA30">
-        <v>-0.6023014492714768</v>
+        <v>-0.6270491803278688</v>
       </c>
       <c r="DB30">
-        <v>-0.6009554171047138</v>
+        <v>-0.5094928121403354</v>
       </c>
       <c r="DC30">
         <v>0</v>
@@ -10390,28 +10390,28 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>-1.955100934734224</v>
+        <v>-1.384615384615385</v>
       </c>
       <c r="D31">
-        <v>0.7835418559070472</v>
+        <v>0.5</v>
       </c>
       <c r="E31">
-        <v>2.199153712721399</v>
+        <v>2.028169014084507</v>
       </c>
       <c r="F31">
-        <v>1.873914711007633</v>
+        <v>1.36501412960722</v>
       </c>
       <c r="G31">
-        <v>1.640846237884355</v>
+        <v>1.713375488054216</v>
       </c>
       <c r="H31">
-        <v>-0.3380861157630313</v>
+        <v>-0.1709401709401709</v>
       </c>
       <c r="I31">
-        <v>-0.6358758392216828</v>
+        <v>-0.6933333333333334</v>
       </c>
       <c r="J31">
-        <v>-1.247592734975925</v>
+        <v>-0.6883383540807024</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -10435,13 +10435,13 @@
         <v>1</v>
       </c>
       <c r="R31">
-        <v>-1.504444826744855</v>
+        <v>-0.927536231884058</v>
       </c>
       <c r="S31">
-        <v>-1.087829735136321</v>
+        <v>-0.7142857142857145</v>
       </c>
       <c r="T31">
-        <v>-0.1071192047817217</v>
+        <v>0</v>
       </c>
       <c r="U31">
         <v>6</v>
@@ -10579,73 +10579,73 @@
         <v>0</v>
       </c>
       <c r="BN31">
-        <v>-0.1486520965163791</v>
+        <v>-0.09235307290178608</v>
       </c>
       <c r="BO31">
-        <v>-0.1272137593367766</v>
+        <v>-0.1209917791803553</v>
       </c>
       <c r="BP31">
-        <v>-0.2674258612709609</v>
+        <v>-0.2399609283326673</v>
       </c>
       <c r="BQ31">
-        <v>-0.1286152217669552</v>
+        <v>0.1367837338262481</v>
       </c>
       <c r="BR31">
-        <v>-0.2252627254934352</v>
+        <v>-0.04035874439461878</v>
       </c>
       <c r="BS31">
-        <v>-0.8403393796479083</v>
+        <v>-0.611111111111111</v>
       </c>
       <c r="BT31">
-        <v>1.255805709493039</v>
+        <v>1.433094082019712</v>
       </c>
       <c r="BU31">
-        <v>-0.6605413765840732</v>
+        <v>-0.5405405405405406</v>
       </c>
       <c r="BV31">
-        <v>-0.339358035095402</v>
+        <v>-0.2486716259298618</v>
       </c>
       <c r="BW31">
-        <v>-0.5088353261303554</v>
+        <v>-0.4774774774774762</v>
       </c>
       <c r="BX31">
-        <v>-0.5912925908632946</v>
+        <v>-0.4596577017114917</v>
       </c>
       <c r="BY31">
-        <v>1.142269067369126</v>
+        <v>1.070175438596491</v>
       </c>
       <c r="BZ31">
-        <v>-0.4960230816861191</v>
+        <v>-0.3838120104438642</v>
       </c>
       <c r="CA31">
-        <v>-0.3384808942755285</v>
+        <v>-0.2633996937212865</v>
       </c>
       <c r="CB31">
-        <v>-0.5949434591762096</v>
+        <v>-0.5672727272727273</v>
       </c>
       <c r="CC31">
-        <v>-0.2468301079342129</v>
+        <v>-0.2500000000000017</v>
       </c>
       <c r="CD31">
-        <v>-0.1898018140646645</v>
+        <v>-0.2857142857142857</v>
       </c>
       <c r="CE31">
-        <v>-0.9865795946898376</v>
+        <v>-1.363589138334777</v>
       </c>
       <c r="CF31">
-        <v>-0.7911837728129636</v>
+        <v>-0.6956521739130431</v>
       </c>
       <c r="CG31">
-        <v>-0.3894256752085518</v>
+        <v>-0.4507042253521127</v>
       </c>
       <c r="CH31">
-        <v>-0.9183244283475809</v>
+        <v>-1.166230695779697</v>
       </c>
       <c r="CI31">
-        <v>0.07272727272727272</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="CJ31">
-        <v>0.4249090071092415</v>
+        <v>0.4901985781205083</v>
       </c>
       <c r="CK31">
         <v>0</v>
@@ -10654,19 +10654,19 @@
         <v>1</v>
       </c>
       <c r="CM31">
-        <v>-0.985061533568915</v>
+        <v>-0.6019648490310953</v>
       </c>
       <c r="CN31">
-        <v>-1.915703264703317</v>
+        <v>-1.160710944808232</v>
       </c>
       <c r="CO31">
         <v>0</v>
       </c>
       <c r="CP31">
-        <v>0.02409779948159809</v>
+        <v>0</v>
       </c>
       <c r="CQ31">
-        <v>-0.32416389628675</v>
+        <v>-0.5</v>
       </c>
       <c r="CR31">
         <v>1</v>
@@ -10678,28 +10678,28 @@
         <v>0</v>
       </c>
       <c r="CU31">
-        <v>-0.7716463412010373</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="CV31">
-        <v>0.6479549969515769</v>
+        <v>0.5</v>
       </c>
       <c r="CW31">
-        <v>0.4491505724043672</v>
+        <v>0.32</v>
       </c>
       <c r="CX31">
-        <v>-0.9734588675030228</v>
+        <v>-1.001572719125028</v>
       </c>
       <c r="CY31">
-        <v>-0.3613986823051583</v>
+        <v>-0.2737630360895135</v>
       </c>
       <c r="CZ31">
-        <v>-1.08535696522845</v>
+        <v>-0.7558810129400564</v>
       </c>
       <c r="DA31">
-        <v>0.2351843754298147</v>
+        <v>0.569672131147541</v>
       </c>
       <c r="DB31">
-        <v>-0.2040899928438003</v>
+        <v>-0.08491546869005595</v>
       </c>
       <c r="DC31">
         <v>0</v>
@@ -10713,25 +10713,25 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>-2.346121121681068</v>
+        <v>-1.692307692307692</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>-0.1666666666666667</v>
       </c>
       <c r="E32">
-        <v>0.1467835092979199</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="F32">
-        <v>0.2406704842569611</v>
+        <v>0.211660619240941</v>
       </c>
       <c r="G32">
-        <v>0.1628046184695909</v>
+        <v>0.195841515975824</v>
       </c>
       <c r="H32">
-        <v>0.7359494544678741</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="I32">
-        <v>2.197457494111651</v>
+        <v>2.026666666666667</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -10758,13 +10758,13 @@
         <v>1</v>
       </c>
       <c r="R32">
-        <v>-1.767597475294728</v>
+        <v>-1.101449275362319</v>
       </c>
       <c r="S32">
-        <v>-1.160351717478743</v>
+        <v>-0.7619047619047621</v>
       </c>
       <c r="T32">
-        <v>0.9640728430354957</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="U32">
         <v>9</v>
@@ -10902,91 +10902,91 @@
         <v>0</v>
       </c>
       <c r="BN32">
-        <v>0.6412504600992456</v>
+        <v>0.6262403187570944</v>
       </c>
       <c r="BO32">
-        <v>0.5312597035129564</v>
+        <v>0.7039743270758966</v>
       </c>
       <c r="BP32">
-        <v>1.118950406990104</v>
+        <v>1.297356953932221</v>
       </c>
       <c r="BQ32">
-        <v>0.465241433523147</v>
+        <v>0.7800369685767102</v>
       </c>
       <c r="BR32">
-        <v>0.554751488155475</v>
+        <v>1</v>
       </c>
       <c r="BS32">
-        <v>-0.5855144993906293</v>
+        <v>-0.3611111111111112</v>
       </c>
       <c r="BT32">
-        <v>0.1997167842843779</v>
+        <v>0.3960570449826752</v>
       </c>
       <c r="BU32">
-        <v>0.5640815672215873</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="BV32">
-        <v>-0.8337869603999609</v>
+        <v>-1.18384697130712</v>
       </c>
       <c r="BW32">
-        <v>0.3660043573920116</v>
+        <v>0.4054054054054069</v>
       </c>
       <c r="BX32">
-        <v>-0.2930179476177487</v>
+        <v>-0.2053789731051346</v>
       </c>
       <c r="BY32">
-        <v>0.9361076970601057</v>
+        <v>0.8596491228070176</v>
       </c>
       <c r="BZ32">
-        <v>-0.5072326428541669</v>
+        <v>-0.3942558746736292</v>
       </c>
       <c r="CA32">
-        <v>0.4794353846824989</v>
+        <v>0.4757529351710056</v>
       </c>
       <c r="CB32">
-        <v>0.4375869727749809</v>
+        <v>0.4363636363636364</v>
       </c>
       <c r="CC32">
-        <v>1.234150539671058</v>
+        <v>1.250000000000002</v>
       </c>
       <c r="CD32">
-        <v>1.037411837086546</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="CE32">
-        <v>1.482273768208682</v>
+        <v>1.244931863646854</v>
       </c>
       <c r="CF32">
-        <v>1.582367545625928</v>
+        <v>1.391304347826087</v>
       </c>
       <c r="CG32">
-        <v>1.891496136727252</v>
+        <v>1.859154929577465</v>
       </c>
       <c r="CH32">
-        <v>2.579253071630959</v>
+        <v>2.423834597101579</v>
       </c>
       <c r="CI32">
-        <v>-0.509090909090909</v>
+        <v>-0.5531914893617021</v>
       </c>
       <c r="CJ32">
-        <v>-1.876160514088992</v>
+        <v>-1.58741415254521</v>
       </c>
       <c r="CK32">
-        <v>-1.645569252137958</v>
+        <v>-0.666666666666667</v>
       </c>
       <c r="CL32">
         <v>1</v>
       </c>
       <c r="CM32">
-        <v>-0.3535219220197846</v>
+        <v>-0.1550247859396129</v>
       </c>
       <c r="CN32">
-        <v>-0.542950625534385</v>
+        <v>-0.2319925163704398</v>
       </c>
       <c r="CO32">
-        <v>-0.3999999999999998</v>
+        <v>-0.4999999999999994</v>
       </c>
       <c r="CP32">
-        <v>0.02409779948159809</v>
+        <v>0</v>
       </c>
       <c r="CQ32">
         <v>0</v>
@@ -11001,28 +11001,28 @@
         <v>0</v>
       </c>
       <c r="CU32">
-        <v>1.929115853002593</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="CV32">
-        <v>-0.3239774984757884</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="CW32">
-        <v>1.721743860883408</v>
+        <v>1.226666666666667</v>
       </c>
       <c r="CX32">
-        <v>-0.4413184203824265</v>
+        <v>-0.4139249629572887</v>
       </c>
       <c r="CY32">
-        <v>-1.411154581380948</v>
+        <v>-1.068523537711589</v>
       </c>
       <c r="CZ32">
-        <v>-0.8341701311719345</v>
+        <v>-0.5898181776541382</v>
       </c>
       <c r="DA32">
-        <v>-0.189294741199607</v>
+        <v>-0.03688524590163934</v>
       </c>
       <c r="DB32">
-        <v>1.303998619347671</v>
+        <v>1.528478436421006</v>
       </c>
       <c r="DC32">
         <v>0</v>
@@ -11036,28 +11036,28 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>-0.5865302804202671</v>
+        <v>-0.3076923076923077</v>
       </c>
       <c r="D33">
-        <v>0.5876563919302854</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E33">
-        <v>-0.4751468553758615</v>
+        <v>-0.3943661971830986</v>
       </c>
       <c r="F33">
-        <v>-0.8898669386876794</v>
+        <v>-0.5866947546811613</v>
       </c>
       <c r="G33">
-        <v>-0.1437268266300896</v>
+        <v>-0.1188802586608294</v>
       </c>
       <c r="H33">
-        <v>0.2174495240115749</v>
+        <v>0.3418803418803419</v>
       </c>
       <c r="I33">
-        <v>-0.6358758392216828</v>
+        <v>-0.6933333333333334</v>
       </c>
       <c r="J33">
-        <v>-0.5346826007039677</v>
+        <v>-0.2950021517488725</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -11081,13 +11081,13 @@
         <v>2</v>
       </c>
       <c r="R33">
-        <v>-0.5834105568203005</v>
+        <v>-0.3188405797101449</v>
       </c>
       <c r="S33">
-        <v>-0.6526978410817927</v>
+        <v>-0.4285714285714287</v>
       </c>
       <c r="T33">
-        <v>-0.1071192047817217</v>
+        <v>0</v>
       </c>
       <c r="U33">
         <v>6</v>
@@ -11225,73 +11225,73 @@
         <v>0</v>
       </c>
       <c r="BN33">
-        <v>-0.407742851278203</v>
+        <v>-0.328054176351127</v>
       </c>
       <c r="BO33">
-        <v>1.19448321497817</v>
+        <v>1.534891514631434</v>
       </c>
       <c r="BP33">
-        <v>1.397401699791866</v>
+        <v>1.606124610710457</v>
       </c>
       <c r="BQ33">
-        <v>0.8679718089497678</v>
+        <v>1.216266173752311</v>
       </c>
       <c r="BR33">
-        <v>1.092692325154723</v>
+        <v>1.717488789237668</v>
       </c>
       <c r="BS33">
-        <v>0.06570463904463965</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="BT33">
-        <v>-1.019814474587528</v>
+        <v>-0.8014738192148556</v>
       </c>
       <c r="BU33">
-        <v>-0.3033596846407555</v>
+        <v>-0.1621621621621622</v>
       </c>
       <c r="BV33">
-        <v>-0.1595656986210169</v>
+        <v>0.09139213602550472</v>
       </c>
       <c r="BW33">
-        <v>-0.1160501620999056</v>
+        <v>-0.08108108108108035</v>
       </c>
       <c r="BX33">
-        <v>-0.2643376934595232</v>
+        <v>-0.1809290953545233</v>
       </c>
       <c r="BY33">
-        <v>0.4550644996723924</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="BZ33">
-        <v>0.2157840524849219</v>
+        <v>0.2793733681462141</v>
       </c>
       <c r="CA33">
-        <v>-0.3701130155611981</v>
+        <v>-0.2919857069933641</v>
       </c>
       <c r="CB33">
-        <v>-0.7595497599220516</v>
+        <v>-0.7272727272727274</v>
       </c>
       <c r="CC33">
-        <v>-0.2468301079342129</v>
+        <v>-0.2500000000000017</v>
       </c>
       <c r="CD33">
-        <v>-0.1898018140646645</v>
+        <v>-0.2857142857142857</v>
       </c>
       <c r="CE33">
-        <v>0.09233712875409854</v>
+        <v>-0.2236360836954612</v>
       </c>
       <c r="CF33">
         <v>0</v>
       </c>
       <c r="CG33">
-        <v>-0.1112644786310148</v>
+        <v>-0.1690140845070423</v>
       </c>
       <c r="CH33">
-        <v>0.1638939376307452</v>
+        <v>-0.05539481150227563</v>
       </c>
       <c r="CI33">
-        <v>-0.2909090909090909</v>
+        <v>-0.2978723404255319</v>
       </c>
       <c r="CJ33">
-        <v>-0.1497426749595286</v>
+        <v>-0.02864869675141547</v>
       </c>
       <c r="CK33">
         <v>0</v>
@@ -11300,19 +11300,19 @@
         <v>1</v>
       </c>
       <c r="CM33">
-        <v>-0.03767570183711026</v>
+        <v>0.06849932401982844</v>
       </c>
       <c r="CN33">
-        <v>0.03225595977411229</v>
+        <v>0.1571562207670722</v>
       </c>
       <c r="CO33">
         <v>0</v>
       </c>
       <c r="CP33">
-        <v>-0.3469093266940081</v>
+        <v>-0.25</v>
       </c>
       <c r="CQ33">
-        <v>-0.32416389628675</v>
+        <v>-0.5</v>
       </c>
       <c r="CR33">
         <v>1</v>
@@ -11327,25 +11327,25 @@
         <v>0</v>
       </c>
       <c r="CV33">
-        <v>0.8423414960370499</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="CW33">
-        <v>-0.4491505724043672</v>
+        <v>-0.32</v>
       </c>
       <c r="CX33">
-        <v>-0.9439386675167709</v>
+        <v>-0.9689732815565983</v>
       </c>
       <c r="CY33">
-        <v>0.06506465169438128</v>
+        <v>0.04910841769445454</v>
       </c>
       <c r="CZ33">
-        <v>0.4346154585274861</v>
+        <v>0.2489922368598481</v>
       </c>
       <c r="DA33">
-        <v>2.753378053812465</v>
+        <v>4.168032786885246</v>
       </c>
       <c r="DB33">
-        <v>-0.2040899928438003</v>
+        <v>-0.08491546869005595</v>
       </c>
       <c r="DC33">
         <v>0</v>
@@ -11359,25 +11359,25 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>0.09775504673671118</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D34">
-        <v>-0.5876563919302854</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="E34">
-        <v>-0.4751468553758615</v>
+        <v>-0.3943661971830986</v>
       </c>
       <c r="F34">
-        <v>-0.05659972751840868</v>
+        <v>0.001736324599126936</v>
       </c>
       <c r="G34">
-        <v>-0.39439654090203</v>
+        <v>-0.3762477117704879</v>
       </c>
       <c r="H34">
-        <v>0.0693066867383466</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="I34">
-        <v>1.364124160778317</v>
+        <v>1.226666666666667</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -11404,13 +11404,13 @@
         <v>1</v>
       </c>
       <c r="R34">
-        <v>0.6007763616541273</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="S34">
-        <v>0.3263489205408961</v>
+        <v>0.2142857142857142</v>
       </c>
       <c r="T34">
-        <v>0.6427152286903305</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="U34">
         <v>9</v>
@@ -11548,73 +11548,73 @@
         <v>1</v>
       </c>
       <c r="BN34">
-        <v>-0.1219994635078571</v>
+        <v>-0.06810653035064829</v>
       </c>
       <c r="BO34">
-        <v>-0.2486237050068568</v>
+        <v>-0.2730997923214802</v>
       </c>
       <c r="BP34">
-        <v>-0.3952114381237004</v>
+        <v>-0.3816591504449476</v>
       </c>
       <c r="BQ34">
-        <v>0.2126817065606897</v>
+        <v>0.5064695009242147</v>
       </c>
       <c r="BR34">
-        <v>0.1714686417935107</v>
+        <v>0.4887892376681618</v>
       </c>
       <c r="BS34">
-        <v>373.4690958427109</v>
+        <v>366.6111111111111</v>
       </c>
       <c r="BT34">
-        <v>-0.4666250375734676</v>
+        <v>-0.2582639426716458</v>
       </c>
       <c r="BU34">
-        <v>-1.783112408405928</v>
+        <v>-1.72972972972973</v>
       </c>
       <c r="BV34">
-        <v>-0.6292731776603478</v>
+        <v>-0.7970244420828906</v>
       </c>
       <c r="BW34">
-        <v>-1.740752431498588</v>
+        <v>-1.720720720720721</v>
       </c>
       <c r="BX34">
-        <v>-1.841751672161928</v>
+        <v>-1.525672371638142</v>
       </c>
       <c r="BY34">
-        <v>0.6268656415965758</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="BZ34">
-        <v>0.9331959672399865</v>
+        <v>0.9477806788511746</v>
       </c>
       <c r="CA34">
-        <v>-0.1870985995512527</v>
+        <v>-0.1265952016334865</v>
       </c>
       <c r="CB34">
-        <v>0.5722648552033971</v>
+        <v>0.5672727272727274</v>
       </c>
       <c r="CC34">
-        <v>-0.2468301079342129</v>
+        <v>-0.2500000000000017</v>
       </c>
       <c r="CD34">
-        <v>-0.1898018140646645</v>
+        <v>-0.2857142857142857</v>
       </c>
       <c r="CE34">
-        <v>0.2881093626660707</v>
+        <v>-0.01678864940123139</v>
       </c>
       <c r="CF34">
-        <v>-0.3955918864064822</v>
+        <v>-0.347826086956522</v>
       </c>
       <c r="CG34">
-        <v>-0.5563223931550739</v>
+        <v>-0.6197183098591549</v>
       </c>
       <c r="CH34">
-        <v>-0.312250241692989</v>
+        <v>-0.5441298552884576</v>
       </c>
       <c r="CI34">
-        <v>0.2909090909090909</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="CJ34">
-        <v>0.7697000163505037</v>
+        <v>0.8015069430436627</v>
       </c>
       <c r="CK34">
         <v>0</v>
@@ -11623,19 +11623,19 @@
         <v>1</v>
       </c>
       <c r="CM34">
-        <v>-0.3611633628306553</v>
+        <v>-0.160432627309599</v>
       </c>
       <c r="CN34">
-        <v>-0.1170765191040554</v>
+        <v>0.05612722170252574</v>
       </c>
       <c r="CO34">
-        <v>-0.8000000000000005</v>
+        <v>-1</v>
       </c>
       <c r="CP34">
-        <v>-0.3469093266940081</v>
+        <v>-0.25</v>
       </c>
       <c r="CQ34">
-        <v>-0.6483277925735</v>
+        <v>-1</v>
       </c>
       <c r="CR34">
         <v>1</v>
@@ -11647,28 +11647,28 @@
         <v>0</v>
       </c>
       <c r="CU34">
-        <v>-0.7716463412010373</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="CV34">
-        <v>-1.555091992683785</v>
+        <v>-1.388888888888889</v>
       </c>
       <c r="CW34">
-        <v>0.4491505724043672</v>
+        <v>0.32</v>
       </c>
       <c r="CX34">
-        <v>-0.9672440885585487</v>
+        <v>-0.9947096796369372</v>
       </c>
       <c r="CY34">
-        <v>-1.979772360047001</v>
+        <v>-1.499018809423546</v>
       </c>
       <c r="CZ34">
-        <v>0.5783176938249344</v>
+        <v>0.3439956263490013</v>
       </c>
       <c r="DA34">
-        <v>-0.6424548792229084</v>
+        <v>-0.6844262295081968</v>
       </c>
       <c r="DB34">
-        <v>-0.6803285019568965</v>
+        <v>-0.5944082808303913</v>
       </c>
       <c r="DC34">
         <v>0</v>
@@ -11682,25 +11682,25 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>-0.4887752336835559</v>
+        <v>-0.2307692307692308</v>
       </c>
       <c r="D35">
-        <v>0.5876563919302854</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E35">
-        <v>0.1467835092979199</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="F35">
-        <v>-0.2032384181114331</v>
+        <v>-0.1018160074899047</v>
       </c>
       <c r="G35">
-        <v>0.2945690558197142</v>
+        <v>0.331126617128646</v>
       </c>
       <c r="H35">
-        <v>0.6618780358312599</v>
+        <v>0.7521367521367521</v>
       </c>
       <c r="I35">
-        <v>1.58634638300054</v>
+        <v>1.44</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -11727,13 +11727,13 @@
         <v>1</v>
       </c>
       <c r="R35">
-        <v>-0.4518342325453641</v>
+        <v>-0.2318840579710145</v>
       </c>
       <c r="S35">
-        <v>-0.3263489205408965</v>
+        <v>-0.2142857142857144</v>
       </c>
       <c r="T35">
-        <v>-0.9640728430354957</v>
+        <v>-0.6808510638297872</v>
       </c>
       <c r="U35">
         <v>3</v>
@@ -11871,73 +11871,73 @@
         <v>0</v>
       </c>
       <c r="BN35">
-        <v>-0.2605252503546978</v>
+        <v>-0.1941267769858614</v>
       </c>
       <c r="BO35">
-        <v>-0.2569241312564337</v>
+        <v>-0.2834989514519724</v>
       </c>
       <c r="BP35">
-        <v>-0.3831764849590557</v>
+        <v>-0.3683138926417141</v>
       </c>
       <c r="BQ35">
-        <v>-0.9409019111867499</v>
+        <v>-0.7430683918669126</v>
       </c>
       <c r="BR35">
-        <v>-0.9649313763674017</v>
+        <v>-1.026905829596413</v>
       </c>
       <c r="BS35">
-        <v>0.2072740169653497</v>
+        <v>0.4166666666666664</v>
       </c>
       <c r="BT35">
-        <v>-0.01401549819832716</v>
+        <v>0.1861805017727987</v>
       </c>
       <c r="BU35">
-        <v>-0.6095154205921706</v>
+        <v>-0.4864864864864865</v>
       </c>
       <c r="BV35">
-        <v>-0.2921625467708759</v>
+        <v>-0.1594048884165781</v>
       </c>
       <c r="BW35">
-        <v>-0.4374198417611829</v>
+        <v>-0.4054054054054043</v>
       </c>
       <c r="BX35">
-        <v>-0.6371809975164553</v>
+        <v>-0.4987775061124695</v>
       </c>
       <c r="BY35">
-        <v>0.798666783520759</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="BZ35">
-        <v>0.05885019613225125</v>
+        <v>0.1331592689295037</v>
       </c>
       <c r="CA35">
-        <v>-0.0899427984595534</v>
+        <v>-0.03879530372639114</v>
       </c>
       <c r="CB35">
-        <v>-0.5650150408587838</v>
+        <v>-0.5381818181818182</v>
       </c>
       <c r="CC35">
-        <v>1.480980647605269</v>
+        <v>1.500000000000001</v>
       </c>
       <c r="CD35">
-        <v>1.632424516432587</v>
+        <v>2.047619047619047</v>
       </c>
       <c r="CE35">
-        <v>2.132679833984035</v>
+        <v>1.932132613552628</v>
       </c>
       <c r="CF35">
-        <v>1.186775659219446</v>
+        <v>1.043478260869565</v>
       </c>
       <c r="CG35">
-        <v>1.668967179465222</v>
+        <v>1.633802816901408</v>
       </c>
       <c r="CH35">
-        <v>2.188417229592267</v>
+        <v>2.02266373191682</v>
       </c>
       <c r="CI35">
-        <v>0.9454545454545454</v>
+        <v>1.148936170212766</v>
       </c>
       <c r="CJ35">
-        <v>-0.7590208045375709</v>
+        <v>-0.5787598458784425</v>
       </c>
       <c r="CK35">
         <v>0</v>
@@ -11946,19 +11946,19 @@
         <v>1</v>
       </c>
       <c r="CM35">
-        <v>1.319953615560997</v>
+        <v>1.029292474087426</v>
       </c>
       <c r="CN35">
-        <v>1.083114144472327</v>
+        <v>0.8681010289990643</v>
       </c>
       <c r="CO35">
-        <v>1.400000000000002</v>
+        <v>1.750000000000001</v>
       </c>
       <c r="CP35">
-        <v>4.105176187413262</v>
+        <v>2.749999999999997</v>
       </c>
       <c r="CQ35">
-        <v>1.944983377720499</v>
+        <v>2.999999999999998</v>
       </c>
       <c r="CR35">
         <v>2</v>
@@ -11973,25 +11973,25 @@
         <v>0</v>
       </c>
       <c r="CV35">
-        <v>-0.4535684978661038</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="CW35">
-        <v>0.2994337149362448</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="CX35">
-        <v>-0.04230009181826475</v>
+        <v>0.02671477175806877</v>
       </c>
       <c r="CY35">
-        <v>0.6318696120161559</v>
+        <v>0.478231221370827</v>
       </c>
       <c r="CZ35">
-        <v>3.031096952926411</v>
+        <v>1.965559430147898</v>
       </c>
       <c r="DA35">
-        <v>-0.3643347701538777</v>
+        <v>-0.2870078471833534</v>
       </c>
       <c r="DB35">
-        <v>-0.2916878462103301</v>
+        <v>-0.1786300167476789</v>
       </c>
       <c r="DC35">
         <v>0</v>
@@ -12005,28 +12005,28 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0.09775504673671118</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D36">
-        <v>0.4897136599419045</v>
+        <v>0.25</v>
       </c>
       <c r="E36">
-        <v>-0.2263747095063489</v>
+        <v>-0.1690140845070423</v>
       </c>
       <c r="F36">
-        <v>-0.5491108600876465</v>
+        <v>-0.346061900760783</v>
       </c>
       <c r="G36">
-        <v>0.01364207827648156</v>
+        <v>0.0426934454944396</v>
       </c>
       <c r="H36">
-        <v>-0.634371790309488</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="I36">
-        <v>-0.6358758392216828</v>
+        <v>-0.6933333333333334</v>
       </c>
       <c r="J36">
-        <v>1.425820268543914</v>
+        <v>0.78667240466366</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -12050,13 +12050,13 @@
         <v>1</v>
       </c>
       <c r="R36">
-        <v>0.2937649383459423</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="S36">
-        <v>0.3263489205408961</v>
+        <v>0.2142857142857142</v>
       </c>
       <c r="T36">
-        <v>-0.5355960239086087</v>
+        <v>-0.3404255319148936</v>
       </c>
       <c r="U36">
         <v>3</v>
@@ -12194,94 +12194,94 @@
         <v>0</v>
       </c>
       <c r="BN36">
-        <v>-0.3269700946829496</v>
+        <v>-0.2545732531292712</v>
       </c>
       <c r="BO36">
-        <v>-0.2677373818589098</v>
+        <v>-0.2970462935223597</v>
       </c>
       <c r="BP36">
-        <v>-0.4143163542690966</v>
+        <v>-0.4028441129272671</v>
       </c>
       <c r="BQ36">
-        <v>-1.432369487978559</v>
+        <v>-1.275415896487985</v>
       </c>
       <c r="BR36">
-        <v>-1.321317180879404</v>
+        <v>-1.502242152466368</v>
       </c>
       <c r="BS36">
-        <v>-0.3590034947174925</v>
+        <v>-0.138888888888889</v>
       </c>
       <c r="BT36">
-        <v>0.01112947621140261</v>
+        <v>0.2108718597974898</v>
       </c>
       <c r="BU36">
-        <v>-0.8646452005516833</v>
+        <v>-0.7567567567567568</v>
       </c>
       <c r="BV36">
-        <v>-0.204513782739613</v>
+        <v>0.006376195536663366</v>
       </c>
       <c r="BW36">
-        <v>-0.8837666190685132</v>
+        <v>-0.855855855855855</v>
       </c>
       <c r="BX36">
-        <v>-0.1782969309848466</v>
+        <v>-0.1075794621026896</v>
       </c>
       <c r="BY36">
-        <v>0.2489031293633725</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="BZ36">
-        <v>-0.6417473768707417</v>
+        <v>-0.5195822454308094</v>
       </c>
       <c r="CA36">
-        <v>-0.4220800719590838</v>
+        <v>-0.3389484430832058</v>
       </c>
       <c r="CB36">
-        <v>-0.6248718774936355</v>
+        <v>-0.5963636363636364</v>
       </c>
       <c r="CC36">
-        <v>1.234150539671058</v>
+        <v>1.250000000000002</v>
       </c>
       <c r="CD36">
-        <v>1.186165006923056</v>
+        <v>1.476190476190476</v>
       </c>
       <c r="CE36">
-        <v>1.819708507013592</v>
+        <v>1.60145591493251</v>
       </c>
       <c r="CF36">
-        <v>1.186775659219446</v>
+        <v>1.043478260869565</v>
       </c>
       <c r="CG36">
-        <v>1.390805982887685</v>
+        <v>1.352112676056338</v>
       </c>
       <c r="CH36">
-        <v>2.050855477874274</v>
+        <v>1.88146438165975</v>
       </c>
       <c r="CI36">
-        <v>0.4363636363636363</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="CJ36">
-        <v>-0.8904048429592769</v>
+        <v>-0.6973851843641174</v>
       </c>
       <c r="CK36">
-        <v>1.645569252137958</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="CL36">
         <v>1</v>
       </c>
       <c r="CM36">
-        <v>2.320982361785118</v>
+        <v>1.737719693555655</v>
       </c>
       <c r="CN36">
-        <v>2.443698952028965</v>
+        <v>1.788587464920487</v>
       </c>
       <c r="CO36">
-        <v>0.4000000000000007</v>
+        <v>0.5000000000000006</v>
       </c>
       <c r="CP36">
-        <v>1.137119178008415</v>
+        <v>0.7499999999999989</v>
       </c>
       <c r="CQ36">
-        <v>0.32416389628675</v>
+        <v>0.5</v>
       </c>
       <c r="CR36">
         <v>1</v>
@@ -12293,28 +12293,28 @@
         <v>0</v>
       </c>
       <c r="CU36">
-        <v>0.3858231706005186</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CV36">
-        <v>0.2344236680779249</v>
+        <v>0.1454389143800401</v>
       </c>
       <c r="CW36">
-        <v>-0.2460591298865874</v>
+        <v>-0.1753062923691876</v>
       </c>
       <c r="CX36">
-        <v>-0.08029985287218173</v>
+        <v>-0.01524872573413352</v>
       </c>
       <c r="CY36">
-        <v>0.1036612579450632</v>
+        <v>0.07832955202835838</v>
       </c>
       <c r="CZ36">
-        <v>0.06902694350561096</v>
+        <v>0.007296984079037132</v>
       </c>
       <c r="DA36">
-        <v>-0.2472901596674424</v>
+        <v>-0.1197575181256474</v>
       </c>
       <c r="DB36">
-        <v>-0.3591722587689771</v>
+        <v>-0.2508266629075518</v>
       </c>
       <c r="DC36">
         <v>0</v>
@@ -12328,28 +12328,28 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>0.1955100934734224</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D37">
-        <v>0.9794273198838089</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E37">
-        <v>2.012574603319264</v>
+        <v>1.859154929577465</v>
       </c>
       <c r="F37">
-        <v>1.494514175728203</v>
+        <v>1.097091591120772</v>
       </c>
       <c r="G37">
-        <v>1.580147094033007</v>
+        <v>1.651054500836707</v>
       </c>
       <c r="H37">
-        <v>0.5878066171946458</v>
+        <v>0.6837606837606838</v>
       </c>
       <c r="I37">
-        <v>-0.02476472811057167</v>
+        <v>-0.1066666666666667</v>
       </c>
       <c r="J37">
-        <v>2.138730402815871</v>
+        <v>1.18000860699549</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -12373,13 +12373,13 @@
         <v>1</v>
       </c>
       <c r="R37">
-        <v>-0.100964034478867</v>
+        <v>0</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>-1.071192047817217</v>
+        <v>-0.7659574468085106</v>
       </c>
       <c r="U37">
         <v>3</v>
@@ -12517,94 +12517,94 @@
         <v>0</v>
       </c>
       <c r="BN37">
-        <v>-0.1890554510133744</v>
+        <v>-0.1291089781703899</v>
       </c>
       <c r="BO37">
-        <v>-0.2668619462778997</v>
+        <v>-0.2959495072078156</v>
       </c>
       <c r="BP37">
-        <v>-0.4262140265991636</v>
+        <v>-0.4160371434551786</v>
       </c>
       <c r="BQ37">
-        <v>-1.036465051118491</v>
+        <v>-0.8465804066543434</v>
       </c>
       <c r="BR37">
-        <v>-0.5749242695429466</v>
+        <v>-0.5067264573991032</v>
       </c>
       <c r="BS37">
-        <v>-1.151792011073472</v>
+        <v>-0.9166666666666669</v>
       </c>
       <c r="BT37">
-        <v>-0.6929298072610378</v>
+        <v>-0.4804861648938679</v>
       </c>
       <c r="BU37">
-        <v>-0.09925586067314544</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="BV37">
-        <v>-0.5933147103654708</v>
+        <v>-0.7290116896918172</v>
       </c>
       <c r="BW37">
-        <v>-0.1517579042844913</v>
+        <v>-0.1171171171171156</v>
       </c>
       <c r="BX37">
-        <v>1.318812336074527</v>
+        <v>1.168704156479217</v>
       </c>
       <c r="BY37">
-        <v>-0.6101025802575438</v>
+        <v>-0.7192982456140351</v>
       </c>
       <c r="BZ37">
-        <v>0.193364930148826</v>
+        <v>0.258485639686684</v>
       </c>
       <c r="CA37">
-        <v>-0.4537121932447534</v>
+        <v>-0.3675344563552834</v>
       </c>
       <c r="CB37">
-        <v>3.086251993867166</v>
+        <v>3.010909090909092</v>
       </c>
       <c r="CC37">
-        <v>2.468301079342116</v>
+        <v>2.500000000000004</v>
       </c>
       <c r="CD37">
-        <v>2.227437195778629</v>
+        <v>2.809523809523809</v>
       </c>
       <c r="CE37">
-        <v>1.714717692939979</v>
+        <v>1.490525574701758</v>
       </c>
       <c r="CF37">
-        <v>2.571347261642133</v>
+        <v>2.260869565217391</v>
       </c>
       <c r="CG37">
-        <v>3.282302119614936</v>
+        <v>3.267605633802817</v>
       </c>
       <c r="CH37">
-        <v>3.076279027762074</v>
+        <v>2.93400360258563</v>
       </c>
       <c r="CI37">
-        <v>0</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="CJ37">
-        <v>-2.209133935582726</v>
+        <v>-1.888052535304055</v>
       </c>
       <c r="CK37">
-        <v>5.759492382482855</v>
+        <v>2.333333333333334</v>
       </c>
       <c r="CL37">
         <v>1</v>
       </c>
       <c r="CM37">
-        <v>6.546699130196864</v>
+        <v>4.72825597115818</v>
       </c>
       <c r="CN37">
-        <v>4.694747800303563</v>
+        <v>3.311506080449019</v>
       </c>
       <c r="CO37">
-        <v>1.600000000000001</v>
+        <v>2</v>
       </c>
       <c r="CP37">
-        <v>1.879133430359628</v>
+        <v>1.249999999999999</v>
       </c>
       <c r="CQ37">
-        <v>1.296655585146999</v>
+        <v>1.999999999999998</v>
       </c>
       <c r="CR37">
         <v>2</v>
@@ -12616,28 +12616,28 @@
         <v>0</v>
       </c>
       <c r="CU37">
-        <v>2.314939023603112</v>
+        <v>2</v>
       </c>
       <c r="CV37">
-        <v>3.434161483843357</v>
+        <v>2.888888888888889</v>
       </c>
       <c r="CW37">
-        <v>-2.919478720628387</v>
+        <v>-2.08</v>
       </c>
       <c r="CX37">
-        <v>0.1456672319970909</v>
+        <v>0.2342888749307146</v>
       </c>
       <c r="CY37">
-        <v>2.049479334777322</v>
+        <v>1.551490457501733</v>
       </c>
       <c r="CZ37">
-        <v>4.048162190101653</v>
+        <v>2.63795429347925</v>
       </c>
       <c r="DA37">
-        <v>0.01694205878034127</v>
+        <v>0.2578158301846636</v>
       </c>
       <c r="DB37">
-        <v>0.4732586692763659</v>
+        <v>0.6397304136972984</v>
       </c>
       <c r="DC37">
         <v>0</v>
@@ -12651,28 +12651,28 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>-2.248366074944357</v>
+        <v>-1.615384615384615</v>
       </c>
       <c r="D38">
-        <v>0.2938281959651427</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E38">
-        <v>2.012574603319264</v>
+        <v>1.859154929577465</v>
       </c>
       <c r="F38">
-        <v>2.144889341235666</v>
+        <v>1.556369185926924</v>
       </c>
       <c r="G38">
-        <v>1.404407309196031</v>
+        <v>1.470619058266791</v>
       </c>
       <c r="H38">
-        <v>-0.3010504064447243</v>
+        <v>-0.1367521367521368</v>
       </c>
       <c r="I38">
-        <v>-0.02476472811057167</v>
+        <v>-0.1066666666666667</v>
       </c>
       <c r="J38">
-        <v>1.069365201407935</v>
+        <v>0.5900043034977449</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -12696,13 +12696,13 @@
         <v>1</v>
       </c>
       <c r="R38">
-        <v>-1.679879925778104</v>
+        <v>-1.043478260869565</v>
       </c>
       <c r="S38">
-        <v>-1.124090726307532</v>
+        <v>-0.7380952380952384</v>
       </c>
       <c r="T38">
-        <v>-2.4637417099796</v>
+        <v>-1.872340425531915</v>
       </c>
       <c r="U38">
         <v>3</v>
@@ -12840,94 +12840,94 @@
         <v>0</v>
       </c>
       <c r="BN38">
-        <v>0.6101840152549174</v>
+        <v>0.5979784252102268</v>
       </c>
       <c r="BO38">
-        <v>0.4471206171158784</v>
+        <v>0.5985609757336028</v>
       </c>
       <c r="BP38">
-        <v>0.6011930613703885</v>
+        <v>0.7232288154770219</v>
       </c>
       <c r="BQ38">
-        <v>-0.2173524231321428</v>
+        <v>0.04066543438077679</v>
       </c>
       <c r="BR38">
-        <v>-0.4807846230680781</v>
+        <v>-0.3811659192825111</v>
       </c>
       <c r="BS38">
-        <v>0.7735515286481925</v>
+        <v>0.9722222222222225</v>
       </c>
       <c r="BT38">
-        <v>0.363159117947623</v>
+        <v>0.5565508721431689</v>
       </c>
       <c r="BU38">
-        <v>-0.252333728648853</v>
+        <v>-0.1081081081081081</v>
       </c>
       <c r="BV38">
-        <v>-0.3618320771547</v>
+        <v>-0.2911795961742825</v>
       </c>
       <c r="BW38">
-        <v>-0.4909814550380633</v>
+        <v>-0.4594594594594592</v>
       </c>
       <c r="BX38">
-        <v>-0.7633741158126479</v>
+        <v>-0.6063569682151592</v>
       </c>
       <c r="BY38">
-        <v>1.417150894447819</v>
+        <v>1.350877192982456</v>
       </c>
       <c r="BZ38">
-        <v>1.375973633377878</v>
+        <v>1.360313315926892</v>
       </c>
       <c r="CA38">
-        <v>1.281535602997692</v>
+        <v>1.200612557427259</v>
       </c>
       <c r="CB38">
-        <v>0.4525511819336938</v>
+        <v>0.4509090909090909</v>
       </c>
       <c r="CC38">
-        <v>0.7404903238026344</v>
+        <v>0.7500000000000006</v>
       </c>
       <c r="CD38">
-        <v>0.7027172049543976</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="CE38">
-        <v>0.1373648396196137</v>
+        <v>-0.1760610712508356</v>
       </c>
       <c r="CF38">
-        <v>0.7911837728129636</v>
+        <v>0.6956521739130431</v>
       </c>
       <c r="CG38">
-        <v>0.9457480683636258</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="CH38">
-        <v>0.633515390673383</v>
+        <v>0.4266450230321108</v>
       </c>
       <c r="CI38">
-        <v>0.07272727272727272</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="CJ38">
-        <v>-0.8173914231340846</v>
+        <v>-0.6314620954957425</v>
       </c>
       <c r="CK38">
-        <v>0.8227846260689783</v>
+        <v>0.3333333333333331</v>
       </c>
       <c r="CL38">
         <v>1</v>
       </c>
       <c r="CM38">
-        <v>1.47278243177842</v>
+        <v>1.137449301487156</v>
       </c>
       <c r="CN38">
-        <v>0.3259431682345085</v>
+        <v>0.3558465855940134</v>
       </c>
       <c r="CO38">
-        <v>0.4000000000000007</v>
+        <v>0.5000000000000006</v>
       </c>
       <c r="CP38">
-        <v>1.137119178008415</v>
+        <v>0.7499999999999989</v>
       </c>
       <c r="CQ38">
-        <v>2.269147274007249</v>
+        <v>3.499999999999998</v>
       </c>
       <c r="CR38">
         <v>1</v>
@@ -12939,28 +12939,28 @@
         <v>0</v>
       </c>
       <c r="CU38">
-        <v>1.543292682402075</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="CV38">
-        <v>0</v>
+        <v>-0.05555555555555555</v>
       </c>
       <c r="CW38">
-        <v>1.422310145947163</v>
+        <v>1.013333333333333</v>
       </c>
       <c r="CX38">
-        <v>0.2524062792944968</v>
+        <v>0.3521618199008</v>
       </c>
       <c r="CY38">
-        <v>-0.2957889386129215</v>
+        <v>-0.2240905047381338</v>
       </c>
       <c r="CZ38">
-        <v>1.75714334760644</v>
+        <v>1.123332374272217</v>
       </c>
       <c r="DA38">
-        <v>2.753378053812465</v>
+        <v>4.168032786885246</v>
       </c>
       <c r="DB38">
-        <v>-1.378811648656104</v>
+        <v>-1.341664405302883</v>
       </c>
       <c r="DC38">
         <v>1</v>
@@ -12974,28 +12974,28 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>-1.759590841260801</v>
+        <v>-1.230769230769231</v>
       </c>
       <c r="D39">
-        <v>-0.1958854639767618</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="E39">
-        <v>1.079679056308592</v>
+        <v>1.014084507042254</v>
       </c>
       <c r="F39">
-        <v>1.529681181438141</v>
+        <v>1.121925592564219</v>
       </c>
       <c r="G39">
-        <v>0.7182942592738696</v>
+        <v>0.7661734944433146</v>
       </c>
       <c r="H39">
-        <v>0.7359494544678741</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="I39">
-        <v>-0.4136536169994606</v>
+        <v>-0.48</v>
       </c>
       <c r="J39">
-        <v>-2.495185469951849</v>
+        <v>-1.376676708161405</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -13019,13 +13019,13 @@
         <v>1</v>
       </c>
       <c r="R39">
-        <v>-1.855315024811353</v>
+        <v>-1.159420289855073</v>
       </c>
       <c r="S39">
-        <v>-1.196612708649953</v>
+        <v>-0.7857142857142859</v>
       </c>
       <c r="T39">
-        <v>-0.1071192047817217</v>
+        <v>0</v>
       </c>
       <c r="U39">
         <v>6</v>
@@ -13163,94 +13163,94 @@
         <v>0</v>
       </c>
       <c r="BN39">
-        <v>0.2825433674431496</v>
+        <v>0.2999158320656664</v>
       </c>
       <c r="BO39">
-        <v>-0.2022904662933985</v>
+        <v>-0.21505136108135</v>
       </c>
       <c r="BP39">
-        <v>-0.3453556150329002</v>
+        <v>-0.3263752782904877</v>
       </c>
       <c r="BQ39">
-        <v>-0.7361237541901632</v>
+        <v>-0.5212569316081328</v>
       </c>
       <c r="BR39">
-        <v>-0.8035491252676271</v>
+        <v>-0.8116591928251121</v>
       </c>
       <c r="BS39">
-        <v>-1.010222633152761</v>
+        <v>-0.7777777777777779</v>
       </c>
       <c r="BT39">
-        <v>1.331240632722229</v>
+        <v>1.507168156093786</v>
       </c>
       <c r="BU39">
-        <v>1.074341127140612</v>
+        <v>1.297297297297297</v>
       </c>
       <c r="BV39">
-        <v>-0.7124271332797509</v>
+        <v>-0.9543039319872476</v>
       </c>
       <c r="BW39">
-        <v>1.401528880745017</v>
+        <v>1.450450450450452</v>
       </c>
       <c r="BX39">
-        <v>-0.4077389642506509</v>
+        <v>-0.3031784841075796</v>
       </c>
       <c r="BY39">
-        <v>0.901747468675269</v>
+        <v>0.8245614035087719</v>
       </c>
       <c r="BZ39">
-        <v>21.16645387556642</v>
+        <v>19.79895561357702</v>
       </c>
       <c r="CA39">
-        <v>-0.4198206347243931</v>
+        <v>-0.3369065849923432</v>
       </c>
       <c r="CB39">
-        <v>-0.4303371584303677</v>
+        <v>-0.4072727272727273</v>
       </c>
       <c r="CC39">
-        <v>0.2468301079342107</v>
+        <v>0.2499999999999994</v>
       </c>
       <c r="CD39">
-        <v>0.2936459879039942</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CE39">
-        <v>0.1030027268243131</v>
+        <v>-0.2123671128513661</v>
       </c>
       <c r="CF39">
-        <v>0.1977959432032411</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="CG39">
-        <v>0.278161196577537</v>
+        <v>0.2253521126760563</v>
       </c>
       <c r="CH39">
-        <v>0.2090077599002873</v>
+        <v>-0.009088027003550075</v>
       </c>
       <c r="CI39">
-        <v>0.1454545454545454</v>
+        <v>0.2127659574468085</v>
       </c>
       <c r="CJ39">
-        <v>-0.2072078431664053</v>
+        <v>-0.0805334242386076</v>
       </c>
       <c r="CK39">
-        <v>-0.8227846260689802</v>
+        <v>-0.3333333333333338</v>
       </c>
       <c r="CL39">
         <v>1</v>
       </c>
       <c r="CM39">
-        <v>-0.007109938593625221</v>
+        <v>0.09013068949977468</v>
       </c>
       <c r="CN39">
-        <v>-0.5761356208406441</v>
+        <v>-0.2544434050514499</v>
       </c>
       <c r="CO39">
-        <v>-0.8000000000000005</v>
+        <v>-1</v>
       </c>
       <c r="CP39">
-        <v>-0.3469093266940081</v>
+        <v>-0.25</v>
       </c>
       <c r="CQ39">
-        <v>-0.6483277925735</v>
+        <v>-1</v>
       </c>
       <c r="CR39">
         <v>1</v>
@@ -13262,28 +13262,28 @@
         <v>0</v>
       </c>
       <c r="CU39">
-        <v>-0.7716463412010373</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="CV39">
-        <v>0.7775459963418923</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="CW39">
-        <v>0.1497168574681224</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="CX39">
-        <v>-0.530655867709242</v>
+        <v>-0.512581155598588</v>
       </c>
       <c r="CY39">
-        <v>-1.061235948355685</v>
+        <v>-0.8036033705042303</v>
       </c>
       <c r="CZ39">
-        <v>-0.951001216779616</v>
+        <v>-0.6670567056941001</v>
       </c>
       <c r="DA39">
-        <v>-0.4531601380233015</v>
+        <v>-0.4139344262295082</v>
       </c>
       <c r="DB39">
-        <v>-0.2834630776959831</v>
+        <v>-0.1698309373801119</v>
       </c>
       <c r="DC39">
         <v>1</v>
@@ -13297,28 +13297,28 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>0.3910201869468447</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D40">
-        <v>-0.0979427319883809</v>
+        <v>-0.25</v>
       </c>
       <c r="E40">
-        <v>-0.5373398918432397</v>
+        <v>-0.4507042253521127</v>
       </c>
       <c r="F40">
-        <v>-0.4998679011121006</v>
+        <v>-0.3112878365608067</v>
       </c>
       <c r="G40">
-        <v>-0.3332631663111223</v>
+        <v>-0.3134808914381689</v>
       </c>
       <c r="H40">
-        <v>0.9581637103777166</v>
+        <v>1.025641025641026</v>
       </c>
       <c r="I40">
-        <v>1.753013049667206</v>
+        <v>1.6</v>
       </c>
       <c r="J40">
-        <v>2.138730402815871</v>
+        <v>1.18000860699549</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -13342,13 +13342,13 @@
         <v>1</v>
       </c>
       <c r="R40">
-        <v>-0.4518342325453641</v>
+        <v>-0.2318840579710145</v>
       </c>
       <c r="S40">
-        <v>-0.3263489205408965</v>
+        <v>-0.2142857142857144</v>
       </c>
       <c r="T40">
-        <v>1.392549662162383</v>
+        <v>1.191489361702128</v>
       </c>
       <c r="U40">
         <v>9</v>
@@ -13486,73 +13486,73 @@
         <v>1</v>
       </c>
       <c r="BN40">
-        <v>-0.4271975757544873</v>
+        <v>-0.34575260804769</v>
       </c>
       <c r="BO40">
-        <v>-0.1636740301088437</v>
+        <v>-0.1666708980953493</v>
       </c>
       <c r="BP40">
-        <v>-0.2650005665267549</v>
+        <v>-0.2372715798019777</v>
       </c>
       <c r="BQ40">
-        <v>-0.2583080545314605</v>
+        <v>-0.003696857670979588</v>
       </c>
       <c r="BR40">
-        <v>-0.6892366974052869</v>
+        <v>-0.6591928251121076</v>
       </c>
       <c r="BS40">
-        <v>-0.8403393796479083</v>
+        <v>-0.611111111111111</v>
       </c>
       <c r="BT40">
-        <v>2.63877930202819</v>
+        <v>2.791118773377737</v>
       </c>
       <c r="BU40">
-        <v>0.1048479632944646</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="BV40">
-        <v>3.986895061319489</v>
+        <v>7.934112646121148</v>
       </c>
       <c r="BW40">
-        <v>0.04463467773073303</v>
+        <v>0.08108108108108164</v>
       </c>
       <c r="BX40">
-        <v>-1.400075758125255</v>
+        <v>-1.149144254278728</v>
       </c>
       <c r="BY40">
-        <v>0.6955860983662491</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="BZ40">
-        <v>1.437626219802141</v>
+        <v>1.4177545691906</v>
       </c>
       <c r="CA40">
-        <v>0.443284388927448</v>
+        <v>0.4430832057172026</v>
       </c>
       <c r="CB40">
-        <v>-0.7595497599220516</v>
+        <v>-0.7272727272727274</v>
       </c>
       <c r="CC40">
-        <v>-0.4936602158684236</v>
+        <v>-0.5000000000000011</v>
       </c>
       <c r="CD40">
-        <v>-0.4129315688194301</v>
+        <v>-0.5714285714285714</v>
       </c>
       <c r="CE40">
-        <v>-0.07460441683083098</v>
+        <v>-0.4000218238555431</v>
       </c>
       <c r="CF40">
-        <v>-0.1977959432032411</v>
+        <v>-0.173913043478261</v>
       </c>
       <c r="CG40">
-        <v>-0.3894256752085518</v>
+        <v>-0.4507042253521127</v>
       </c>
       <c r="CH40">
-        <v>-0.1126407967056086</v>
+        <v>-0.3392420606406232</v>
       </c>
       <c r="CI40">
-        <v>-0.3636363636363636</v>
+        <v>-0.3829787234042553</v>
       </c>
       <c r="CJ40">
-        <v>0.09718685971160676</v>
+        <v>0.19430151839157</v>
       </c>
       <c r="CK40">
         <v>0</v>
@@ -13561,19 +13561,19 @@
         <v>1</v>
       </c>
       <c r="CM40">
-        <v>-1.140590325539512</v>
+        <v>-0.71203244704822</v>
       </c>
       <c r="CN40">
-        <v>-1.051787220230363</v>
+        <v>-0.5762394761459311</v>
       </c>
       <c r="CO40">
         <v>0</v>
       </c>
       <c r="CP40">
-        <v>0.3951049256572043</v>
+        <v>0.25</v>
       </c>
       <c r="CQ40">
-        <v>-0.6483277925735</v>
+        <v>-1</v>
       </c>
       <c r="CR40">
         <v>1</v>
@@ -13585,28 +13585,28 @@
         <v>0</v>
       </c>
       <c r="CU40">
-        <v>-0.7716463412010373</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="CV40">
-        <v>-1.166318994512838</v>
+        <v>-1.055555555555556</v>
       </c>
       <c r="CW40">
-        <v>0.7485842873406121</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="CX40">
-        <v>-0.8413948149329479</v>
+        <v>-0.855733130003107</v>
       </c>
       <c r="CY40">
-        <v>-1.662658598867856</v>
+        <v>-1.258934907891877</v>
       </c>
       <c r="CZ40">
-        <v>-1.30149447360266</v>
+        <v>-0.8987722898139859</v>
       </c>
       <c r="DA40">
-        <v>-0.3441722567265581</v>
+        <v>-0.2581967213114754</v>
       </c>
       <c r="DB40">
-        <v>-0.1247169079916176</v>
+        <v>0</v>
       </c>
       <c r="DC40">
         <v>0</v>
@@ -13620,28 +13620,28 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>-0.5865302804202671</v>
+        <v>-0.3076923076923077</v>
       </c>
       <c r="D41">
-        <v>0.5876563919302854</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E41">
-        <v>-0.4751468553758615</v>
+        <v>-0.3943661971830986</v>
       </c>
       <c r="F41">
-        <v>-0.8898669386876794</v>
+        <v>-0.5866947546811613</v>
       </c>
       <c r="G41">
-        <v>-0.1437268266300896</v>
+        <v>-0.1188802586608294</v>
       </c>
       <c r="H41">
-        <v>-2.00469303508685</v>
+        <v>-1.709401709401709</v>
       </c>
       <c r="I41">
-        <v>-0.08032028366612723</v>
+        <v>-0.16</v>
       </c>
       <c r="J41">
-        <v>1.069365201407935</v>
+        <v>0.5900043034977449</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -13665,13 +13665,13 @@
         <v>1</v>
       </c>
       <c r="R41">
-        <v>0.2937649383459423</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="S41">
-        <v>0.3263489205408961</v>
+        <v>0.2142857142857142</v>
       </c>
       <c r="T41">
-        <v>-0.5355960239086087</v>
+        <v>-0.3404255319148936</v>
       </c>
       <c r="U41">
         <v>3</v>
@@ -13809,94 +13809,94 @@
         <v>1</v>
       </c>
       <c r="BN41">
-        <v>16.52197568333627</v>
+        <v>15.07331876481626</v>
       </c>
       <c r="BO41">
-        <v>1.332283260137161</v>
+        <v>1.707533804883746</v>
       </c>
       <c r="BP41">
-        <v>1.605382164177077</v>
+        <v>1.836748932823372</v>
       </c>
       <c r="BQ41">
-        <v>-0.4153046415621768</v>
+        <v>-0.1737523105360439</v>
       </c>
       <c r="BR41">
-        <v>-0.05043195346867935</v>
+        <v>0.1928251121076236</v>
       </c>
       <c r="BS41">
-        <v>-0.1324924900443553</v>
+        <v>0.08333333333333341</v>
       </c>
       <c r="BT41">
-        <v>-1.308981680299424</v>
+        <v>-1.085424436498806</v>
       </c>
       <c r="BU41">
-        <v>-0.7625932885678782</v>
+        <v>-0.6486486486486487</v>
       </c>
       <c r="BV41">
-        <v>-0.6427576028959266</v>
+        <v>-0.8225292242295429</v>
       </c>
       <c r="BW41">
-        <v>-0.5623969394072359</v>
+        <v>-0.531531531531531</v>
       </c>
       <c r="BX41">
-        <v>0.0511451022809578</v>
+        <v>0.08801955990220034</v>
       </c>
       <c r="BY41">
-        <v>0.6268656415965758</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="BZ41">
-        <v>11.30204004768428</v>
+        <v>10.60835509138381</v>
       </c>
       <c r="CA41">
-        <v>0.4794353846824989</v>
+        <v>0.4757529351710056</v>
       </c>
       <c r="CB41">
-        <v>0.3178732995052778</v>
+        <v>0.3200000000000002</v>
       </c>
       <c r="CC41">
-        <v>0.7404903238026344</v>
+        <v>0.7500000000000006</v>
       </c>
       <c r="CD41">
-        <v>0.5539640351178873</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="CE41">
-        <v>1.110517671471614</v>
+        <v>0.8521448312024256</v>
       </c>
       <c r="CF41">
-        <v>0.3955918864064814</v>
+        <v>0.3478260869565212</v>
       </c>
       <c r="CG41">
-        <v>0.3337934358930444</v>
+        <v>0.2816901408450704</v>
       </c>
       <c r="CH41">
-        <v>0.7606854359302188</v>
+        <v>0.557177874919884</v>
       </c>
       <c r="CI41">
-        <v>0.5818181818181818</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="CJ41">
-        <v>0.03486983392555613</v>
+        <v>0.1380360970657061</v>
       </c>
       <c r="CK41">
-        <v>-0.8227846260689802</v>
+        <v>-0.3333333333333338</v>
       </c>
       <c r="CL41">
         <v>1</v>
       </c>
       <c r="CM41">
-        <v>0.005625796091160028</v>
+        <v>0.09914375844975215</v>
       </c>
       <c r="CN41">
-        <v>0.07650262018245806</v>
+        <v>0.1870907390084191</v>
       </c>
       <c r="CO41">
-        <v>0.2000000000000003</v>
+        <v>0.2500000000000003</v>
       </c>
       <c r="CP41">
-        <v>124.3114850683096</v>
+        <v>83.74999999999993</v>
       </c>
       <c r="CQ41">
-        <v>2.269147274007249</v>
+        <v>3.499999999999998</v>
       </c>
       <c r="CR41">
         <v>1</v>
@@ -13908,28 +13908,28 @@
         <v>0</v>
       </c>
       <c r="CU41">
-        <v>0.7716463412010373</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="CV41">
-        <v>0.1943864990854731</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="CW41">
-        <v>0.3742921436703061</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="CX41">
-        <v>-0.03191985741519403</v>
+        <v>0.03817776332066518</v>
       </c>
       <c r="CY41">
-        <v>-0.7987969735867374</v>
+        <v>-0.6049132450987115</v>
       </c>
       <c r="CZ41">
-        <v>4.264338444747285</v>
+        <v>2.7808711860098</v>
       </c>
       <c r="DA41">
-        <v>1.772487122141774</v>
+        <v>2.766393442622951</v>
       </c>
       <c r="DB41">
-        <v>-2.029670944444002</v>
+        <v>-2.037971248561341</v>
       </c>
       <c r="DC41">
         <v>0</v>
@@ -13943,28 +13943,28 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>-0.4887752336835559</v>
+        <v>-0.2307692307692308</v>
       </c>
       <c r="D42">
-        <v>0.7835418559070472</v>
+        <v>0.5</v>
       </c>
       <c r="E42">
-        <v>-0.2885677459737271</v>
+        <v>-0.2253521126760563</v>
       </c>
       <c r="F42">
-        <v>-0.8112266920184749</v>
+        <v>-0.5311611100085307</v>
       </c>
       <c r="G42">
-        <v>0.03220130819469882</v>
+        <v>0.06174856649141131</v>
       </c>
       <c r="H42">
-        <v>1.365556512879095</v>
+        <v>1.401709401709402</v>
       </c>
       <c r="I42">
-        <v>0.3641241607783172</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="J42">
-        <v>-4.277460805631741</v>
+        <v>-2.36001721399098</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -13988,13 +13988,13 @@
         <v>1</v>
       </c>
       <c r="R42">
-        <v>-0.8027044306118613</v>
+        <v>-0.463768115942029</v>
       </c>
       <c r="S42">
-        <v>-0.6526978410817927</v>
+        <v>-0.4285714285714287</v>
       </c>
       <c r="T42">
-        <v>-0.428476819126887</v>
+        <v>-0.2553191489361702</v>
       </c>
       <c r="U42">
         <v>6</v>
@@ -14132,73 +14132,73 @@
         <v>0</v>
       </c>
       <c r="BN42">
-        <v>3.061547204064206</v>
+        <v>2.82804259360787</v>
       </c>
       <c r="BO42">
-        <v>-0.02739789133161111</v>
+        <v>0.004062171535348508</v>
       </c>
       <c r="BP42">
-        <v>0.003543626046316523</v>
+        <v>0.06051034194051719</v>
       </c>
       <c r="BQ42">
-        <v>1.81677726970062</v>
+        <v>2.243992606284658</v>
       </c>
       <c r="BR42">
-        <v>1.49614795290416</v>
+        <v>2.25560538116592</v>
       </c>
       <c r="BS42">
-        <v>-0.07586473887607106</v>
+        <v>0.138888888888889</v>
       </c>
       <c r="BT42">
-        <v>1.306095658312499</v>
+        <v>1.482476798069095</v>
       </c>
       <c r="BU42">
-        <v>0.6151075232134898</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="BV42">
-        <v>-0.4382438201563136</v>
+        <v>-0.4357066950053133</v>
       </c>
       <c r="BW42">
-        <v>0.5623969394072371</v>
+        <v>0.6036036036036054</v>
       </c>
       <c r="BX42">
-        <v>0.5673896771290177</v>
+        <v>0.5281173594132027</v>
       </c>
       <c r="BY42">
-        <v>-0.1290593828698307</v>
+        <v>-0.2280701754385965</v>
       </c>
       <c r="BZ42">
-        <v>0.4567896175979513</v>
+        <v>0.5039164490861616</v>
       </c>
       <c r="CA42">
-        <v>1.87124872125196</v>
+        <v>1.73353751914242</v>
       </c>
       <c r="CB42">
-        <v>0.5124080185685455</v>
+        <v>0.5090909090909091</v>
       </c>
       <c r="CC42">
-        <v>-0.2468301079342129</v>
+        <v>-0.2500000000000017</v>
       </c>
       <c r="CD42">
-        <v>-0.3385549839011749</v>
+        <v>-0.4761904761904762</v>
       </c>
       <c r="CE42">
-        <v>-0.2359385222440154</v>
+        <v>-0.5704829004956418</v>
       </c>
       <c r="CF42">
-        <v>-0.3955918864064822</v>
+        <v>-0.347826086956522</v>
       </c>
       <c r="CG42">
-        <v>-0.5006901538395666</v>
+        <v>-0.5633802816901409</v>
       </c>
       <c r="CH42">
-        <v>-0.4398655870367195</v>
+        <v>-0.6751197825053372</v>
       </c>
       <c r="CI42">
-        <v>-0.07272727272727272</v>
+        <v>-0.0425531914893617</v>
       </c>
       <c r="CJ42">
-        <v>0.4494572343044122</v>
+        <v>0.5123629277266876</v>
       </c>
       <c r="CK42">
         <v>0</v>
@@ -14207,19 +14207,19 @@
         <v>1</v>
       </c>
       <c r="CM42">
-        <v>-0.03767570183711026</v>
+        <v>0.06849932401982844</v>
       </c>
       <c r="CN42">
-        <v>-0.1226073516550983</v>
+        <v>0.05238540692235757</v>
       </c>
       <c r="CO42">
         <v>0</v>
       </c>
       <c r="CP42">
-        <v>0.02409779948159809</v>
+        <v>0</v>
       </c>
       <c r="CQ42">
-        <v>-0.32416389628675</v>
+        <v>-0.5</v>
       </c>
       <c r="CR42">
         <v>1</v>
@@ -14231,28 +14231,28 @@
         <v>0</v>
       </c>
       <c r="CU42">
-        <v>0.3858231706005186</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CV42">
-        <v>-0.3239774984757884</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="CW42">
-        <v>0.6737258586065509</v>
+        <v>0.48</v>
       </c>
       <c r="CX42">
-        <v>0.1281107004050145</v>
+        <v>0.2149010301389926</v>
       </c>
       <c r="CY42">
-        <v>2.372340638204711</v>
+        <v>1.795925770217974</v>
       </c>
       <c r="CZ42">
-        <v>2.553931351450828</v>
+        <v>1.650099135504757</v>
       </c>
       <c r="DA42">
-        <v>-0.183558536920831</v>
+        <v>-0.02868852459016394</v>
       </c>
       <c r="DB42">
-        <v>-0.7597015868090793</v>
+        <v>-0.6793237495204473</v>
       </c>
       <c r="DC42">
         <v>0</v>
@@ -14266,28 +14266,28 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>0.4887752336835559</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D43">
-        <v>-0.4897136599419045</v>
+        <v>-0.5833333333333334</v>
       </c>
       <c r="E43">
-        <v>0.1467835092979199</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="F43">
-        <v>0.6481809474031125</v>
+        <v>0.4994336390272535</v>
       </c>
       <c r="G43">
-        <v>0.05121382144414591</v>
+        <v>0.08126908226826109</v>
       </c>
       <c r="H43">
-        <v>-0.597336080991181</v>
+        <v>-0.4102564102564102</v>
       </c>
       <c r="I43">
-        <v>-0.858098061443905</v>
+        <v>-0.9066666666666666</v>
       </c>
       <c r="J43">
-        <v>1.960502869247881</v>
+        <v>1.081674556412532</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -14311,13 +14311,13 @@
         <v>1</v>
       </c>
       <c r="R43">
-        <v>0.03061228979606946</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="S43">
         <v>0</v>
       </c>
       <c r="T43">
-        <v>0.6427152286903305</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="U43">
         <v>9</v>
@@ -14455,94 +14455,94 @@
         <v>0</v>
       </c>
       <c r="BN43">
-        <v>-0.4256527416119552</v>
+        <v>-0.3443472351991846</v>
       </c>
       <c r="BO43">
-        <v>-0.2009611011518647</v>
+        <v>-0.2133858707518571</v>
       </c>
       <c r="BP43">
-        <v>-0.1891071451443848</v>
+        <v>-0.1531152677614345</v>
       </c>
       <c r="BQ43">
-        <v>-0.7292978156236101</v>
+        <v>-0.5138632162661733</v>
       </c>
       <c r="BR43">
-        <v>-0.2723325487308694</v>
+        <v>-0.1031390134529146</v>
       </c>
       <c r="BS43">
-        <v>-1.038536508736903</v>
+        <v>-0.8055555555555557</v>
       </c>
       <c r="BT43">
-        <v>-0.8060821921048229</v>
+        <v>-0.5915972760049791</v>
       </c>
       <c r="BU43">
-        <v>-2.140294100349246</v>
+        <v>-2.108108108108108</v>
       </c>
       <c r="BV43">
-        <v>-0.3910483318317876</v>
+        <v>-0.3464399574920295</v>
       </c>
       <c r="BW43">
-        <v>-1.91929114242152</v>
+        <v>-1.900900900900901</v>
       </c>
       <c r="BX43">
-        <v>-0.6543891500113905</v>
+        <v>-0.5134474327628361</v>
       </c>
       <c r="BY43">
-        <v>0.5581451848269025</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="BZ43">
-        <v>-0.8827529419837712</v>
+        <v>-0.744125326370757</v>
       </c>
       <c r="CA43">
-        <v>-0.5260141847548553</v>
+        <v>-0.4328739152628893</v>
       </c>
       <c r="CB43">
-        <v>-0.8343708057156163</v>
+        <v>-0.8000000000000002</v>
       </c>
       <c r="CC43">
-        <v>-0.4936602158684236</v>
+        <v>-0.5000000000000011</v>
       </c>
       <c r="CD43">
-        <v>-0.3385549839011749</v>
+        <v>-0.4761904761904762</v>
       </c>
       <c r="CE43">
-        <v>-0.249054424695608</v>
+        <v>-0.5843407940097201</v>
       </c>
       <c r="CF43">
-        <v>-0.5933878296097234</v>
+        <v>-0.5217391304347829</v>
       </c>
       <c r="CG43">
-        <v>-0.6119546324705814</v>
+        <v>-0.676056338028169</v>
       </c>
       <c r="CH43">
-        <v>-0.5937272290875307</v>
+        <v>-0.8330500473917418</v>
       </c>
       <c r="CI43">
-        <v>0.07272727272727272</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="CJ43">
-        <v>0.6882445352028919</v>
+        <v>0.7279616011686135</v>
       </c>
       <c r="CK43">
-        <v>4.113923130344897</v>
+        <v>1.666666666666668</v>
       </c>
       <c r="CL43">
         <v>1</v>
       </c>
       <c r="CM43">
-        <v>2.253394531014106</v>
+        <v>1.689887841369987</v>
       </c>
       <c r="CN43">
-        <v>2.456047310015727</v>
+        <v>1.796941590271282</v>
       </c>
       <c r="CO43">
-        <v>0.8000000000000014</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="CP43">
-        <v>-0.3469093266940081</v>
+        <v>-0.25</v>
       </c>
       <c r="CQ43">
-        <v>-1.296655585146999</v>
+        <v>-1.999999999999998</v>
       </c>
       <c r="CR43">
         <v>1</v>
@@ -14554,28 +14554,28 @@
         <v>0</v>
       </c>
       <c r="CU43">
-        <v>0.7716463412010373</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="CV43">
-        <v>0.4535684978661038</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CW43">
-        <v>-0.4491505724043672</v>
+        <v>-0.32</v>
       </c>
       <c r="CX43">
-        <v>-0.6596125308070799</v>
+        <v>-0.6549892249764634</v>
       </c>
       <c r="CY43">
-        <v>-0.9190815036891716</v>
+        <v>-0.6959795525762409</v>
       </c>
       <c r="CZ43">
-        <v>-0.8014574272017838</v>
+        <v>-0.5681913898029489</v>
       </c>
       <c r="DA43">
-        <v>-0.1434051069693992</v>
+        <v>0.02868852459016394</v>
       </c>
       <c r="DB43">
-        <v>-1.394686265626541</v>
+        <v>-1.358647499040894</v>
       </c>
       <c r="DC43">
         <v>0</v>
@@ -14589,28 +14589,28 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>-0.7820403738936894</v>
+        <v>-0.4615384615384616</v>
       </c>
       <c r="D44">
-        <v>1.469140979825713</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="E44">
-        <v>-0.1019886365715927</v>
+        <v>-0.05633802816901409</v>
       </c>
       <c r="F44">
-        <v>-1.038455557381498</v>
+        <v>-0.6916240739856852</v>
       </c>
       <c r="G44">
-        <v>0.3114841285208303</v>
+        <v>0.3484936500504139</v>
       </c>
       <c r="H44">
-        <v>-0.4121575343996455</v>
+        <v>-0.2393162393162393</v>
       </c>
       <c r="I44">
-        <v>-0.2469869503327939</v>
+        <v>-0.32</v>
       </c>
       <c r="J44">
-        <v>-1.247592734975925</v>
+        <v>-0.6883383540807024</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -14634,13 +14634,13 @@
         <v>1</v>
       </c>
       <c r="R44">
-        <v>-1.065857079161734</v>
+        <v>-0.6376811594202898</v>
       </c>
       <c r="S44">
-        <v>-0.6526978410817927</v>
+        <v>-0.4285714285714287</v>
       </c>
       <c r="T44">
-        <v>0</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="U44">
         <v>2</v>
@@ -14778,73 +14778,73 @@
         <v>1</v>
       </c>
       <c r="BN44">
-        <v>15.24706311076302</v>
+        <v>13.91350007335738</v>
       </c>
       <c r="BO44">
-        <v>1.332283260137161</v>
+        <v>1.707533804883746</v>
       </c>
       <c r="BP44">
-        <v>1.429433894526662</v>
+        <v>1.641644308285604</v>
       </c>
       <c r="BQ44">
-        <v>0.3218967236255361</v>
+        <v>0.6247689463955642</v>
       </c>
       <c r="BR44">
-        <v>0.3799207161307194</v>
+        <v>0.7668161434977584</v>
       </c>
       <c r="BS44">
-        <v>0.09401851462878116</v>
+        <v>0.3055555555555552</v>
       </c>
       <c r="BT44">
-        <v>-0.3157551911150874</v>
+        <v>-0.1101157945234975</v>
       </c>
       <c r="BU44">
-        <v>-0.1502818166650479</v>
+        <v>0</v>
       </c>
       <c r="BV44">
-        <v>-0.6000569229832603</v>
+        <v>-0.7417640807651436</v>
       </c>
       <c r="BW44">
-        <v>-0.4195659706688894</v>
+        <v>-0.387387387387386</v>
       </c>
       <c r="BX44">
-        <v>-0.02915960936207406</v>
+        <v>0.01955990220048858</v>
       </c>
       <c r="BY44">
-        <v>0.3176235861330458</v>
+        <v>0.2280701754385965</v>
       </c>
       <c r="BZ44">
-        <v>0.9836389924962019</v>
+        <v>0.994778067885117</v>
       </c>
       <c r="CA44">
-        <v>4.164577514463004</v>
+        <v>3.806023481368045</v>
       </c>
       <c r="CB44">
-        <v>1.125940594075775</v>
+        <v>1.105454545454545</v>
       </c>
       <c r="CC44">
-        <v>-0.7404903238026365</v>
+        <v>-0.7500000000000028</v>
       </c>
       <c r="CD44">
-        <v>-0.5244964461968128</v>
+        <v>-0.7142857142857143</v>
       </c>
       <c r="CE44">
-        <v>-0.6615337234369568</v>
+        <v>-1.020154815943468</v>
       </c>
       <c r="CF44">
-        <v>-0.1977959432032411</v>
+        <v>-0.173913043478261</v>
       </c>
       <c r="CG44">
-        <v>-0.3337934358930444</v>
+        <v>-0.3943661971830986</v>
       </c>
       <c r="CH44">
-        <v>-0.3511444362394645</v>
+        <v>-0.5840525440456704</v>
       </c>
       <c r="CI44">
-        <v>-0.6545454545454545</v>
+        <v>-0.723404255319149</v>
       </c>
       <c r="CJ44">
-        <v>-0.2072078431664053</v>
+        <v>-0.0805334242386076</v>
       </c>
       <c r="CK44">
         <v>0</v>
@@ -14853,19 +14853,19 @@
         <v>1</v>
       </c>
       <c r="CM44">
-        <v>-1.003044390943832</v>
+        <v>-0.6146913023884637</v>
       </c>
       <c r="CN44">
-        <v>-1.317267182680439</v>
+        <v>-0.7558465855940134</v>
       </c>
       <c r="CO44">
-        <v>0.4000000000000007</v>
+        <v>0.5000000000000006</v>
       </c>
       <c r="CP44">
-        <v>0.02409779948159809</v>
+        <v>0</v>
       </c>
       <c r="CQ44">
-        <v>-0.6483277925735</v>
+        <v>-1</v>
       </c>
       <c r="CR44">
         <v>1</v>
@@ -14877,28 +14877,28 @@
         <v>0</v>
       </c>
       <c r="CU44">
-        <v>0.3858231706005186</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CV44">
-        <v>0.9719324954273653</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="CW44">
-        <v>-0.5240090011384284</v>
+        <v>-0.3733333333333334</v>
       </c>
       <c r="CX44">
-        <v>-0.7637100781270214</v>
+        <v>-0.7699451364019773</v>
       </c>
       <c r="CY44">
-        <v>-1.564243983329501</v>
+        <v>-1.184426110864808</v>
       </c>
       <c r="CZ44">
-        <v>-0.4836768743488901</v>
+        <v>-0.3581025935342525</v>
       </c>
       <c r="DA44">
-        <v>-0.4818411594171814</v>
+        <v>-0.4549180327868853</v>
       </c>
       <c r="DB44">
-        <v>-0.3628361625481659</v>
+        <v>-0.2547464060701679</v>
       </c>
       <c r="DC44">
         <v>0</v>
